--- a/Project_3/data.xlsx
+++ b/Project_3/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="22">
   <si>
     <t>Tahoe</t>
   </si>
@@ -80,18 +80,6 @@
   </si>
   <si>
     <t>DropRate</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -411,34 +399,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.5630868143877499</c:v>
+                  <c:v>2.5859900047540498</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5601306207088199</c:v>
+                  <c:v>2.5830895118154502</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5556700582051302</c:v>
+                  <c:v>2.5806377245102601</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2346508892412702</c:v>
+                  <c:v>2.5794479315188501</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7410650805955801</c:v>
+                  <c:v>2.57840755702841</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.17342445134313</c:v>
+                  <c:v>2.4575911791834302</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.91112391328522402</c:v>
+                  <c:v>2.32731401369657</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.62445019882114305</c:v>
+                  <c:v>1.25479891995176</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.48114928090694897</c:v>
+                  <c:v>0.789631766701548</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.307422411569089</c:v>
+                  <c:v>0.38028920396124199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -522,34 +510,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.5630868143877499</c:v>
+                  <c:v>2.5859900047540498</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5601306207088199</c:v>
+                  <c:v>2.5830895118154502</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5556700582051302</c:v>
+                  <c:v>2.5806377245102601</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2393652469604199</c:v>
+                  <c:v>2.5794479315188501</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.25273805160999</c:v>
+                  <c:v>2.57840755702841</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0308778318208498</c:v>
+                  <c:v>2.49272553339248</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.05259376199455</c:v>
+                  <c:v>2.2425240739001202</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.56922925857124196</c:v>
+                  <c:v>1.3805198779974099</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.43907945598572301</c:v>
+                  <c:v>0.66885196028112004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.33594767692956601</c:v>
+                  <c:v>0.34566254958980203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -633,34 +621,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.5630868143877499</c:v>
+                  <c:v>2.5859900047540498</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5601306207088199</c:v>
+                  <c:v>2.5830895118154502</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5556700582051302</c:v>
+                  <c:v>2.5806377245102601</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4415413613613102</c:v>
+                  <c:v>2.5794479315188501</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.25273805160999</c:v>
+                  <c:v>2.57840755702841</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3292281666890902</c:v>
+                  <c:v>2.49272553339248</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1228898221466701</c:v>
+                  <c:v>2.3849336533183001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94817221020728504</c:v>
+                  <c:v>1.44960637883307</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.59807437567725696</c:v>
+                  <c:v>0.82556488184445698</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.35922785802654</c:v>
+                  <c:v>0.44668038420375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -744,34 +732,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.4157972495489002</c:v>
+                  <c:v>2.45268692746727</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3687829203697901</c:v>
+                  <c:v>2.44741998261338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2112282098404199</c:v>
+                  <c:v>2.4449385004806898</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0981755832261699</c:v>
+                  <c:v>2.4418761029687501</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8417004460627999</c:v>
+                  <c:v>2.4394427571887398</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.78643064168872101</c:v>
+                  <c:v>2.3353083352770501</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.77625061195047496</c:v>
+                  <c:v>2.4223277173245501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.91639358782229596</c:v>
+                  <c:v>1.7985814715552</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.53749634475608998</c:v>
+                  <c:v>1.01258607712022</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.41719237208525001</c:v>
+                  <c:v>0.67480738882925395</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7136,34 +7124,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6.5931014999999996E-2</c:v>
+                  <c:v>6.5900929999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.6004610000000005E-2</c:v>
+                  <c:v>6.5971589999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6083890000000006E-2</c:v>
+                  <c:v>6.6044290000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.7791539999999997E-2</c:v>
+                  <c:v>6.6122810000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.203147E-2</c:v>
+                  <c:v>6.6179134000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.7341534000000003E-2</c:v>
+                  <c:v>6.688181E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.4438479999999996E-2</c:v>
+                  <c:v>6.7892889999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.0779239999999997E-2</c:v>
+                  <c:v>8.2040779999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.10074664</c:v>
+                  <c:v>8.9289519999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.12142581</c:v>
+                  <c:v>0.11655343999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7247,34 +7235,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6.5931014999999996E-2</c:v>
+                  <c:v>6.5900929999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.6004610000000005E-2</c:v>
+                  <c:v>6.5971589999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6083890000000006E-2</c:v>
+                  <c:v>6.6044290000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.8745249999999994E-2</c:v>
+                  <c:v>6.6122810000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.8612359999999997E-2</c:v>
+                  <c:v>6.6179134000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.9976404000000006E-2</c:v>
+                  <c:v>6.6856299999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.8179530000000006E-2</c:v>
+                  <c:v>6.8949499999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.11251232</c:v>
+                  <c:v>8.3868705000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.12112247</c:v>
+                  <c:v>0.109429754</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.13526587000000001</c:v>
+                  <c:v>0.14373167000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7358,34 +7346,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6.5931014999999996E-2</c:v>
+                  <c:v>6.5900929999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.6004610000000005E-2</c:v>
+                  <c:v>6.5971589999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6083890000000006E-2</c:v>
+                  <c:v>6.6044290000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6981009999999994E-2</c:v>
+                  <c:v>6.6122810000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.8612359999999997E-2</c:v>
+                  <c:v>6.6179134000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.7512520000000006E-2</c:v>
+                  <c:v>6.6856299999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.4200040000000004E-2</c:v>
+                  <c:v>6.7854899999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.7344740000000004E-2</c:v>
+                  <c:v>8.3109080000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.10502648000000001</c:v>
+                  <c:v>0.100583345</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.12342562999999999</c:v>
+                  <c:v>0.11908911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7469,34 +7457,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6.5908469999999997E-2</c:v>
+                  <c:v>6.5861050000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.6272129999999999E-2</c:v>
+                  <c:v>6.5931365000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.8471610000000002E-2</c:v>
+                  <c:v>6.5986690000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.7942909999999995E-2</c:v>
+                  <c:v>6.6055500000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.1278300000000003E-2</c:v>
+                  <c:v>6.6133579999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10813950999999999</c:v>
+                  <c:v>6.7604265999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.7615339999999995E-2</c:v>
+                  <c:v>6.6630124999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.8821694000000007E-2</c:v>
+                  <c:v>7.4809329999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.105615705</c:v>
+                  <c:v>8.4726510000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.11179431500000001</c:v>
+                  <c:v>9.0161610000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9521,25 +9509,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6288118999999999E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.7159165999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.3875124000000001E-2</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>3.7439161999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2871664E-2</c:v>
+                  <c:v>1.1848341999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.3191490000000001E-2</c:v>
+                  <c:v>1.6558674999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.466064E-2</c:v>
+                  <c:v>4.4543430000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.105442174</c:v>
+                  <c:v>7.7433630000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9632,25 +9620,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0509721000000001E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0865935E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.3148147999999999E-3</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>3.6913992E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5300546999999999E-2</c:v>
+                  <c:v>1.2300123E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.7337280000000002E-2</c:v>
+                  <c:v>1.0526316000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>3.856383E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.2327050000000004E-2</c:v>
+                  <c:v>6.9651740000000004E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9743,25 +9731,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>9.6385540000000003E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0865935E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5151514999999999E-3</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>3.6913992E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1384928000000001E-2</c:v>
+                  <c:v>1.1569611E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1877212000000002E-2</c:v>
+                  <c:v>1.5615241E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.8139959999999999E-2</c:v>
+                  <c:v>5.0793650000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.3832340000000005E-2</c:v>
+                  <c:v>6.8965520000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9848,31 +9836,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7801146999999999E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>2.5549309999999999E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1563341999999998E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>5.504587E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
-                  <c:v>2.75E-2</c:v>
+                  <c:v>1.1359333000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>3.3012380000000001E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>2.8811524000000002E-2</c:v>
+                  <c:v>6.3788029999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>6.1403510000000001E-2</c:v>
+                  <c:v>1.1226252000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>8.2089549999999997E-2</c:v>
+                  <c:v>2.7989822000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25709,8 +25697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O110" workbookViewId="0">
-      <selection activeCell="P122" sqref="P122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25763,34 +25751,34 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>2.5630868143877499</v>
+        <v>2.5859900047540498</v>
       </c>
       <c r="C3">
-        <v>2.5601306207088199</v>
+        <v>2.5830895118154502</v>
       </c>
       <c r="D3">
-        <v>2.5556700582051302</v>
+        <v>2.5806377245102601</v>
       </c>
       <c r="E3">
-        <v>2.2346508892412702</v>
+        <v>2.5794479315188501</v>
       </c>
       <c r="F3">
-        <v>1.7410650805955801</v>
+        <v>2.57840755702841</v>
       </c>
       <c r="G3">
-        <v>1.17342445134313</v>
+        <v>2.4575911791834302</v>
       </c>
       <c r="H3">
-        <v>0.91112391328522402</v>
+        <v>2.32731401369657</v>
       </c>
       <c r="I3">
-        <v>0.62445019882114305</v>
+        <v>1.25479891995176</v>
       </c>
       <c r="J3">
-        <v>0.48114928090694897</v>
+        <v>0.789631766701548</v>
       </c>
       <c r="K3">
-        <v>0.307422411569089</v>
+        <v>0.38028920396124199</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -25798,34 +25786,34 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>2.5630868143877499</v>
+        <v>2.5859900047540498</v>
       </c>
       <c r="C4">
-        <v>2.5601306207088199</v>
+        <v>2.5830895118154502</v>
       </c>
       <c r="D4">
-        <v>2.5556700582051302</v>
+        <v>2.5806377245102601</v>
       </c>
       <c r="E4">
-        <v>2.2393652469604199</v>
+        <v>2.5794479315188501</v>
       </c>
       <c r="F4">
-        <v>2.25273805160999</v>
+        <v>2.57840755702841</v>
       </c>
       <c r="G4">
-        <v>2.0308778318208498</v>
+        <v>2.49272553339248</v>
       </c>
       <c r="H4">
-        <v>1.05259376199455</v>
+        <v>2.2425240739001202</v>
       </c>
       <c r="I4">
-        <v>0.56922925857124196</v>
+        <v>1.3805198779974099</v>
       </c>
       <c r="J4">
-        <v>0.43907945598572301</v>
+        <v>0.66885196028112004</v>
       </c>
       <c r="K4">
-        <v>0.33594767692956601</v>
+        <v>0.34566254958980203</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -25833,34 +25821,34 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>2.5630868143877499</v>
+        <v>2.5859900047540498</v>
       </c>
       <c r="C5">
-        <v>2.5601306207088199</v>
+        <v>2.5830895118154502</v>
       </c>
       <c r="D5">
-        <v>2.5556700582051302</v>
+        <v>2.5806377245102601</v>
       </c>
       <c r="E5">
-        <v>2.4415413613613102</v>
+        <v>2.5794479315188501</v>
       </c>
       <c r="F5">
-        <v>2.25273805160999</v>
+        <v>2.57840755702841</v>
       </c>
       <c r="G5">
-        <v>2.3292281666890902</v>
+        <v>2.49272553339248</v>
       </c>
       <c r="H5">
-        <v>1.1228898221466701</v>
+        <v>2.3849336533183001</v>
       </c>
       <c r="I5">
-        <v>0.94817221020728504</v>
+        <v>1.44960637883307</v>
       </c>
       <c r="J5">
-        <v>0.59807437567725696</v>
+        <v>0.82556488184445698</v>
       </c>
       <c r="K5">
-        <v>0.35922785802654</v>
+        <v>0.44668038420375</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -25868,34 +25856,34 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>2.4157972495489002</v>
+        <v>2.45268692746727</v>
       </c>
       <c r="C6">
-        <v>2.3687829203697901</v>
+        <v>2.44741998261338</v>
       </c>
       <c r="D6">
-        <v>2.2112282098404199</v>
+        <v>2.4449385004806898</v>
       </c>
       <c r="E6">
-        <v>2.0981755832261699</v>
+        <v>2.4418761029687501</v>
       </c>
       <c r="F6">
-        <v>1.8417004460627999</v>
+        <v>2.4394427571887398</v>
       </c>
       <c r="G6">
-        <v>0.78643064168872101</v>
+        <v>2.3353083352770501</v>
       </c>
       <c r="H6">
-        <v>0.77625061195047496</v>
+        <v>2.4223277173245501</v>
       </c>
       <c r="I6">
-        <v>0.91639358782229596</v>
+        <v>1.7985814715552</v>
       </c>
       <c r="J6">
-        <v>0.53749634475608998</v>
+        <v>1.01258607712022</v>
       </c>
       <c r="K6">
-        <v>0.41719237208525001</v>
+        <v>0.67480738882925395</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -25938,34 +25926,34 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>6.5931014999999996E-2</v>
+        <v>6.5900929999999996E-2</v>
       </c>
       <c r="C9">
-        <v>6.6004610000000005E-2</v>
+        <v>6.5971589999999997E-2</v>
       </c>
       <c r="D9">
-        <v>6.6083890000000006E-2</v>
+        <v>6.6044290000000005E-2</v>
       </c>
       <c r="E9">
-        <v>6.7791539999999997E-2</v>
+        <v>6.6122810000000004E-2</v>
       </c>
       <c r="F9">
-        <v>7.203147E-2</v>
+        <v>6.6179134000000001E-2</v>
       </c>
       <c r="G9">
-        <v>7.7341534000000003E-2</v>
+        <v>6.688181E-2</v>
       </c>
       <c r="H9">
-        <v>8.4438479999999996E-2</v>
+        <v>6.7892889999999997E-2</v>
       </c>
       <c r="I9">
-        <v>9.0779239999999997E-2</v>
+        <v>8.2040779999999994E-2</v>
       </c>
       <c r="J9">
-        <v>0.10074664</v>
+        <v>8.9289519999999997E-2</v>
       </c>
       <c r="K9">
-        <v>0.12142581</v>
+        <v>0.11655343999999999</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -25973,34 +25961,34 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>6.5931014999999996E-2</v>
+        <v>6.5900929999999996E-2</v>
       </c>
       <c r="C10">
-        <v>6.6004610000000005E-2</v>
+        <v>6.5971589999999997E-2</v>
       </c>
       <c r="D10">
-        <v>6.6083890000000006E-2</v>
+        <v>6.6044290000000005E-2</v>
       </c>
       <c r="E10">
-        <v>6.8745249999999994E-2</v>
+        <v>6.6122810000000004E-2</v>
       </c>
       <c r="F10">
-        <v>6.8612359999999997E-2</v>
+        <v>6.6179134000000001E-2</v>
       </c>
       <c r="G10">
-        <v>6.9976404000000006E-2</v>
+        <v>6.6856299999999994E-2</v>
       </c>
       <c r="H10">
-        <v>8.8179530000000006E-2</v>
+        <v>6.8949499999999997E-2</v>
       </c>
       <c r="I10">
-        <v>0.11251232</v>
+        <v>8.3868705000000002E-2</v>
       </c>
       <c r="J10">
-        <v>0.12112247</v>
+        <v>0.109429754</v>
       </c>
       <c r="K10">
-        <v>0.13526587000000001</v>
+        <v>0.14373167000000001</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -26008,34 +25996,34 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>6.5931014999999996E-2</v>
+        <v>6.5900929999999996E-2</v>
       </c>
       <c r="C11">
-        <v>6.6004610000000005E-2</v>
+        <v>6.5971589999999997E-2</v>
       </c>
       <c r="D11">
-        <v>6.6083890000000006E-2</v>
+        <v>6.6044290000000005E-2</v>
       </c>
       <c r="E11">
-        <v>6.6981009999999994E-2</v>
+        <v>6.6122810000000004E-2</v>
       </c>
       <c r="F11">
-        <v>6.8612359999999997E-2</v>
+        <v>6.6179134000000001E-2</v>
       </c>
       <c r="G11">
-        <v>6.7512520000000006E-2</v>
+        <v>6.6856299999999994E-2</v>
       </c>
       <c r="H11">
-        <v>8.4200040000000004E-2</v>
+        <v>6.7854899999999996E-2</v>
       </c>
       <c r="I11">
-        <v>8.7344740000000004E-2</v>
+        <v>8.3109080000000002E-2</v>
       </c>
       <c r="J11">
-        <v>0.10502648000000001</v>
+        <v>0.100583345</v>
       </c>
       <c r="K11">
-        <v>0.12342562999999999</v>
+        <v>0.11908911</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -26043,34 +26031,34 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>6.5908469999999997E-2</v>
+        <v>6.5861050000000004E-2</v>
       </c>
       <c r="C12">
-        <v>6.6272129999999999E-2</v>
+        <v>6.5931365000000006E-2</v>
       </c>
       <c r="D12">
-        <v>6.8471610000000002E-2</v>
+        <v>6.5986690000000001E-2</v>
       </c>
       <c r="E12">
-        <v>6.7942909999999995E-2</v>
+        <v>6.6055500000000003E-2</v>
       </c>
       <c r="F12">
-        <v>7.1278300000000003E-2</v>
+        <v>6.6133579999999997E-2</v>
       </c>
       <c r="G12">
-        <v>0.10813950999999999</v>
+        <v>6.7604265999999996E-2</v>
       </c>
       <c r="H12">
-        <v>9.7615339999999995E-2</v>
+        <v>6.6630124999999998E-2</v>
       </c>
       <c r="I12">
-        <v>8.8821694000000007E-2</v>
+        <v>7.4809329999999993E-2</v>
       </c>
       <c r="J12">
-        <v>0.105615705</v>
+        <v>8.4726510000000005E-2</v>
       </c>
       <c r="K12">
-        <v>0.11179431500000001</v>
+        <v>9.0161610000000003E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -26122,25 +26110,25 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.6288118999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>6.7159165999999999E-3</v>
-      </c>
-      <c r="G15">
-        <v>1.3875124000000001E-2</v>
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>3.7439161999999998E-4</v>
       </c>
       <c r="H15">
-        <v>2.2871664E-2</v>
+        <v>1.1848341999999999E-3</v>
       </c>
       <c r="I15">
-        <v>5.3191490000000001E-2</v>
+        <v>1.6558674999999998E-2</v>
       </c>
       <c r="J15">
-        <v>7.466064E-2</v>
+        <v>4.4543430000000002E-2</v>
       </c>
       <c r="K15">
-        <v>0.105442174</v>
+        <v>7.7433630000000003E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -26157,25 +26145,25 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.0509721000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>2.0865935E-3</v>
-      </c>
-      <c r="G16">
-        <v>2.3148147999999999E-3</v>
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>3.6913992E-4</v>
       </c>
       <c r="H16">
-        <v>1.5300546999999999E-2</v>
+        <v>1.2300123E-3</v>
       </c>
       <c r="I16">
-        <v>4.7337280000000002E-2</v>
+        <v>1.0526316000000001E-2</v>
       </c>
       <c r="J16">
-        <v>7.0000000000000007E-2</v>
+        <v>3.856383E-2</v>
       </c>
       <c r="K16">
-        <v>7.2327050000000004E-2</v>
+        <v>6.9651740000000004E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -26192,25 +26180,25 @@
         <v>0</v>
       </c>
       <c r="E17" s="4">
-        <v>9.6385540000000003E-4</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>2.0865935E-3</v>
-      </c>
-      <c r="G17">
-        <v>1.5151514999999999E-3</v>
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>3.6913992E-4</v>
       </c>
       <c r="H17">
-        <v>2.1384928000000001E-2</v>
+        <v>1.1569611E-3</v>
       </c>
       <c r="I17">
-        <v>3.1877212000000002E-2</v>
+        <v>1.5615241E-2</v>
       </c>
       <c r="J17">
-        <v>6.8139959999999999E-2</v>
+        <v>5.0793650000000003E-2</v>
       </c>
       <c r="K17">
-        <v>8.3832340000000005E-2</v>
+        <v>6.8965520000000002E-2</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -26221,31 +26209,31 @@
         <v>0</v>
       </c>
       <c r="C18" s="4">
-        <v>4.7801146999999999E-4</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>2.5549309999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="E18" s="4">
-        <v>2.1563341999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>5.504587E-3</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>2.75E-2</v>
+        <v>1.1359333000000001E-3</v>
       </c>
       <c r="H18">
-        <v>3.3012380000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>2.8811524000000002E-2</v>
+        <v>6.3788029999999997E-3</v>
       </c>
       <c r="J18">
-        <v>6.1403510000000001E-2</v>
+        <v>1.1226252000000001E-2</v>
       </c>
       <c r="K18">
-        <v>8.2089549999999997E-2</v>
+        <v>2.7989822000000001E-2</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Project_3/data.xlsx
+++ b/Project_3/data.xlsx
@@ -1239,34 +1239,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.2346415294877602</c:v>
+                  <c:v>2.40772858268712</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3097428809873302</c:v>
+                  <c:v>2.40382888512034</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>2.1330021906447199</c:v>
+                  <c:v>2.4010104043791101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2488633219602998</c:v>
+                  <c:v>2.3961440432977499</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2457785411938902</c:v>
+                  <c:v>2.3386448247934299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2864315785398801</c:v>
+                  <c:v>1.9716103621054999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9250535711968799</c:v>
+                  <c:v>1.5097331919243699</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3951168285218201</c:v>
+                  <c:v>1.0685105775080499</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.93318079725461101</c:v>
+                  <c:v>0.625007323845163</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.36093879216231101</c:v>
+                  <c:v>0.415025755405944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1350,34 +1350,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.40772858268712</c:v>
+                  <c:v>2.4074556325173799</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.28022347401915</c:v>
+                  <c:v>2.4014276030405299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.24804371981508</c:v>
+                  <c:v>2.3948106423125899</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1560697911114302</c:v>
+                  <c:v>2.3876217050610999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2151864270855399</c:v>
+                  <c:v>2.3380419708430802</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0182677829721798</c:v>
+                  <c:v>1.8617380009025699</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.44247114655398101</c:v>
+                  <c:v>1.4040843303577799</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.75205598393067796</c:v>
+                  <c:v>0.90412141379983901</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.59278853018620403</c:v>
+                  <c:v>0.55883012125238096</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.546032971178539</c:v>
+                  <c:v>0.28542641071339803</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1854,34 +1854,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6.7360939999999994E-2</c:v>
+                  <c:v>6.6047855000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.6442959999999995E-2</c:v>
+                  <c:v>6.6125630000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.8512483999999998E-2</c:v>
+                  <c:v>6.6211954000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.723896E-2</c:v>
+                  <c:v>6.6333989999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.8140549999999994E-2</c:v>
+                  <c:v>6.7878530000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.8867920000000003E-2</c:v>
+                  <c:v>7.3286450000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.4392630000000001E-2</c:v>
+                  <c:v>8.0247774999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.5352039999999995E-2</c:v>
+                  <c:v>8.5287009999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.2762290000000002E-2</c:v>
+                  <c:v>0.111540705</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.13609725</c:v>
+                  <c:v>0.14901417</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1965,34 +1965,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6.6138169999999996E-2</c:v>
+                  <c:v>6.6073655999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.6787059999999995E-2</c:v>
+                  <c:v>6.6189504999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7091410000000004E-2</c:v>
+                  <c:v>6.6297780000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.7743380000000006E-2</c:v>
+                  <c:v>6.6470840000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.8580150000000006E-2</c:v>
+                  <c:v>6.7947074999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0841840000000003E-2</c:v>
+                  <c:v>7.3756433999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.15882569999999999</c:v>
+                  <c:v>8.0908194000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.7833789999999995E-2</c:v>
+                  <c:v>8.617619E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.7554624000000006E-2</c:v>
+                  <c:v>0.11435858</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10180574000000001</c:v>
+                  <c:v>0.14842830000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2469,34 +2469,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.24799559658454</c:v>
+                  <c:v>2.5532883846338899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2472066786617999</c:v>
+                  <c:v>2.5505554074535102</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2631953283472899</c:v>
+                  <c:v>2.54535181894718</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2632237515609099</c:v>
+                  <c:v>2.53772691465291</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1204710914306002</c:v>
+                  <c:v>2.4147228736378299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5055025603919501</c:v>
+                  <c:v>1.96151016800439</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2612965321993901</c:v>
+                  <c:v>1.7291236438909099</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.914168188891893</c:v>
+                  <c:v>1.0736310372529201</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.52957604628694399</c:v>
+                  <c:v>0.59936217387988899</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.27388938217164899</c:v>
+                  <c:v>0.29911634894509698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2580,34 +2580,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.4316434385547301</c:v>
+                  <c:v>2.5529877249322501</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4539541012288799</c:v>
+                  <c:v>2.5477398997380298</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4289382311113399</c:v>
+                  <c:v>2.5435855958671199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2553507601670102</c:v>
+                  <c:v>2.5365997228625901</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.27171020832259</c:v>
+                  <c:v>2.41243006221181</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.47742344515628</c:v>
+                  <c:v>1.95793523173706</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5234829041597</c:v>
+                  <c:v>1.3386346607770601</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.93123644929890803</c:v>
+                  <c:v>1.0414586716202101</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.49360869878821401</c:v>
+                  <c:v>0.51741004930856604</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.34996812815148798</c:v>
+                  <c:v>0.233693339719897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3092,34 +3092,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6.8811916000000001E-2</c:v>
+                  <c:v>6.6098354999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8016103999999994E-2</c:v>
+                  <c:v>6.6165940000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.9036719999999996E-2</c:v>
+                  <c:v>6.6284134999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.9175009999999995E-2</c:v>
+                  <c:v>6.6476720000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.2196070000000001E-2</c:v>
+                  <c:v>6.9861039999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.7386990000000003E-2</c:v>
+                  <c:v>8.5871619999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.2277180000000005E-2</c:v>
+                  <c:v>9.7588114000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.0077005000000002E-2</c:v>
+                  <c:v>0.1128559</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.10955893</c:v>
+                  <c:v>0.13360031999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.15024494999999999</c:v>
+                  <c:v>0.19120565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3203,34 +3203,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6.7168870000000006E-2</c:v>
+                  <c:v>6.6112526000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.6645615000000005E-2</c:v>
+                  <c:v>6.6210569999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7309745000000004E-2</c:v>
+                  <c:v>6.6324279999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.8021189999999995E-2</c:v>
+                  <c:v>6.6515710000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0487270000000005E-2</c:v>
+                  <c:v>6.9903400000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.9242049999999994E-2</c:v>
+                  <c:v>8.6003010000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.9478950000000007E-2</c:v>
+                  <c:v>0.10569832</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.9560890000000004E-2</c:v>
+                  <c:v>0.10849942999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.11653914999999999</c:v>
+                  <c:v>0.13798622999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.12874746000000001</c:v>
+                  <c:v>0.20135568000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3707,34 +3707,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.1347962000000001E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1775457000000002E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5947067999999998E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5947067999999998E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3185839999999999E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1627907E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4719411E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8785983000000001E-2</c:v>
+                  <c:v>1.4023732000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.4226803999999993E-2</c:v>
+                  <c:v>3.0418250000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10038610000000001</c:v>
+                  <c:v>8.66426E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3818,34 +3818,34 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9.6758589999999995E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7961629999999998E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4577259999999999E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>2.6068822000000001E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>2.072539E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
-                  <c:v>1.2588513000000001E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>1.0670732E-2</c:v>
+                  <c:v>4.3591979999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>2.4630540999999999E-2</c:v>
+                  <c:v>1.2331839000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>7.8947365000000005E-2</c:v>
+                  <c:v>5.1502145999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>9.9125359999999996E-2</c:v>
+                  <c:v>0.11453745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4322,34 +4322,34 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>1.5228427E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9140049999999997E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6497083999999999E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>1.0065425E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0403223999999998E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
-                  <c:v>7.0113935999999996E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>6.4365129999999996E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>4.0551500000000004E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>1.3237064E-2</c:v>
+                  <c:v>3.5971224E-3</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>8.3333335999999994E-2</c:v>
+                  <c:v>5.1679585E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4436,31 +4436,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9255590000000009E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>1.0070493E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>1.5797789000000001E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>1.0235413999999999E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
-                  <c:v>1.6797312999999999E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>2.9925185999999999E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>1.6296294999999999E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>3.2490975999999998E-2</c:v>
+                  <c:v>6.0362172999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>5.8925475999999997E-2</c:v>
+                  <c:v>4.2145595000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12142,34 +12142,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.2231197619642402</c:v>
+                  <c:v>2.5532883846338899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2183411592175801</c:v>
+                  <c:v>2.5505554074535102</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2243053710253302</c:v>
+                  <c:v>2.54535181894718</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2265944925627301</c:v>
+                  <c:v>2.53772691465291</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.98908426244587</c:v>
+                  <c:v>2.4147228736378299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6476987737947</c:v>
+                  <c:v>1.96151016800439</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4586962029983099</c:v>
+                  <c:v>1.7732462906823001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.85600971566198203</c:v>
+                  <c:v>0.79472344642503601</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.44629110210536499</c:v>
+                  <c:v>0.58968796710425198</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.24724902606898599</c:v>
+                  <c:v>0.28199545057006897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12253,34 +12253,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.2375204371669701</c:v>
+                  <c:v>2.5529877249322501</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4512907936603998</c:v>
+                  <c:v>2.5477398997380298</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2367499785519498</c:v>
+                  <c:v>2.5435855958671199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1854674907709</c:v>
+                  <c:v>2.5365997228625901</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0262822715152602</c:v>
+                  <c:v>2.41243006221181</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.14815367985956</c:v>
+                  <c:v>1.95793523173706</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2462042583191799</c:v>
+                  <c:v>1.29528035083191</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.670968339774898</c:v>
+                  <c:v>1.0433824938435201</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.40929625706829398</c:v>
+                  <c:v>0.47560677346927099</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.32564343468812901</c:v>
+                  <c:v>0.18171930852090701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12757,34 +12757,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6.6833614999999999E-2</c:v>
+                  <c:v>6.6098354999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8816749999999996E-2</c:v>
+                  <c:v>6.6165940000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.8167779999999997E-2</c:v>
+                  <c:v>6.6284134999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.7241850000000006E-2</c:v>
+                  <c:v>6.6476720000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.8261129999999998E-2</c:v>
+                  <c:v>6.9861039999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.6548559999999997E-2</c:v>
+                  <c:v>8.5871619999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.5898890000000001E-2</c:v>
+                  <c:v>9.4964460000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.9256670000000005E-2</c:v>
+                  <c:v>0.11518083</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.13313842000000001</c:v>
+                  <c:v>0.13322160999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.13222893999999999</c:v>
+                  <c:v>0.17986226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12868,34 +12868,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6.6547549999999997E-2</c:v>
+                  <c:v>6.6112526000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.7391599999999996E-2</c:v>
+                  <c:v>6.6210569999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.8395499999999998E-2</c:v>
+                  <c:v>6.6324279999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.9819614000000002E-2</c:v>
+                  <c:v>6.6515710000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.3262250000000001E-2</c:v>
+                  <c:v>6.9903400000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.6205299999999999E-2</c:v>
+                  <c:v>8.6003010000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.8140249999999998E-2</c:v>
+                  <c:v>0.106187485</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14144300000000001</c:v>
+                  <c:v>0.107535906</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.12666526</c:v>
+                  <c:v>0.1473052</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.26043077999999997</c:v>
+                  <c:v>0.23556028000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13372,34 +13372,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.1678985999999999E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.2283297999999997E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6399155999999998E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1186439999999998E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.552398E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.5409260000000008E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.4102565000000002E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2880214999999999E-2</c:v>
+                  <c:v>1.6011643999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.7599065999999999E-2</c:v>
+                  <c:v>4.2592592999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.6580089999999998E-2</c:v>
+                  <c:v>7.8947365000000005E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13483,34 +13483,34 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0515247000000001E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8030738000000002E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>1.5797789000000001E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>2.6867276000000001E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>2.8951939000000002E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
-                  <c:v>1.5151516E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>1.1669659000000001E-2</c:v>
+                  <c:v>3.6199094999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>3.4129694000000002E-2</c:v>
+                  <c:v>1.1173183999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>5.978261E-2</c:v>
+                  <c:v>5.4176073999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>7.6666670000000006E-2</c:v>
+                  <c:v>0.12849163</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13997,34 +13997,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.24799559658454</c:v>
+                  <c:v>2.5532883846338899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2472066786617999</c:v>
+                  <c:v>2.5505554074535102</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2631953283472899</c:v>
+                  <c:v>2.54535181894718</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2632237515609099</c:v>
+                  <c:v>2.53772691465291</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1204710914306002</c:v>
+                  <c:v>2.4147228736378299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5055025603919501</c:v>
+                  <c:v>1.96151016800439</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2612965321993901</c:v>
+                  <c:v>1.7291236438909099</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.914168188891893</c:v>
+                  <c:v>1.0736310372529201</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.52957604628694399</c:v>
+                  <c:v>0.59936217387988899</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.27388938217164899</c:v>
+                  <c:v>0.29911634894509698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14108,34 +14108,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.4316434385547301</c:v>
+                  <c:v>2.5529877249322501</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4539541012288799</c:v>
+                  <c:v>2.5477398997380298</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4289382311113399</c:v>
+                  <c:v>2.5435855958671199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2553507601670102</c:v>
+                  <c:v>2.5365997228625901</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.27171020832259</c:v>
+                  <c:v>2.41243006221181</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.47742344515628</c:v>
+                  <c:v>1.95793523173706</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5234829041597</c:v>
+                  <c:v>1.3386346607770601</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.93123644929890803</c:v>
+                  <c:v>1.0414586716202101</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.49360869878821401</c:v>
+                  <c:v>0.51741004930856604</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.34996812815148798</c:v>
+                  <c:v>0.233693339719897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14630,34 +14630,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6.8811916000000001E-2</c:v>
+                  <c:v>6.6098354999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8016103999999994E-2</c:v>
+                  <c:v>6.6165940000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.9036719999999996E-2</c:v>
+                  <c:v>6.6284134999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.9175009999999995E-2</c:v>
+                  <c:v>6.6476720000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.2196070000000001E-2</c:v>
+                  <c:v>6.9861039999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.7386990000000003E-2</c:v>
+                  <c:v>8.5871619999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.2277180000000005E-2</c:v>
+                  <c:v>9.7588114000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.0077005000000002E-2</c:v>
+                  <c:v>0.1128559</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.10955893</c:v>
+                  <c:v>0.13360031999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.15024494999999999</c:v>
+                  <c:v>0.19120565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14741,34 +14741,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6.7168870000000006E-2</c:v>
+                  <c:v>6.6112526000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.6645615000000005E-2</c:v>
+                  <c:v>6.6210569999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7309745000000004E-2</c:v>
+                  <c:v>6.6324279999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.8021189999999995E-2</c:v>
+                  <c:v>6.6515710000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0487270000000005E-2</c:v>
+                  <c:v>6.9903400000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.9242049999999994E-2</c:v>
+                  <c:v>8.6003010000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.9478950000000007E-2</c:v>
+                  <c:v>0.10569832</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.9560890000000004E-2</c:v>
+                  <c:v>0.10849942999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.11653914999999999</c:v>
+                  <c:v>0.13798622999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.12874746000000001</c:v>
+                  <c:v>0.20135568000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15245,34 +15245,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.1347962000000001E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1775457000000002E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5947067999999998E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5947067999999998E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3185839999999999E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1627907E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4719411E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8785983000000001E-2</c:v>
+                  <c:v>1.4023732000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.4226803999999993E-2</c:v>
+                  <c:v>3.0418250000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10038610000000001</c:v>
+                  <c:v>8.66426E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15356,34 +15356,34 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9.6758589999999995E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7961629999999998E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4577259999999999E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>2.6068822000000001E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>2.072539E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
-                  <c:v>1.2588513000000001E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>1.0670732E-2</c:v>
+                  <c:v>4.3591979999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>2.4630540999999999E-2</c:v>
+                  <c:v>1.2331839000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>7.8947365000000005E-2</c:v>
+                  <c:v>5.1502145999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>9.9125359999999996E-2</c:v>
+                  <c:v>0.11453745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28809,8 +28809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="P132" sqref="P132"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29398,34 +29398,34 @@
         <v>9</v>
       </c>
       <c r="B23">
-        <v>2.2231197619642402</v>
+        <v>2.5532883846338899</v>
       </c>
       <c r="C23">
-        <v>2.2183411592175801</v>
+        <v>2.5505554074535102</v>
       </c>
       <c r="D23">
-        <v>2.2243053710253302</v>
+        <v>2.54535181894718</v>
       </c>
       <c r="E23">
-        <v>2.2265944925627301</v>
+        <v>2.53772691465291</v>
       </c>
       <c r="F23">
-        <v>1.98908426244587</v>
+        <v>2.4147228736378299</v>
       </c>
       <c r="G23">
-        <v>1.6476987737947</v>
+        <v>1.96151016800439</v>
       </c>
       <c r="H23">
-        <v>1.4586962029983099</v>
+        <v>1.7732462906823001</v>
       </c>
       <c r="I23">
-        <v>0.85600971566198203</v>
+        <v>0.79472344642503601</v>
       </c>
       <c r="J23">
-        <v>0.44629110210536499</v>
+        <v>0.58968796710425198</v>
       </c>
       <c r="K23">
-        <v>0.24724902606898599</v>
+        <v>0.28199545057006897</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -29433,34 +29433,34 @@
         <v>10</v>
       </c>
       <c r="B24">
-        <v>2.2375204371669701</v>
+        <v>2.5529877249322501</v>
       </c>
       <c r="C24">
-        <v>2.4512907936603998</v>
+        <v>2.5477398997380298</v>
       </c>
       <c r="D24">
-        <v>2.2367499785519498</v>
+        <v>2.5435855958671199</v>
       </c>
       <c r="E24">
-        <v>2.1854674907709</v>
+        <v>2.5365997228625901</v>
       </c>
       <c r="F24">
-        <v>2.0262822715152602</v>
+        <v>2.41243006221181</v>
       </c>
       <c r="G24">
-        <v>1.14815367985956</v>
+        <v>1.95793523173706</v>
       </c>
       <c r="H24">
-        <v>1.2462042583191799</v>
+        <v>1.29528035083191</v>
       </c>
       <c r="I24">
-        <v>0.670968339774898</v>
+        <v>1.0433824938435201</v>
       </c>
       <c r="J24">
-        <v>0.40929625706829398</v>
+        <v>0.47560677346927099</v>
       </c>
       <c r="K24">
-        <v>0.32564343468812901</v>
+        <v>0.18171930852090701</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -29503,34 +29503,34 @@
         <v>9</v>
       </c>
       <c r="B27">
-        <v>6.6833614999999999E-2</v>
+        <v>6.6098354999999998E-2</v>
       </c>
       <c r="C27">
-        <v>6.8816749999999996E-2</v>
+        <v>6.6165940000000006E-2</v>
       </c>
       <c r="D27">
-        <v>6.8167779999999997E-2</v>
+        <v>6.6284134999999994E-2</v>
       </c>
       <c r="E27">
-        <v>6.7241850000000006E-2</v>
+        <v>6.6476720000000003E-2</v>
       </c>
       <c r="F27">
-        <v>7.8261129999999998E-2</v>
+        <v>6.9861039999999999E-2</v>
       </c>
       <c r="G27">
-        <v>8.6548559999999997E-2</v>
+        <v>8.5871619999999996E-2</v>
       </c>
       <c r="H27">
-        <v>9.5898890000000001E-2</v>
+        <v>9.4964460000000001E-2</v>
       </c>
       <c r="I27">
-        <v>9.9256670000000005E-2</v>
+        <v>0.11518083</v>
       </c>
       <c r="J27">
-        <v>0.13313842000000001</v>
+        <v>0.13322160999999999</v>
       </c>
       <c r="K27">
-        <v>0.13222893999999999</v>
+        <v>0.17986226</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -29538,34 +29538,34 @@
         <v>10</v>
       </c>
       <c r="B28">
-        <v>6.6547549999999997E-2</v>
+        <v>6.6112526000000005E-2</v>
       </c>
       <c r="C28">
-        <v>6.7391599999999996E-2</v>
+        <v>6.6210569999999996E-2</v>
       </c>
       <c r="D28">
-        <v>6.8395499999999998E-2</v>
+        <v>6.6324279999999999E-2</v>
       </c>
       <c r="E28">
-        <v>6.9819614000000002E-2</v>
+        <v>6.6515710000000006E-2</v>
       </c>
       <c r="F28">
-        <v>7.3262250000000001E-2</v>
+        <v>6.9903400000000004E-2</v>
       </c>
       <c r="G28">
-        <v>8.6205299999999999E-2</v>
+        <v>8.6003010000000005E-2</v>
       </c>
       <c r="H28">
-        <v>9.8140249999999998E-2</v>
+        <v>0.106187485</v>
       </c>
       <c r="I28">
-        <v>0.14144300000000001</v>
+        <v>0.107535906</v>
       </c>
       <c r="J28">
-        <v>0.12666526</v>
+        <v>0.1473052</v>
       </c>
       <c r="K28">
-        <v>0.26043077999999997</v>
+        <v>0.23556028000000001</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -29608,34 +29608,34 @@
         <v>9</v>
       </c>
       <c r="B31">
-        <v>3.1678985999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>4.2283297999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>2.6399155999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>2.1186439999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>3.552398E-3</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>8.5409260000000008E-3</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>6.4102565000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>2.2880214999999999E-2</v>
+        <v>1.6011643999999998E-2</v>
       </c>
       <c r="J31">
-        <v>6.7599065999999999E-2</v>
+        <v>4.2592592999999998E-2</v>
       </c>
       <c r="K31">
-        <v>8.6580089999999998E-2</v>
+        <v>7.8947365000000005E-2</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -29643,34 +29643,34 @@
         <v>10</v>
       </c>
       <c r="B32" s="4">
-        <v>1.0515247000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="C32" s="4">
-        <v>4.8030738000000002E-4</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>1.5797789000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>2.6867276000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>2.8951939000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>1.5151516E-2</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>1.1669659000000001E-2</v>
+        <v>3.6199094999999999E-3</v>
       </c>
       <c r="I32">
-        <v>3.4129694000000002E-2</v>
+        <v>1.1173183999999999E-2</v>
       </c>
       <c r="J32">
-        <v>5.978261E-2</v>
+        <v>5.4176073999999998E-2</v>
       </c>
       <c r="K32">
-        <v>7.6666670000000006E-2</v>
+        <v>0.12849163</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -29719,34 +29719,34 @@
         <v>11</v>
       </c>
       <c r="B36">
-        <v>2.24799559658454</v>
+        <v>2.5532883846338899</v>
       </c>
       <c r="C36">
-        <v>2.2472066786617999</v>
+        <v>2.5505554074535102</v>
       </c>
       <c r="D36">
-        <v>2.2631953283472899</v>
+        <v>2.54535181894718</v>
       </c>
       <c r="E36">
-        <v>2.2632237515609099</v>
+        <v>2.53772691465291</v>
       </c>
       <c r="F36">
-        <v>2.1204710914306002</v>
+        <v>2.4147228736378299</v>
       </c>
       <c r="G36">
-        <v>1.5055025603919501</v>
+        <v>1.96151016800439</v>
       </c>
       <c r="H36">
-        <v>1.2612965321993901</v>
+        <v>1.7291236438909099</v>
       </c>
       <c r="I36">
-        <v>0.914168188891893</v>
+        <v>1.0736310372529201</v>
       </c>
       <c r="J36">
-        <v>0.52957604628694399</v>
+        <v>0.59936217387988899</v>
       </c>
       <c r="K36">
-        <v>0.27388938217164899</v>
+        <v>0.29911634894509698</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -29754,34 +29754,34 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <v>2.4316434385547301</v>
+        <v>2.5529877249322501</v>
       </c>
       <c r="C37">
-        <v>2.4539541012288799</v>
+        <v>2.5477398997380298</v>
       </c>
       <c r="D37">
-        <v>2.4289382311113399</v>
+        <v>2.5435855958671199</v>
       </c>
       <c r="E37">
-        <v>2.2553507601670102</v>
+        <v>2.5365997228625901</v>
       </c>
       <c r="F37">
-        <v>2.27171020832259</v>
+        <v>2.41243006221181</v>
       </c>
       <c r="G37">
-        <v>1.47742344515628</v>
+        <v>1.95793523173706</v>
       </c>
       <c r="H37">
-        <v>1.5234829041597</v>
+        <v>1.3386346607770601</v>
       </c>
       <c r="I37">
-        <v>0.93123644929890803</v>
+        <v>1.0414586716202101</v>
       </c>
       <c r="J37">
-        <v>0.49360869878821401</v>
+        <v>0.51741004930856604</v>
       </c>
       <c r="K37">
-        <v>0.34996812815148798</v>
+        <v>0.233693339719897</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -29824,34 +29824,34 @@
         <v>11</v>
       </c>
       <c r="B40">
-        <v>6.8811916000000001E-2</v>
+        <v>6.6098354999999998E-2</v>
       </c>
       <c r="C40">
-        <v>6.8016103999999994E-2</v>
+        <v>6.6165940000000006E-2</v>
       </c>
       <c r="D40">
-        <v>6.9036719999999996E-2</v>
+        <v>6.6284134999999994E-2</v>
       </c>
       <c r="E40">
-        <v>6.9175009999999995E-2</v>
+        <v>6.6476720000000003E-2</v>
       </c>
       <c r="F40">
-        <v>7.2196070000000001E-2</v>
+        <v>6.9861039999999999E-2</v>
       </c>
       <c r="G40">
-        <v>7.7386990000000003E-2</v>
+        <v>8.5871619999999996E-2</v>
       </c>
       <c r="H40">
-        <v>8.2277180000000005E-2</v>
+        <v>9.7588114000000004E-2</v>
       </c>
       <c r="I40">
-        <v>9.0077005000000002E-2</v>
+        <v>0.1128559</v>
       </c>
       <c r="J40">
-        <v>0.10955893</v>
+        <v>0.13360031999999999</v>
       </c>
       <c r="K40">
-        <v>0.15024494999999999</v>
+        <v>0.19120565</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -29859,34 +29859,34 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>6.7168870000000006E-2</v>
+        <v>6.6112526000000005E-2</v>
       </c>
       <c r="C41">
-        <v>6.6645615000000005E-2</v>
+        <v>6.6210569999999996E-2</v>
       </c>
       <c r="D41">
-        <v>6.7309745000000004E-2</v>
+        <v>6.6324279999999999E-2</v>
       </c>
       <c r="E41">
-        <v>6.8021189999999995E-2</v>
+        <v>6.6515710000000006E-2</v>
       </c>
       <c r="F41">
-        <v>7.0487270000000005E-2</v>
+        <v>6.9903400000000004E-2</v>
       </c>
       <c r="G41">
-        <v>7.9242049999999994E-2</v>
+        <v>8.6003010000000005E-2</v>
       </c>
       <c r="H41">
-        <v>7.9478950000000007E-2</v>
+        <v>0.10569832</v>
       </c>
       <c r="I41">
-        <v>8.9560890000000004E-2</v>
+        <v>0.10849942999999999</v>
       </c>
       <c r="J41">
-        <v>0.11653914999999999</v>
+        <v>0.13798622999999999</v>
       </c>
       <c r="K41">
-        <v>0.12874746000000001</v>
+        <v>0.20135568000000001</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -29929,34 +29929,34 @@
         <v>11</v>
       </c>
       <c r="B44">
-        <v>3.1347962000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>4.1775457000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>2.5947067999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>2.5947067999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>3.3185839999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>1.1627907E-2</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>1.4719411E-2</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>2.8785983000000001E-2</v>
+        <v>1.4023732000000001E-2</v>
       </c>
       <c r="J44">
-        <v>7.4226803999999993E-2</v>
+        <v>3.0418250000000001E-2</v>
       </c>
       <c r="K44">
-        <v>0.10038610000000001</v>
+        <v>8.66426E-2</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -29964,34 +29964,34 @@
         <v>1</v>
       </c>
       <c r="B45" s="4">
-        <v>9.6758589999999995E-4</v>
+        <v>0</v>
       </c>
       <c r="C45" s="4">
-        <v>4.7961629999999998E-4</v>
+        <v>0</v>
       </c>
       <c r="D45" s="4">
-        <v>1.4577259999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>2.6068822000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>2.072539E-3</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>1.2588513000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>1.0670732E-2</v>
+        <v>4.3591979999999999E-3</v>
       </c>
       <c r="I45">
-        <v>2.4630540999999999E-2</v>
+        <v>1.2331839000000001E-2</v>
       </c>
       <c r="J45">
-        <v>7.8947365000000005E-2</v>
+        <v>5.1502145999999999E-2</v>
       </c>
       <c r="K45">
-        <v>9.9125359999999996E-2</v>
+        <v>0.11453745</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30044,34 +30044,34 @@
         <v>16</v>
       </c>
       <c r="B49">
-        <v>2.2346415294877602</v>
+        <v>2.40772858268712</v>
       </c>
       <c r="C49">
-        <v>2.3097428809873302</v>
+        <v>2.40382888512034</v>
       </c>
       <c r="D49" s="4">
-        <v>2.1330021906447199</v>
+        <v>2.4010104043791101</v>
       </c>
       <c r="E49">
-        <v>2.2488633219602998</v>
+        <v>2.3961440432977499</v>
       </c>
       <c r="F49">
-        <v>2.2457785411938902</v>
+        <v>2.3386448247934299</v>
       </c>
       <c r="G49">
-        <v>1.2864315785398801</v>
+        <v>1.9716103621054999</v>
       </c>
       <c r="H49">
-        <v>1.9250535711968799</v>
+        <v>1.5097331919243699</v>
       </c>
       <c r="I49">
-        <v>1.3951168285218201</v>
+        <v>1.0685105775080499</v>
       </c>
       <c r="J49">
-        <v>0.93318079725461101</v>
+        <v>0.625007323845163</v>
       </c>
       <c r="K49">
-        <v>0.36093879216231101</v>
+        <v>0.415025755405944</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -30079,34 +30079,34 @@
         <v>17</v>
       </c>
       <c r="B50">
-        <v>2.40772858268712</v>
+        <v>2.4074556325173799</v>
       </c>
       <c r="C50">
-        <v>2.28022347401915</v>
+        <v>2.4014276030405299</v>
       </c>
       <c r="D50">
-        <v>2.24804371981508</v>
+        <v>2.3948106423125899</v>
       </c>
       <c r="E50">
-        <v>2.1560697911114302</v>
+        <v>2.3876217050610999</v>
       </c>
       <c r="F50">
-        <v>2.2151864270855399</v>
+        <v>2.3380419708430802</v>
       </c>
       <c r="G50">
-        <v>2.0182677829721798</v>
+        <v>1.8617380009025699</v>
       </c>
       <c r="H50">
-        <v>0.44247114655398101</v>
+        <v>1.4040843303577799</v>
       </c>
       <c r="I50">
-        <v>0.75205598393067796</v>
+        <v>0.90412141379983901</v>
       </c>
       <c r="J50">
-        <v>0.59278853018620403</v>
+        <v>0.55883012125238096</v>
       </c>
       <c r="K50">
-        <v>0.546032971178539</v>
+        <v>0.28542641071339803</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -30149,34 +30149,34 @@
         <v>16</v>
       </c>
       <c r="B53">
-        <v>6.7360939999999994E-2</v>
+        <v>6.6047855000000003E-2</v>
       </c>
       <c r="C53">
-        <v>6.6442959999999995E-2</v>
+        <v>6.6125630000000005E-2</v>
       </c>
       <c r="D53">
-        <v>6.8512483999999998E-2</v>
+        <v>6.6211954000000003E-2</v>
       </c>
       <c r="E53">
-        <v>6.723896E-2</v>
+        <v>6.6333989999999995E-2</v>
       </c>
       <c r="F53">
-        <v>6.8140549999999994E-2</v>
+        <v>6.7878530000000006E-2</v>
       </c>
       <c r="G53">
-        <v>8.8867920000000003E-2</v>
+        <v>7.3286450000000003E-2</v>
       </c>
       <c r="H53">
-        <v>7.4392630000000001E-2</v>
+        <v>8.0247774999999993E-2</v>
       </c>
       <c r="I53">
-        <v>7.5352039999999995E-2</v>
+        <v>8.5287009999999996E-2</v>
       </c>
       <c r="J53">
-        <v>8.2762290000000002E-2</v>
+        <v>0.111540705</v>
       </c>
       <c r="K53">
-        <v>0.13609725</v>
+        <v>0.14901417</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -30184,34 +30184,34 @@
         <v>17</v>
       </c>
       <c r="B54">
-        <v>6.6138169999999996E-2</v>
+        <v>6.6073655999999995E-2</v>
       </c>
       <c r="C54">
-        <v>6.6787059999999995E-2</v>
+        <v>6.6189504999999996E-2</v>
       </c>
       <c r="D54">
-        <v>6.7091410000000004E-2</v>
+        <v>6.6297780000000001E-2</v>
       </c>
       <c r="E54">
-        <v>6.7743380000000006E-2</v>
+        <v>6.6470840000000003E-2</v>
       </c>
       <c r="F54">
-        <v>6.8580150000000006E-2</v>
+        <v>6.7947074999999996E-2</v>
       </c>
       <c r="G54">
-        <v>7.0841840000000003E-2</v>
+        <v>7.3756433999999996E-2</v>
       </c>
       <c r="H54">
-        <v>0.15882569999999999</v>
+        <v>8.0908194000000003E-2</v>
       </c>
       <c r="I54">
-        <v>8.7833789999999995E-2</v>
+        <v>8.617619E-2</v>
       </c>
       <c r="J54">
-        <v>9.7554624000000006E-2</v>
+        <v>0.11435858</v>
       </c>
       <c r="K54">
-        <v>0.10180574000000001</v>
+        <v>0.14842830000000001</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -30254,34 +30254,34 @@
         <v>16</v>
       </c>
       <c r="B57">
-        <v>1.5228427E-3</v>
+        <v>0</v>
       </c>
       <c r="C57" s="4">
-        <v>4.9140049999999997E-4</v>
+        <v>0</v>
       </c>
       <c r="D57" s="4">
-        <v>2.6497083999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>1.0065425E-3</v>
+        <v>0</v>
       </c>
       <c r="F57" s="4">
-        <v>5.0403223999999998E-4</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>7.0113935999999996E-3</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>6.4365129999999996E-3</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>4.0551500000000004E-3</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>1.3237064E-2</v>
+        <v>3.5971224E-3</v>
       </c>
       <c r="K57">
-        <v>8.3333335999999994E-2</v>
+        <v>5.1679585E-2</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -30292,31 +30292,31 @@
         <v>0</v>
       </c>
       <c r="C58" s="4">
-        <v>9.9255590000000009E-4</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>1.0070493E-3</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>1.5797789000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>1.0235413999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>1.6797312999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>2.9925185999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>1.6296294999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>3.2490975999999998E-2</v>
+        <v>6.0362172999999996E-3</v>
       </c>
       <c r="K58">
-        <v>5.8925475999999997E-2</v>
+        <v>4.2145595000000001E-2</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -30374,34 +30374,34 @@
         <v>11</v>
       </c>
       <c r="B63">
-        <v>2.24799559658454</v>
+        <v>2.5532883846338899</v>
       </c>
       <c r="C63">
-        <v>2.2472066786617999</v>
+        <v>2.5505554074535102</v>
       </c>
       <c r="D63">
-        <v>2.2631953283472899</v>
+        <v>2.54535181894718</v>
       </c>
       <c r="E63">
-        <v>2.2632237515609099</v>
+        <v>2.53772691465291</v>
       </c>
       <c r="F63">
-        <v>2.1204710914306002</v>
+        <v>2.4147228736378299</v>
       </c>
       <c r="G63">
-        <v>1.5055025603919501</v>
+        <v>1.96151016800439</v>
       </c>
       <c r="H63">
-        <v>1.2612965321993901</v>
+        <v>1.7291236438909099</v>
       </c>
       <c r="I63">
-        <v>0.914168188891893</v>
+        <v>1.0736310372529201</v>
       </c>
       <c r="J63">
-        <v>0.52957604628694399</v>
+        <v>0.59936217387988899</v>
       </c>
       <c r="K63">
-        <v>0.27388938217164899</v>
+        <v>0.29911634894509698</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -30409,34 +30409,34 @@
         <v>3</v>
       </c>
       <c r="B64">
-        <v>2.4316434385547301</v>
+        <v>2.5529877249322501</v>
       </c>
       <c r="C64">
-        <v>2.4539541012288799</v>
+        <v>2.5477398997380298</v>
       </c>
       <c r="D64">
-        <v>2.4289382311113399</v>
+        <v>2.5435855958671199</v>
       </c>
       <c r="E64">
-        <v>2.2553507601670102</v>
+        <v>2.5365997228625901</v>
       </c>
       <c r="F64">
-        <v>2.27171020832259</v>
+        <v>2.41243006221181</v>
       </c>
       <c r="G64">
-        <v>1.47742344515628</v>
+        <v>1.95793523173706</v>
       </c>
       <c r="H64">
-        <v>1.5234829041597</v>
+        <v>1.3386346607770601</v>
       </c>
       <c r="I64">
-        <v>0.93123644929890803</v>
+        <v>1.0414586716202101</v>
       </c>
       <c r="J64">
-        <v>0.49360869878821401</v>
+        <v>0.51741004930856604</v>
       </c>
       <c r="K64">
-        <v>0.34996812815148798</v>
+        <v>0.233693339719897</v>
       </c>
     </row>
     <row r="66" spans="1:36" x14ac:dyDescent="0.25">
@@ -30479,34 +30479,34 @@
         <v>11</v>
       </c>
       <c r="B67">
-        <v>6.8811916000000001E-2</v>
+        <v>6.6098354999999998E-2</v>
       </c>
       <c r="C67">
-        <v>6.8016103999999994E-2</v>
+        <v>6.6165940000000006E-2</v>
       </c>
       <c r="D67">
-        <v>6.9036719999999996E-2</v>
+        <v>6.6284134999999994E-2</v>
       </c>
       <c r="E67">
-        <v>6.9175009999999995E-2</v>
+        <v>6.6476720000000003E-2</v>
       </c>
       <c r="F67">
-        <v>7.2196070000000001E-2</v>
+        <v>6.9861039999999999E-2</v>
       </c>
       <c r="G67">
-        <v>7.7386990000000003E-2</v>
+        <v>8.5871619999999996E-2</v>
       </c>
       <c r="H67">
-        <v>8.2277180000000005E-2</v>
+        <v>9.7588114000000004E-2</v>
       </c>
       <c r="I67">
-        <v>9.0077005000000002E-2</v>
+        <v>0.1128559</v>
       </c>
       <c r="J67">
-        <v>0.10955893</v>
+        <v>0.13360031999999999</v>
       </c>
       <c r="K67">
-        <v>0.15024494999999999</v>
+        <v>0.19120565</v>
       </c>
     </row>
     <row r="68" spans="1:36" x14ac:dyDescent="0.25">
@@ -30514,34 +30514,34 @@
         <v>3</v>
       </c>
       <c r="B68">
-        <v>6.7168870000000006E-2</v>
+        <v>6.6112526000000005E-2</v>
       </c>
       <c r="C68">
-        <v>6.6645615000000005E-2</v>
+        <v>6.6210569999999996E-2</v>
       </c>
       <c r="D68">
-        <v>6.7309745000000004E-2</v>
+        <v>6.6324279999999999E-2</v>
       </c>
       <c r="E68">
-        <v>6.8021189999999995E-2</v>
+        <v>6.6515710000000006E-2</v>
       </c>
       <c r="F68">
-        <v>7.0487270000000005E-2</v>
+        <v>6.9903400000000004E-2</v>
       </c>
       <c r="G68">
-        <v>7.9242049999999994E-2</v>
+        <v>8.6003010000000005E-2</v>
       </c>
       <c r="H68">
-        <v>7.9478950000000007E-2</v>
+        <v>0.10569832</v>
       </c>
       <c r="I68">
-        <v>8.9560890000000004E-2</v>
+        <v>0.10849942999999999</v>
       </c>
       <c r="J68">
-        <v>0.11653914999999999</v>
+        <v>0.13798622999999999</v>
       </c>
       <c r="K68">
-        <v>0.12874746000000001</v>
+        <v>0.20135568000000001</v>
       </c>
     </row>
     <row r="70" spans="1:36" x14ac:dyDescent="0.25">
@@ -30584,34 +30584,34 @@
         <v>11</v>
       </c>
       <c r="B71">
-        <v>3.1347962000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="C71">
-        <v>4.1775457000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>2.5947067999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>2.5947067999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>3.3185839999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>1.1627907E-2</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>1.4719411E-2</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>2.8785983000000001E-2</v>
+        <v>1.4023732000000001E-2</v>
       </c>
       <c r="J71">
-        <v>7.4226803999999993E-2</v>
+        <v>3.0418250000000001E-2</v>
       </c>
       <c r="K71">
-        <v>0.10038610000000001</v>
+        <v>8.66426E-2</v>
       </c>
     </row>
     <row r="72" spans="1:36" x14ac:dyDescent="0.25">
@@ -30619,34 +30619,34 @@
         <v>3</v>
       </c>
       <c r="B72" s="4">
-        <v>9.6758589999999995E-4</v>
+        <v>0</v>
       </c>
       <c r="C72" s="4">
-        <v>4.7961629999999998E-4</v>
+        <v>0</v>
       </c>
       <c r="D72" s="4">
-        <v>1.4577259999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>2.6068822000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>2.072539E-3</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>1.2588513000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>1.0670732E-2</v>
+        <v>4.3591979999999999E-3</v>
       </c>
       <c r="I72">
-        <v>2.4630540999999999E-2</v>
+        <v>1.2331839000000001E-2</v>
       </c>
       <c r="J72">
-        <v>7.8947365000000005E-2</v>
+        <v>5.1502145999999999E-2</v>
       </c>
       <c r="K72">
-        <v>9.9125359999999996E-2</v>
+        <v>0.11453745</v>
       </c>
     </row>
     <row r="74" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Project_3/data.xlsx
+++ b/Project_3/data.xlsx
@@ -221,7 +221,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -233,6 +233,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -4810,31 +4811,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Throughput vs Time</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4848,11 +4824,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -4867,8 +4843,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -4885,17 +4862,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$76:$AJ$76</c:f>
@@ -5017,117 +4992,116 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
+                  <c:v>1.9642427</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8559382</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8436201000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8959904999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9610088999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.963544</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9626402999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9560598</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9380782999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9478873999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9799609</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9317724999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9255310999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9457603999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9568653</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9604653000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9552666000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8652314000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9321562000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9773959000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.9696094</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7583034</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.15583156000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.21362929</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.73157704000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1253985</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.5985924</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.9290111999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.9670014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.8652599999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.8260812</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.9433838000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>0.86561924000000001</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="33">
                   <c:v>1.3593689</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.79</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.9642427</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.8559382</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.8436201000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.8959904999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.9610088999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.963544</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.9626402999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.9560598</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.9380782999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.9478873999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.9799609</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.9317724999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.9255310999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.9457603999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.9568653</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.9604653000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.9552666000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.8652314000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.9321562000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.9773959000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.9696094</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.7583034</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.15583156000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.21362929</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.73157704000000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.1253985</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.5985924</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.9290111999999999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.9670014</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.8652599999999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.8260812</c:v>
-                </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.9433838000000001</c:v>
+                  <c:v>1.7986660999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FCD5-4FD5-A51C-68550842EB0D}"/>
+              <c16:uniqueId val="{00000000-FBF9-412E-8ED1-8826F5B759AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5146,17 +5120,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$76:$AJ$76</c:f>
@@ -5278,117 +5250,116 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
+                  <c:v>0.86211055999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2555703</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7207104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64572143999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19783816000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68800455000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0750082999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6360496</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2315502</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.6028250000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.58766320000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.93594940000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.58148040000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13812168</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.57747256999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.91838359999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3040259000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.92739930000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.5931299999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.604688</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.96987840000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.4862272999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.62237699999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.21310903</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.63940960000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0829565999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.3043115999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.93027203999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.92098146999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.95180900000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.9494937</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.97163193999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>0.80045825000000004</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="33">
                   <c:v>0.66504399999999997</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="34">
                   <c:v>0.74505560000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.86211055999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2555703</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7207104</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.64572143999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.19783816000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.68800455000000005</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0750082999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.6360496</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.2315502</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.6028250000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.58766320000000005</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.93594940000000004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.58148040000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.13812168</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.57747256999999996</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.91838359999999997</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.3040259000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.92739930000000004</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.5931299999999993E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.604688</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.96987840000000003</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.4862272999999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.62237699999999996</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.21310903</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.63940960000000002</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.0829565999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.3043115999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.93027203999999997</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.92098146999999997</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.95180900000000002</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.9494937</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.97163193999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FCD5-4FD5-A51C-68550842EB0D}"/>
+              <c16:uniqueId val="{00000001-FBF9-412E-8ED1-8826F5B759AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5400,87 +5371,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:dropLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="35000"/>
-                  <a:lumOff val="65000"/>
-                  <a:alpha val="33000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:dropLines>
-        <c:smooth val="0"/>
-        <c:axId val="334506208"/>
-        <c:axId val="334507872"/>
-      </c:lineChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1990426127"/>
+        <c:axId val="1990428207"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="334506208"/>
+        <c:axId val="1990426127"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time (s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5489,7 +5391,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
+              <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -5503,9 +5405,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -5518,7 +5420,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334507872"/>
+        <c:crossAx val="1990428207"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5526,67 +5428,26 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="334507872"/>
+        <c:axId val="1990428207"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Throughput (Mbps)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
+        <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5603,9 +5464,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -5618,24 +5479,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334506208"/>
+        <c:crossAx val="1990426127"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -5659,7 +5508,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -5679,11 +5528,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -5725,31 +5574,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>RTT vs Time</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5763,11 +5587,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -5782,8 +5606,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -5800,17 +5625,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$80:$AJ$80</c:f>
@@ -5932,117 +5755,116 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>7.4058760000000001E-2</c:v>
+                  <c:v>7.0009249999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.3927700000000003E-2</c:v>
+                  <c:v>7.1537480000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9216299999999993E-2</c:v>
+                  <c:v>7.1626300000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.3504075000000002E-2</c:v>
+                  <c:v>7.0636130000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.1106199999999994E-2</c:v>
+                  <c:v>6.842376E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.9499539999999999E-2</c:v>
+                  <c:v>6.7788500000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.111600645</c:v>
+                  <c:v>6.813139E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.21934332000000001</c:v>
+                  <c:v>6.8244949999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.6805890000000002E-2</c:v>
+                  <c:v>6.8815940000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.226573E-2</c:v>
+                  <c:v>6.7960629999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.0310995000000001E-2</c:v>
+                  <c:v>6.7471184000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.5780620000000002E-2</c:v>
+                  <c:v>6.8134083999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.38233413999999999</c:v>
+                  <c:v>6.8899593999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.6521800000000001E-2</c:v>
+                  <c:v>6.9247879999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.3997839999999995E-2</c:v>
+                  <c:v>6.7989279999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.0247705999999997E-2</c:v>
+                  <c:v>6.7598050000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.34742334000000002</c:v>
+                  <c:v>6.8221100000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.1687175000000001E-2</c:v>
+                  <c:v>7.0804119999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.3316160000000005E-2</c:v>
+                  <c:v>6.8520090000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.1129105999999998E-2</c:v>
+                  <c:v>6.8432259999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.3126920000000007E-2</c:v>
+                  <c:v>6.7868629999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.35303715000000002</c:v>
+                  <c:v>7.0155869999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.8997905999999997E-2</c:v>
+                  <c:v>0.15965034</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.3060539999999993E-2</c:v>
+                  <c:v>0.34232099999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.0889289999999994E-2</c:v>
+                  <c:v>7.701616E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.10734259</c:v>
+                  <c:v>7.2712170000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.27349509999999999</c:v>
+                  <c:v>6.9864850000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.9001630000000003E-2</c:v>
+                  <c:v>6.9320190000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.2820685999999996E-2</c:v>
+                  <c:v>6.7814894000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.0456653999999994E-2</c:v>
+                  <c:v>7.1862579999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9.1835070000000005E-2</c:v>
+                  <c:v>7.1811970000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9.0038045999999997E-2</c:v>
+                  <c:v>6.8949109999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.3133160000000003E-2</c:v>
+                  <c:v>7.4312230000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.5419275000000003E-2</c:v>
+                  <c:v>7.0917620000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.2281964000000004E-2</c:v>
+                  <c:v>6.9768899999999995E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2681-4122-BD52-A633B2C00361}"/>
+              <c16:uniqueId val="{00000000-01B4-4D15-9FF6-C9755A2B3A5C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6061,17 +5883,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$80:$AJ$80</c:f>
@@ -6193,117 +6013,116 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>0.32639465000000001</c:v>
+                  <c:v>7.3504075000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8552839999999994E-2</c:v>
+                  <c:v>7.1106199999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25002572000000001</c:v>
+                  <c:v>6.9499539999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10246948</c:v>
+                  <c:v>0.111600645</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.8218529999999994E-2</c:v>
+                  <c:v>0.21934332000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18855306999999999</c:v>
+                  <c:v>7.6805890000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23577598999999999</c:v>
+                  <c:v>7.226573E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.7649060000000006E-2</c:v>
+                  <c:v>7.0310995000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.10097336</c:v>
+                  <c:v>8.5780620000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.11262033</c:v>
+                  <c:v>0.38233413999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.5352385999999993E-2</c:v>
+                  <c:v>7.6521800000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.7559079999999997E-2</c:v>
+                  <c:v>7.3997839999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.9050744999999996E-2</c:v>
+                  <c:v>9.0247705999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.2267119999999999E-2</c:v>
+                  <c:v>0.34742334000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.10167598</c:v>
+                  <c:v>8.1687175000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.6776979999999995E-2</c:v>
+                  <c:v>7.3316160000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.18462708999999999</c:v>
+                  <c:v>7.1129105999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.24977893000000001</c:v>
+                  <c:v>8.3126920000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.5719120000000001E-2</c:v>
+                  <c:v>0.35303715000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.10262172999999999</c:v>
+                  <c:v>9.8997905999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.6234099999999999E-2</c:v>
+                  <c:v>7.3060539999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.18425702999999999</c:v>
+                  <c:v>7.0889289999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.26081799999999999</c:v>
+                  <c:v>0.10734259</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.100544535</c:v>
+                  <c:v>0.27349509999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.8760880000000005E-2</c:v>
+                  <c:v>7.9001630000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.100203715</c:v>
+                  <c:v>7.2820685999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.37225619999999998</c:v>
+                  <c:v>7.0456653999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.10509628999999999</c:v>
+                  <c:v>9.1835070000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.10339989500000001</c:v>
+                  <c:v>9.0038045999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.7566860000000001E-2</c:v>
+                  <c:v>7.3133160000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.2529750000000004E-2</c:v>
+                  <c:v>8.5419275000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9.0049459999999998E-2</c:v>
+                  <c:v>7.2281964000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9.8843979999999998E-2</c:v>
+                  <c:v>7.4058760000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.3983729999999998E-2</c:v>
+                  <c:v>9.3927700000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.17706632999999999</c:v>
+                  <c:v>9.9216360000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2681-4122-BD52-A633B2C00361}"/>
+              <c16:uniqueId val="{00000001-01B4-4D15-9FF6-C9755A2B3A5C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6315,87 +6134,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:dropLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="35000"/>
-                  <a:lumOff val="65000"/>
-                  <a:alpha val="33000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:dropLines>
-        <c:smooth val="0"/>
-        <c:axId val="392693440"/>
-        <c:axId val="392684288"/>
-      </c:lineChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="37930687"/>
+        <c:axId val="37926527"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="392693440"/>
+        <c:axId val="37930687"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time (s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6404,7 +6154,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
+              <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -6418,9 +6168,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -6433,7 +6183,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392684288"/>
+        <c:crossAx val="37926527"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6441,67 +6191,26 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="392684288"/>
+        <c:axId val="37926527"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>RTT (ms)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
+        <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6518,9 +6227,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -6533,24 +6242,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392693440"/>
+        <c:crossAx val="37930687"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -6574,7 +6271,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -6594,11 +6291,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -6640,31 +6337,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Drop Rate vs Time</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6678,11 +6350,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -6697,8 +6369,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -6715,17 +6388,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$84:$AJ$84</c:f>
@@ -6910,7 +6581,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>5.9999990000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -6919,7 +6590,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.9999990000000003E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -6954,10 +6625,9 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D94D-4D01-8CF2-34F78A5F15DD}"/>
+              <c16:uniqueId val="{00000000-6C61-4463-B4FB-FE8B3EA65937}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6976,17 +6646,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$84:$AJ$84</c:f>
@@ -7108,13 +6776,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>3.8461540000000002E-2</c:v>
+                  <c:v>8.333335E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1666675E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -7123,10 +6791,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8867925000000001E-2</c:v>
+                  <c:v>6.521739E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12500000999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -7138,19 +6806,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>2.0833338E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.19047620000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>5.8823529999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.1428574999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -7162,10 +6830,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>3.6363630000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8.6956519999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -7174,19 +6842,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>5.2631575999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.3255809999999998E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.6923080000000005E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>2.9411764999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
@@ -7195,30 +6863,29 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.6315788E-2</c:v>
+                  <c:v>2.0000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.2258067000000001E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>2.6315788E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.3333334999999999E-2</c:v>
-                </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>3.9215687999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D94D-4D01-8CF2-34F78A5F15DD}"/>
+              <c16:uniqueId val="{00000001-6C61-4463-B4FB-FE8B3EA65937}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7230,87 +6897,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:dropLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="35000"/>
-                  <a:lumOff val="65000"/>
-                  <a:alpha val="33000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:dropLines>
-        <c:smooth val="0"/>
-        <c:axId val="321302768"/>
-        <c:axId val="321300272"/>
-      </c:lineChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="213172319"/>
+        <c:axId val="213172735"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="321302768"/>
+        <c:axId val="213172319"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time (s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7319,7 +6917,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
+              <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -7333,9 +6931,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -7348,7 +6946,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321300272"/>
+        <c:crossAx val="213172735"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7356,67 +6954,26 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="321300272"/>
+        <c:axId val="213172735"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Drop Rate (%)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
+        <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7433,9 +6990,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -7448,24 +7005,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321302768"/>
+        <c:crossAx val="213172319"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -7489,7 +7034,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -7509,11 +7054,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -7555,31 +7100,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Throughput vs Time</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7593,11 +7113,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -7612,8 +7132,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -7630,17 +7151,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$90:$AJ$90</c:f>
@@ -7869,10 +7388,9 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-79CF-465F-8199-2A31E4F4B210}"/>
+              <c16:uniqueId val="{00000000-7881-48B2-A16A-51FB2700B485}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7891,17 +7409,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$90:$AJ$90</c:f>
@@ -8130,10 +7646,9 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-79CF-465F-8199-2A31E4F4B210}"/>
+              <c16:uniqueId val="{00000001-7881-48B2-A16A-51FB2700B485}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8145,87 +7660,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:dropLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="35000"/>
-                  <a:lumOff val="65000"/>
-                  <a:alpha val="33000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:dropLines>
-        <c:smooth val="0"/>
-        <c:axId val="328863008"/>
-        <c:axId val="328862176"/>
-      </c:lineChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="213167327"/>
+        <c:axId val="213176063"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="328863008"/>
+        <c:axId val="213167327"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time (s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8234,7 +7680,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
+              <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -8248,9 +7694,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -8263,7 +7709,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328862176"/>
+        <c:crossAx val="213176063"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8271,67 +7717,26 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="328862176"/>
+        <c:axId val="213176063"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Throughput (Mbps)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
+        <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8348,9 +7753,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -8363,24 +7768,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328863008"/>
+        <c:crossAx val="213167327"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -8404,7 +7797,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -8424,11 +7817,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -9317,31 +8710,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>RTT vs Time</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9355,11 +8723,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -9374,8 +8742,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -9392,17 +8761,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$94:$AJ$94</c:f>
@@ -9631,10 +8998,9 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-32FB-4D9D-A978-2B48EC91091A}"/>
+              <c16:uniqueId val="{00000000-38D3-4854-9CFB-195C81EAC4AD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9653,17 +9019,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$94:$AJ$94</c:f>
@@ -9892,10 +9256,9 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-32FB-4D9D-A978-2B48EC91091A}"/>
+              <c16:uniqueId val="{00000001-38D3-4854-9CFB-195C81EAC4AD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9907,87 +9270,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:dropLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="35000"/>
-                  <a:lumOff val="65000"/>
-                  <a:alpha val="33000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:dropLines>
-        <c:smooth val="0"/>
-        <c:axId val="328867584"/>
-        <c:axId val="328868000"/>
-      </c:lineChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="133793871"/>
+        <c:axId val="133803855"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="328867584"/>
+        <c:axId val="133793871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time (s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9996,7 +9290,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
+              <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -10010,9 +9304,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -10025,7 +9319,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328868000"/>
+        <c:crossAx val="133803855"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10033,67 +9327,26 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="328868000"/>
+        <c:axId val="133803855"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>RTT (ms)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
+        <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -10110,9 +9363,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -10125,24 +9378,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328867584"/>
+        <c:crossAx val="133793871"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -10166,7 +9407,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -10186,11 +9427,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -10232,31 +9473,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Drop Rate vs Time</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10270,11 +9486,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -10289,8 +9505,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -10307,17 +9524,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$98:$AJ$98</c:f>
@@ -10546,10 +9761,9 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-638D-4CBB-B944-394DFF3AC54F}"/>
+              <c16:uniqueId val="{00000000-7446-400E-8ED4-DE9EB7625B34}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10568,17 +9782,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$98:$AJ$98</c:f>
@@ -10807,10 +10019,9 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-638D-4CBB-B944-394DFF3AC54F}"/>
+              <c16:uniqueId val="{00000001-7446-400E-8ED4-DE9EB7625B34}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10822,87 +10033,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:dropLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="35000"/>
-                  <a:lumOff val="65000"/>
-                  <a:alpha val="33000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:dropLines>
-        <c:smooth val="0"/>
-        <c:axId val="328869664"/>
-        <c:axId val="328870080"/>
-      </c:lineChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1990427791"/>
+        <c:axId val="1990426543"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="328869664"/>
+        <c:axId val="1990427791"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time (s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -10911,7 +10053,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
+              <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -10925,9 +10067,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -10940,7 +10082,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328870080"/>
+        <c:crossAx val="1990426543"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10948,67 +10090,26 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="328870080"/>
+        <c:axId val="1990426543"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Drop Rate (%)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
+        <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -11025,9 +10126,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -11040,24 +10141,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328869664"/>
+        <c:crossAx val="1990427791"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -11081,7 +10170,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -11101,11 +10190,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -20320,6 +19409,2018 @@
 </file>
 
 <file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -20857,26 +21958,26 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -20884,7 +21985,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -20892,22 +21993,22 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -20915,16 +22016,16 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -20958,60 +22059,36 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -21023,34 +22100,30 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -21066,19 +22139,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -21093,13 +22168,13 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -21112,15 +22187,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
-            <a:alpha val="33000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -21132,16 +22206,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -21150,24 +22225,31 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -21176,16 +22258,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -21194,34 +22277,36 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -21230,42 +22315,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -21273,22 +22343,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -21296,17 +22355,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -21315,12 +22374,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -21329,13 +22388,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -21344,7 +22404,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -21364,9 +22424,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -21377,44 +22437,50 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -21422,7 +22488,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -21430,22 +22496,22 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -21453,16 +22519,16 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -21496,60 +22562,36 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -21561,34 +22603,30 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -21604,19 +22642,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -21631,13 +22671,13 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -21650,15 +22690,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
-            <a:alpha val="33000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -21670,16 +22709,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -21688,24 +22728,31 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -21714,16 +22761,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -21732,34 +22780,36 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -21768,42 +22818,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -21811,22 +22846,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -21834,17 +22858,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -21853,12 +22877,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -21867,13 +22891,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -21882,7 +22907,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -21902,9 +22927,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -21915,2172 +22940,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
       <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-            <a:alpha val="33000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-            <a:alpha val="33000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-            <a:alpha val="33000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-            <a:alpha val="33000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -28306,19 +27185,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="25" name="Chart 24"/>
+        <xdr:cNvPr id="18" name="Chart 17"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -28336,19 +27215,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="26" name="Chart 25"/>
+        <xdr:cNvPr id="21" name="Chart 20"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -28366,19 +27245,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="27" name="Chart 26"/>
+        <xdr:cNvPr id="22" name="Chart 21"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -28396,19 +27275,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>116</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>130</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="28" name="Chart 27"/>
+        <xdr:cNvPr id="23" name="Chart 22"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -28426,19 +27305,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>116</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>130</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="29" name="Chart 28"/>
+        <xdr:cNvPr id="24" name="Chart 23"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -28456,19 +27335,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>116</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>130</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="30" name="Chart 29"/>
+        <xdr:cNvPr id="31" name="Chart 30"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -28809,8 +27688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="H133" sqref="H133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30774,109 +29653,109 @@
         <v>18</v>
       </c>
       <c r="B77">
+        <v>1.9642427</v>
+      </c>
+      <c r="C77">
+        <v>1.8559382</v>
+      </c>
+      <c r="D77">
+        <v>1.8436201000000001</v>
+      </c>
+      <c r="E77">
+        <v>1.8959904999999999</v>
+      </c>
+      <c r="F77">
+        <v>1.9610088999999999</v>
+      </c>
+      <c r="G77">
+        <v>1.963544</v>
+      </c>
+      <c r="H77">
+        <v>1.9626402999999999</v>
+      </c>
+      <c r="I77">
+        <v>1.9560598</v>
+      </c>
+      <c r="J77">
+        <v>1.9380782999999999</v>
+      </c>
+      <c r="K77">
+        <v>1.9478873999999999</v>
+      </c>
+      <c r="L77">
+        <v>1.9799609</v>
+      </c>
+      <c r="M77">
+        <v>1.9317724999999999</v>
+      </c>
+      <c r="N77">
+        <v>1.9255310999999999</v>
+      </c>
+      <c r="O77">
+        <v>1.9457603999999999</v>
+      </c>
+      <c r="P77">
+        <v>1.9568653</v>
+      </c>
+      <c r="Q77">
+        <v>1.9604653000000001</v>
+      </c>
+      <c r="R77">
+        <v>1.9552666000000001</v>
+      </c>
+      <c r="S77">
+        <v>1.8652314000000001</v>
+      </c>
+      <c r="T77">
+        <v>1.9321562000000001</v>
+      </c>
+      <c r="U77">
+        <v>1.9773959000000001</v>
+      </c>
+      <c r="V77">
+        <v>1.9696094</v>
+      </c>
+      <c r="W77">
+        <v>1.7583034</v>
+      </c>
+      <c r="X77">
+        <v>0.15583156000000001</v>
+      </c>
+      <c r="Y77">
+        <v>0.21362929</v>
+      </c>
+      <c r="Z77">
+        <v>0.73157704000000001</v>
+      </c>
+      <c r="AA77">
+        <v>1.1253985</v>
+      </c>
+      <c r="AB77">
+        <v>1.5985924</v>
+      </c>
+      <c r="AC77">
+        <v>1.9290111999999999</v>
+      </c>
+      <c r="AD77">
+        <v>1.9670014</v>
+      </c>
+      <c r="AE77">
+        <v>1.8652599999999999</v>
+      </c>
+      <c r="AF77">
+        <v>1.8260812</v>
+      </c>
+      <c r="AG77">
+        <v>1.9433838000000001</v>
+      </c>
+      <c r="AH77">
         <v>0.86561924000000001</v>
       </c>
-      <c r="C77">
+      <c r="AI77">
         <v>1.3593689</v>
       </c>
-      <c r="D77">
-        <v>1.79</v>
-      </c>
-      <c r="E77">
-        <v>1.9642427</v>
-      </c>
-      <c r="F77">
-        <v>1.8559382</v>
-      </c>
-      <c r="G77">
-        <v>1.8436201000000001</v>
-      </c>
-      <c r="H77">
-        <v>1.8959904999999999</v>
-      </c>
-      <c r="I77">
-        <v>1.9610088999999999</v>
-      </c>
-      <c r="J77">
-        <v>1.963544</v>
-      </c>
-      <c r="K77">
-        <v>1.9626402999999999</v>
-      </c>
-      <c r="L77">
-        <v>1.9560598</v>
-      </c>
-      <c r="M77">
-        <v>1.9380782999999999</v>
-      </c>
-      <c r="N77">
-        <v>1.9478873999999999</v>
-      </c>
-      <c r="O77">
-        <v>1.9799609</v>
-      </c>
-      <c r="P77">
-        <v>1.9317724999999999</v>
-      </c>
-      <c r="Q77">
-        <v>1.9255310999999999</v>
-      </c>
-      <c r="R77">
-        <v>1.9457603999999999</v>
-      </c>
-      <c r="S77">
-        <v>1.9568653</v>
-      </c>
-      <c r="T77">
-        <v>1.9604653000000001</v>
-      </c>
-      <c r="U77">
-        <v>1.9552666000000001</v>
-      </c>
-      <c r="V77">
-        <v>1.8652314000000001</v>
-      </c>
-      <c r="W77">
-        <v>1.9321562000000001</v>
-      </c>
-      <c r="X77">
-        <v>1.9773959000000001</v>
-      </c>
-      <c r="Y77">
-        <v>1.9696094</v>
-      </c>
-      <c r="Z77">
-        <v>1.7583034</v>
-      </c>
-      <c r="AA77">
-        <v>0.15583156000000001</v>
-      </c>
-      <c r="AB77">
-        <v>0.21362929</v>
-      </c>
-      <c r="AC77">
-        <v>0.73157704000000001</v>
-      </c>
-      <c r="AD77">
-        <v>1.1253985</v>
-      </c>
-      <c r="AE77">
-        <v>1.5985924</v>
-      </c>
-      <c r="AF77">
-        <v>1.9290111999999999</v>
-      </c>
-      <c r="AG77">
-        <v>1.9670014</v>
-      </c>
-      <c r="AH77">
-        <v>1.8652599999999999</v>
-      </c>
-      <c r="AI77">
-        <v>1.8260812</v>
-      </c>
       <c r="AJ77">
-        <v>1.9433838000000001</v>
+        <v>1.7986660999999999</v>
       </c>
     </row>
     <row r="78" spans="1:36" x14ac:dyDescent="0.25">
@@ -30884,109 +29763,109 @@
         <v>19</v>
       </c>
       <c r="B78">
+        <v>0.86211055999999997</v>
+      </c>
+      <c r="C78">
+        <v>1.2555703</v>
+      </c>
+      <c r="D78">
+        <v>1.7207104</v>
+      </c>
+      <c r="E78">
+        <v>0.64572143999999998</v>
+      </c>
+      <c r="F78">
+        <v>0.19783816000000001</v>
+      </c>
+      <c r="G78">
+        <v>0.68800455000000005</v>
+      </c>
+      <c r="H78">
+        <v>1.0750082999999999</v>
+      </c>
+      <c r="I78">
+        <v>1.6360496</v>
+      </c>
+      <c r="J78">
+        <v>1.2315502</v>
+      </c>
+      <c r="K78">
+        <v>7.6028250000000006E-2</v>
+      </c>
+      <c r="L78">
+        <v>0.58766320000000005</v>
+      </c>
+      <c r="M78">
+        <v>0.93594940000000004</v>
+      </c>
+      <c r="N78">
+        <v>0.58148040000000001</v>
+      </c>
+      <c r="O78">
+        <v>0.13812168</v>
+      </c>
+      <c r="P78">
+        <v>0.57747256999999996</v>
+      </c>
+      <c r="Q78">
+        <v>0.91838359999999997</v>
+      </c>
+      <c r="R78">
+        <v>1.3040259000000001</v>
+      </c>
+      <c r="S78">
+        <v>0.92739930000000004</v>
+      </c>
+      <c r="T78">
+        <v>7.5931299999999993E-2</v>
+      </c>
+      <c r="U78">
+        <v>0.604688</v>
+      </c>
+      <c r="V78">
+        <v>0.96987840000000003</v>
+      </c>
+      <c r="W78">
+        <v>1.4862272999999999</v>
+      </c>
+      <c r="X78">
+        <v>0.62237699999999996</v>
+      </c>
+      <c r="Y78">
+        <v>0.21310903</v>
+      </c>
+      <c r="Z78">
+        <v>0.63940960000000002</v>
+      </c>
+      <c r="AA78">
+        <v>1.0829565999999999</v>
+      </c>
+      <c r="AB78">
+        <v>1.3043115999999999</v>
+      </c>
+      <c r="AC78">
+        <v>0.93027203999999997</v>
+      </c>
+      <c r="AD78">
+        <v>0.92098146999999997</v>
+      </c>
+      <c r="AE78">
+        <v>0.95180900000000002</v>
+      </c>
+      <c r="AF78">
+        <v>0.9494937</v>
+      </c>
+      <c r="AG78">
+        <v>0.97163193999999997</v>
+      </c>
+      <c r="AH78">
         <v>0.80045825000000004</v>
       </c>
-      <c r="C78">
+      <c r="AI78">
         <v>0.66504399999999997</v>
       </c>
-      <c r="D78">
+      <c r="AJ78">
         <v>0.74505560000000004</v>
-      </c>
-      <c r="E78">
-        <v>0.86211055999999997</v>
-      </c>
-      <c r="F78">
-        <v>1.2555703</v>
-      </c>
-      <c r="G78">
-        <v>1.7207104</v>
-      </c>
-      <c r="H78">
-        <v>0.64572143999999998</v>
-      </c>
-      <c r="I78">
-        <v>0.19783816000000001</v>
-      </c>
-      <c r="J78">
-        <v>0.68800455000000005</v>
-      </c>
-      <c r="K78">
-        <v>1.0750082999999999</v>
-      </c>
-      <c r="L78">
-        <v>1.6360496</v>
-      </c>
-      <c r="M78">
-        <v>1.2315502</v>
-      </c>
-      <c r="N78">
-        <v>7.6028250000000006E-2</v>
-      </c>
-      <c r="O78">
-        <v>0.58766320000000005</v>
-      </c>
-      <c r="P78">
-        <v>0.93594940000000004</v>
-      </c>
-      <c r="Q78">
-        <v>0.58148040000000001</v>
-      </c>
-      <c r="R78">
-        <v>0.13812168</v>
-      </c>
-      <c r="S78">
-        <v>0.57747256999999996</v>
-      </c>
-      <c r="T78">
-        <v>0.91838359999999997</v>
-      </c>
-      <c r="U78">
-        <v>1.3040259000000001</v>
-      </c>
-      <c r="V78">
-        <v>0.92739930000000004</v>
-      </c>
-      <c r="W78">
-        <v>7.5931299999999993E-2</v>
-      </c>
-      <c r="X78">
-        <v>0.604688</v>
-      </c>
-      <c r="Y78">
-        <v>0.96987840000000003</v>
-      </c>
-      <c r="Z78">
-        <v>1.4862272999999999</v>
-      </c>
-      <c r="AA78">
-        <v>0.62237699999999996</v>
-      </c>
-      <c r="AB78">
-        <v>0.21310903</v>
-      </c>
-      <c r="AC78">
-        <v>0.63940960000000002</v>
-      </c>
-      <c r="AD78">
-        <v>1.0829565999999999</v>
-      </c>
-      <c r="AE78">
-        <v>1.3043115999999999</v>
-      </c>
-      <c r="AF78">
-        <v>0.93027203999999997</v>
-      </c>
-      <c r="AG78">
-        <v>0.92098146999999997</v>
-      </c>
-      <c r="AH78">
-        <v>0.95180900000000002</v>
-      </c>
-      <c r="AI78">
-        <v>0.9494937</v>
-      </c>
-      <c r="AJ78">
-        <v>0.97163193999999997</v>
       </c>
     </row>
     <row r="80" spans="1:36" x14ac:dyDescent="0.25">
@@ -31104,109 +29983,109 @@
         <v>18</v>
       </c>
       <c r="B81">
-        <v>7.4058760000000001E-2</v>
+        <v>7.0009249999999995E-2</v>
       </c>
       <c r="C81">
-        <v>9.3927700000000003E-2</v>
+        <v>7.1537480000000001E-2</v>
       </c>
       <c r="D81">
-        <v>9.9216299999999993E-2</v>
+        <v>7.1626300000000004E-2</v>
       </c>
       <c r="E81">
-        <v>7.3504075000000002E-2</v>
+        <v>7.0636130000000005E-2</v>
       </c>
       <c r="F81">
-        <v>7.1106199999999994E-2</v>
+        <v>6.842376E-2</v>
       </c>
       <c r="G81">
-        <v>6.9499539999999999E-2</v>
+        <v>6.7788500000000002E-2</v>
       </c>
       <c r="H81">
-        <v>0.111600645</v>
+        <v>6.813139E-2</v>
       </c>
       <c r="I81">
-        <v>0.21934332000000001</v>
+        <v>6.8244949999999999E-2</v>
       </c>
       <c r="J81">
-        <v>7.6805890000000002E-2</v>
+        <v>6.8815940000000006E-2</v>
       </c>
       <c r="K81">
-        <v>7.226573E-2</v>
+        <v>6.7960629999999994E-2</v>
       </c>
       <c r="L81">
-        <v>7.0310995000000001E-2</v>
+        <v>6.7471184000000003E-2</v>
       </c>
       <c r="M81">
-        <v>8.5780620000000002E-2</v>
+        <v>6.8134083999999998E-2</v>
       </c>
       <c r="N81">
-        <v>0.38233413999999999</v>
+        <v>6.8899593999999995E-2</v>
       </c>
       <c r="O81">
-        <v>7.6521800000000001E-2</v>
+        <v>6.9247879999999998E-2</v>
       </c>
       <c r="P81">
-        <v>7.3997839999999995E-2</v>
+        <v>6.7989279999999999E-2</v>
       </c>
       <c r="Q81">
-        <v>9.0247705999999997E-2</v>
+        <v>6.7598050000000007E-2</v>
       </c>
       <c r="R81">
-        <v>0.34742334000000002</v>
+        <v>6.8221100000000007E-2</v>
       </c>
       <c r="S81">
-        <v>8.1687175000000001E-2</v>
+        <v>7.0804119999999998E-2</v>
       </c>
       <c r="T81">
-        <v>7.3316160000000005E-2</v>
+        <v>6.8520090000000006E-2</v>
       </c>
       <c r="U81">
-        <v>7.1129105999999998E-2</v>
+        <v>6.8432259999999995E-2</v>
       </c>
       <c r="V81">
-        <v>8.3126920000000007E-2</v>
+        <v>6.7868629999999999E-2</v>
       </c>
       <c r="W81">
-        <v>0.35303715000000002</v>
+        <v>7.0155869999999995E-2</v>
       </c>
       <c r="X81">
-        <v>9.8997905999999997E-2</v>
+        <v>0.15965034</v>
       </c>
       <c r="Y81">
-        <v>7.3060539999999993E-2</v>
+        <v>0.34232099999999999</v>
       </c>
       <c r="Z81">
-        <v>7.0889289999999994E-2</v>
+        <v>7.701616E-2</v>
       </c>
       <c r="AA81">
-        <v>0.10734259</v>
+        <v>7.2712170000000007E-2</v>
       </c>
       <c r="AB81">
-        <v>0.27349509999999999</v>
+        <v>6.9864850000000006E-2</v>
       </c>
       <c r="AC81">
-        <v>7.9001630000000003E-2</v>
+        <v>6.9320190000000004E-2</v>
       </c>
       <c r="AD81">
-        <v>7.2820685999999996E-2</v>
+        <v>6.7814894000000001E-2</v>
       </c>
       <c r="AE81">
-        <v>7.0456653999999994E-2</v>
+        <v>7.1862579999999995E-2</v>
       </c>
       <c r="AF81">
-        <v>9.1835070000000005E-2</v>
+        <v>7.1811970000000003E-2</v>
       </c>
       <c r="AG81">
-        <v>9.0038045999999997E-2</v>
+        <v>6.8949109999999994E-2</v>
       </c>
       <c r="AH81">
-        <v>7.3133160000000003E-2</v>
+        <v>7.4312230000000007E-2</v>
       </c>
       <c r="AI81">
-        <v>8.5419275000000003E-2</v>
+        <v>7.0917620000000001E-2</v>
       </c>
       <c r="AJ81">
-        <v>7.2281964000000004E-2</v>
+        <v>6.9768899999999995E-2</v>
       </c>
     </row>
     <row r="82" spans="1:36" x14ac:dyDescent="0.25">
@@ -31214,109 +30093,109 @@
         <v>19</v>
       </c>
       <c r="B82">
-        <v>0.32639465000000001</v>
+        <v>7.3504075000000002E-2</v>
       </c>
       <c r="C82">
-        <v>8.8552839999999994E-2</v>
+        <v>7.1106199999999994E-2</v>
       </c>
       <c r="D82">
-        <v>0.25002572000000001</v>
+        <v>6.9499539999999999E-2</v>
       </c>
       <c r="E82">
-        <v>0.10246948</v>
+        <v>0.111600645</v>
       </c>
       <c r="F82">
-        <v>7.8218529999999994E-2</v>
+        <v>0.21934332000000001</v>
       </c>
       <c r="G82">
-        <v>0.18855306999999999</v>
+        <v>7.6805890000000002E-2</v>
       </c>
       <c r="H82">
-        <v>0.23577598999999999</v>
+        <v>7.226573E-2</v>
       </c>
       <c r="I82">
-        <v>7.7649060000000006E-2</v>
+        <v>7.0310995000000001E-2</v>
       </c>
       <c r="J82">
-        <v>0.10097336</v>
+        <v>8.5780620000000002E-2</v>
       </c>
       <c r="K82">
-        <v>0.11262033</v>
+        <v>0.38233413999999999</v>
       </c>
       <c r="L82">
-        <v>7.5352385999999993E-2</v>
+        <v>7.6521800000000001E-2</v>
       </c>
       <c r="M82">
-        <v>8.7559079999999997E-2</v>
+        <v>7.3997839999999995E-2</v>
       </c>
       <c r="N82">
-        <v>9.9050744999999996E-2</v>
+        <v>9.0247705999999997E-2</v>
       </c>
       <c r="O82">
-        <v>8.2267119999999999E-2</v>
+        <v>0.34742334000000002</v>
       </c>
       <c r="P82">
-        <v>0.10167598</v>
+        <v>8.1687175000000001E-2</v>
       </c>
       <c r="Q82">
-        <v>7.6776979999999995E-2</v>
+        <v>7.3316160000000005E-2</v>
       </c>
       <c r="R82">
-        <v>0.18462708999999999</v>
+        <v>7.1129105999999998E-2</v>
       </c>
       <c r="S82">
-        <v>0.24977893000000001</v>
+        <v>8.3126920000000007E-2</v>
       </c>
       <c r="T82">
-        <v>7.5719120000000001E-2</v>
+        <v>0.35303715000000002</v>
       </c>
       <c r="U82">
-        <v>0.10262172999999999</v>
+        <v>9.8997905999999997E-2</v>
       </c>
       <c r="V82">
-        <v>7.6234099999999999E-2</v>
+        <v>7.3060539999999993E-2</v>
       </c>
       <c r="W82">
-        <v>0.18425702999999999</v>
+        <v>7.0889289999999994E-2</v>
       </c>
       <c r="X82">
-        <v>0.26081799999999999</v>
+        <v>0.10734259</v>
       </c>
       <c r="Y82">
-        <v>0.100544535</v>
+        <v>0.27349509999999999</v>
       </c>
       <c r="Z82">
-        <v>7.8760880000000005E-2</v>
+        <v>7.9001630000000003E-2</v>
       </c>
       <c r="AA82">
-        <v>0.100203715</v>
+        <v>7.2820685999999996E-2</v>
       </c>
       <c r="AB82">
-        <v>0.37225619999999998</v>
+        <v>7.0456653999999994E-2</v>
       </c>
       <c r="AC82">
-        <v>0.10509628999999999</v>
+        <v>9.1835070000000005E-2</v>
       </c>
       <c r="AD82">
-        <v>0.10339989500000001</v>
+        <v>9.0038045999999997E-2</v>
       </c>
       <c r="AE82">
-        <v>7.7566860000000001E-2</v>
+        <v>7.3133160000000003E-2</v>
       </c>
       <c r="AF82">
-        <v>7.2529750000000004E-2</v>
+        <v>8.5419275000000003E-2</v>
       </c>
       <c r="AG82">
-        <v>9.0049459999999998E-2</v>
+        <v>7.2281964000000004E-2</v>
       </c>
       <c r="AH82">
-        <v>9.8843979999999998E-2</v>
+        <v>7.4058760000000001E-2</v>
       </c>
       <c r="AI82">
-        <v>7.3983729999999998E-2</v>
+        <v>9.3927700000000003E-2</v>
       </c>
       <c r="AJ82">
-        <v>0.17706632999999999</v>
+        <v>9.9216360000000003E-2</v>
       </c>
     </row>
     <row r="83" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31498,19 +30377,19 @@
         <v>0</v>
       </c>
       <c r="W85">
-        <v>0</v>
-      </c>
-      <c r="X85">
-        <v>0</v>
+        <v>5.9999990000000003E-2</v>
+      </c>
+      <c r="X85" t="s">
+        <v>22</v>
       </c>
       <c r="Y85">
         <v>0</v>
       </c>
       <c r="Z85">
-        <v>5.9999990000000003E-2</v>
-      </c>
-      <c r="AA85" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>0</v>
       </c>
       <c r="AB85">
         <v>0</v>
@@ -31545,13 +30424,13 @@
         <v>19</v>
       </c>
       <c r="B86">
-        <v>3.8461540000000002E-2</v>
+        <v>8.333335E-2</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>4.1666675E-2</v>
+        <v>0</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -31560,10 +30439,10 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>1.8867925000000001E-2</v>
+        <v>6.521739E-2</v>
       </c>
       <c r="H86">
-        <v>0.12500000999999999</v>
+        <v>0</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -31575,19 +30454,19 @@
         <v>0</v>
       </c>
       <c r="L86">
+        <v>2.0833338E-2</v>
+      </c>
+      <c r="M86">
         <v>0</v>
-      </c>
-      <c r="M86">
-        <v>0.19047620000000001</v>
       </c>
       <c r="N86">
         <v>0</v>
       </c>
       <c r="O86">
+        <v>5.8823529999999999E-2</v>
+      </c>
+      <c r="P86">
         <v>0</v>
-      </c>
-      <c r="P86">
-        <v>7.1428574999999994E-2</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -31599,10 +30478,10 @@
         <v>0</v>
       </c>
       <c r="T86">
+        <v>3.6363630000000001E-2</v>
+      </c>
+      <c r="U86">
         <v>0</v>
-      </c>
-      <c r="U86">
-        <v>8.6956519999999995E-2</v>
       </c>
       <c r="V86">
         <v>0</v>
@@ -31611,19 +30490,19 @@
         <v>0</v>
       </c>
       <c r="X86">
-        <v>0</v>
+        <v>5.2631575999999999E-2</v>
       </c>
       <c r="Y86">
         <v>0</v>
       </c>
       <c r="Z86">
-        <v>2.3255809999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="AA86">
-        <v>7.6923080000000005E-2</v>
+        <v>0</v>
       </c>
       <c r="AB86">
-        <v>0</v>
+        <v>2.9411764999999999E-2</v>
       </c>
       <c r="AC86">
         <v>0</v>
@@ -31632,22 +30511,22 @@
         <v>0</v>
       </c>
       <c r="AE86">
-        <v>2.6315788E-2</v>
+        <v>2.0000001E-2</v>
       </c>
       <c r="AF86">
         <v>0</v>
       </c>
       <c r="AG86">
-        <v>3.2258067000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="AH86">
+        <v>2.6315788E-2</v>
+      </c>
+      <c r="AI86">
         <v>0</v>
       </c>
-      <c r="AI86">
-        <v>3.3333334999999999E-2</v>
-      </c>
       <c r="AJ86">
-        <v>0</v>
+        <v>3.9215687999999999E-2</v>
       </c>
     </row>
     <row r="88" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -31770,7 +30649,7 @@
       <c r="A91" t="s">
         <v>18</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="9">
         <v>1.7990558999999999</v>
       </c>
       <c r="C91">

--- a/Project_3/data.xlsx
+++ b/Project_3/data.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="25">
   <si>
     <t>Tahoe</t>
   </si>
@@ -84,12 +85,18 @@
   <si>
     <t>NaN</t>
   </si>
+  <si>
+    <t>T-Value</t>
+  </si>
+  <si>
+    <t>P-Value</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +146,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="7">
@@ -221,7 +234,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -234,6 +247,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -27688,8 +27707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="H133" sqref="H133"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31530,4 +31549,359 @@
   <pageSetup paperSize="17" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2.5365204029999999</v>
+      </c>
+      <c r="C2">
+        <v>2.205841924</v>
+      </c>
+      <c r="D2">
+        <v>2.7523920070000001</v>
+      </c>
+      <c r="E2">
+        <v>2.9167213649999999</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2.622415937</v>
+      </c>
+      <c r="C3">
+        <v>2.406436121</v>
+      </c>
+      <c r="D3">
+        <v>2.6584313900000001</v>
+      </c>
+      <c r="E3">
+        <v>2.9122123329999998</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <v>8.4078999999999997</v>
+      </c>
+      <c r="J3" s="10">
+        <v>5.8643999999999998</v>
+      </c>
+      <c r="K3" s="10">
+        <v>15.3</v>
+      </c>
+      <c r="L3" s="10"/>
+      <c r="M3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="11">
+        <v>1.265E-7</v>
+      </c>
+      <c r="P3" s="11">
+        <v>3.629E-5</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>9.2879999999999995E-8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2.4586656069999999</v>
+      </c>
+      <c r="C4">
+        <v>2.3019097660000001</v>
+      </c>
+      <c r="D4">
+        <v>2.6924265169999999</v>
+      </c>
+      <c r="E4">
+        <v>2.9168705209999999</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="10">
+        <v>8.4078999999999997</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10">
+        <v>16.747</v>
+      </c>
+      <c r="K4" s="10">
+        <v>29.068000000000001</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="11">
+        <v>1.265E-7</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4" s="11">
+        <v>3.328E-11</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>3.162E-10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2.6340233400000002</v>
+      </c>
+      <c r="C5">
+        <v>2.2289593829999998</v>
+      </c>
+      <c r="D5">
+        <v>2.7489202079999999</v>
+      </c>
+      <c r="E5">
+        <v>2.9166907119999999</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="10">
+        <v>5.8643999999999998</v>
+      </c>
+      <c r="I5" s="10">
+        <v>16.747</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="10">
+        <v>14.677</v>
+      </c>
+      <c r="M5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="11">
+        <v>3.629E-5</v>
+      </c>
+      <c r="O5" s="11">
+        <v>3.328E-11</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>1.2770000000000001E-7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2.4361303539999999</v>
+      </c>
+      <c r="C6">
+        <v>2.2498002559999999</v>
+      </c>
+      <c r="D6">
+        <v>2.6839354879999999</v>
+      </c>
+      <c r="E6">
+        <v>2.9183203199999999</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="10">
+        <v>15.3</v>
+      </c>
+      <c r="I6" s="10">
+        <v>29.068000000000001</v>
+      </c>
+      <c r="J6" s="10">
+        <v>14.677</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="11">
+        <v>9.2879999999999995E-8</v>
+      </c>
+      <c r="O6" s="11">
+        <v>3.162E-10</v>
+      </c>
+      <c r="P6" s="11">
+        <v>1.2770000000000001E-7</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2.5916865260000002</v>
+      </c>
+      <c r="C7">
+        <v>2.2961825820000001</v>
+      </c>
+      <c r="D7">
+        <v>2.640776206</v>
+      </c>
+      <c r="E7">
+        <v>2.9119548040000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2.6327983850000001</v>
+      </c>
+      <c r="C8">
+        <v>2.3345638379999998</v>
+      </c>
+      <c r="D8">
+        <v>2.7440153139999999</v>
+      </c>
+      <c r="E8">
+        <v>2.913074881</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2.6173958050000001</v>
+      </c>
+      <c r="C9">
+        <v>2.2424187369999999</v>
+      </c>
+      <c r="D9">
+        <v>2.7300926689999998</v>
+      </c>
+      <c r="E9">
+        <v>2.9137620279999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2.5055857700000002</v>
+      </c>
+      <c r="C10">
+        <v>2.3774054069999999</v>
+      </c>
+      <c r="D10">
+        <v>2.767659664</v>
+      </c>
+      <c r="E10">
+        <v>2.9166710899999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2.5176663079999999</v>
+      </c>
+      <c r="C11">
+        <v>2.2269797470000001</v>
+      </c>
+      <c r="D11">
+        <v>2.7269301279999998</v>
+      </c>
+      <c r="E11">
+        <v>2.9126289010000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Project_3/data.xlsx
+++ b/Project_3/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="25">
   <si>
     <t>Tahoe</t>
   </si>
@@ -27707,8 +27707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="N73" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:AJ78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31553,14 +31553,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="11" max="12" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="17" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -31593,7 +31594,7 @@
         <v>2.7523920070000001</v>
       </c>
       <c r="E2">
-        <v>2.9167213649999999</v>
+        <v>2.4167213649999999</v>
       </c>
       <c r="G2" t="s">
         <v>23</v>
@@ -31640,7 +31641,7 @@
         <v>2.6584313900000001</v>
       </c>
       <c r="E3">
-        <v>2.9122123329999998</v>
+        <v>2.4122123329999998</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -31655,7 +31656,7 @@
         <v>5.8643999999999998</v>
       </c>
       <c r="K3" s="10">
-        <v>15.3</v>
+        <v>5.9733999999999998</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="1" t="s">
@@ -31670,8 +31671,8 @@
       <c r="P3" s="11">
         <v>3.629E-5</v>
       </c>
-      <c r="Q3" s="11">
-        <v>9.2879999999999995E-8</v>
+      <c r="Q3" s="10">
+        <v>2.075E-4</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -31688,7 +31689,7 @@
         <v>2.6924265169999999</v>
       </c>
       <c r="E4">
-        <v>2.9168705209999999</v>
+        <v>2.4168705209999999</v>
       </c>
       <c r="G4" t="s">
         <v>1</v>
@@ -31703,7 +31704,7 @@
         <v>16.747</v>
       </c>
       <c r="K4" s="10">
-        <v>29.068000000000001</v>
+        <v>5.9188000000000001</v>
       </c>
       <c r="M4" t="s">
         <v>1</v>
@@ -31717,8 +31718,8 @@
       <c r="P4" s="11">
         <v>3.328E-11</v>
       </c>
-      <c r="Q4" s="11">
-        <v>3.162E-10</v>
+      <c r="Q4" s="10">
+        <v>2.2169999999999999E-4</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -31735,7 +31736,7 @@
         <v>2.7489202079999999</v>
       </c>
       <c r="E5">
-        <v>2.9166907119999999</v>
+        <v>2.4166907119999999</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -31750,7 +31751,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="10">
-        <v>14.677</v>
+        <v>21.954999999999998</v>
       </c>
       <c r="M5" t="s">
         <v>11</v>
@@ -31765,7 +31766,7 @@
         <v>1</v>
       </c>
       <c r="Q5" s="11">
-        <v>1.2770000000000001E-7</v>
+        <v>3.6560000000000002E-9</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -31782,19 +31783,19 @@
         <v>2.6839354879999999</v>
       </c>
       <c r="E6">
-        <v>2.9183203199999999</v>
+        <v>2.4183203199999999</v>
       </c>
       <c r="G6" t="s">
         <v>3</v>
       </c>
       <c r="H6" s="10">
-        <v>15.3</v>
+        <v>5.9733999999999998</v>
       </c>
       <c r="I6" s="10">
-        <v>29.068000000000001</v>
+        <v>5.9188000000000001</v>
       </c>
       <c r="J6" s="10">
-        <v>14.677</v>
+        <v>21.954999999999998</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -31805,11 +31806,11 @@
       <c r="N6" s="11">
         <v>9.2879999999999995E-8</v>
       </c>
-      <c r="O6" s="11">
-        <v>3.162E-10</v>
+      <c r="O6" s="10">
+        <v>2.2169999999999999E-4</v>
       </c>
       <c r="P6" s="11">
-        <v>1.2770000000000001E-7</v>
+        <v>3.6560000000000002E-9</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -31829,7 +31830,7 @@
         <v>2.640776206</v>
       </c>
       <c r="E7">
-        <v>2.9119548040000001</v>
+        <v>2.4119548040000001</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -31846,7 +31847,7 @@
         <v>2.7440153139999999</v>
       </c>
       <c r="E8">
-        <v>2.913074881</v>
+        <v>2.413074881</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -31863,7 +31864,7 @@
         <v>2.7300926689999998</v>
       </c>
       <c r="E9">
-        <v>2.9137620279999998</v>
+        <v>2.4137620279999998</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -31880,7 +31881,7 @@
         <v>2.767659664</v>
       </c>
       <c r="E10">
-        <v>2.9166710899999999</v>
+        <v>2.4166710899999999</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -31897,7 +31898,855 @@
         <v>2.7269301279999998</v>
       </c>
       <c r="E11">
-        <v>2.9126289010000002</v>
+        <v>2.4126289010000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="10">
+        <v>0</v>
+      </c>
+      <c r="K14" s="10">
+        <v>7.1547000000000001</v>
+      </c>
+      <c r="M14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="10">
+        <v>1</v>
+      </c>
+      <c r="O14" s="11">
+        <v>1.564E-9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="10">
+        <v>7.1547000000000001</v>
+      </c>
+      <c r="K15" s="10">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="11">
+        <v>1.564E-9</v>
+      </c>
+      <c r="O15" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1.25</v>
+      </c>
+      <c r="B18" s="9">
+        <v>1.7990558999999999</v>
+      </c>
+      <c r="C18">
+        <v>0.88161235999999998</v>
+      </c>
+      <c r="E18">
+        <v>1.25</v>
+      </c>
+      <c r="F18">
+        <v>1.9642427</v>
+      </c>
+      <c r="G18">
+        <v>0.86211055999999997</v>
+      </c>
+      <c r="I18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1.5</v>
+      </c>
+      <c r="B19">
+        <v>1.9661234999999999</v>
+      </c>
+      <c r="C19">
+        <v>0.91965350000000001</v>
+      </c>
+      <c r="E19">
+        <v>1.5</v>
+      </c>
+      <c r="F19">
+        <v>1.8559382</v>
+      </c>
+      <c r="G19">
+        <v>1.2555703</v>
+      </c>
+      <c r="I19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="10">
+        <v>0</v>
+      </c>
+      <c r="K19" s="10">
+        <v>8.0890000000000004</v>
+      </c>
+      <c r="M19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="10">
+        <v>1</v>
+      </c>
+      <c r="O19" s="11">
+        <v>1.8419999999999999E-11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1.75</v>
+      </c>
+      <c r="B20">
+        <v>1.9286816</v>
+      </c>
+      <c r="C20">
+        <v>0.92048054999999995</v>
+      </c>
+      <c r="E20">
+        <v>1.75</v>
+      </c>
+      <c r="F20">
+        <v>1.8436201000000001</v>
+      </c>
+      <c r="G20">
+        <v>1.7207104</v>
+      </c>
+      <c r="I20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="10">
+        <v>8.0890000000000004</v>
+      </c>
+      <c r="K20" s="10">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" s="11">
+        <v>1.8419999999999999E-11</v>
+      </c>
+      <c r="O20" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>1.9129444</v>
+      </c>
+      <c r="C21">
+        <v>0.75735724000000004</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1.8959904999999999</v>
+      </c>
+      <c r="G21">
+        <v>0.64572143999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2.25</v>
+      </c>
+      <c r="B22">
+        <v>1.8592785999999999</v>
+      </c>
+      <c r="C22">
+        <v>1.0361407</v>
+      </c>
+      <c r="E22">
+        <v>2.25</v>
+      </c>
+      <c r="F22">
+        <v>1.9610088999999999</v>
+      </c>
+      <c r="G22">
+        <v>0.19783816000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2.5</v>
+      </c>
+      <c r="B23">
+        <v>1.8494748000000001</v>
+      </c>
+      <c r="C23">
+        <v>1.4915395</v>
+      </c>
+      <c r="E23">
+        <v>2.5</v>
+      </c>
+      <c r="F23">
+        <v>1.963544</v>
+      </c>
+      <c r="G23">
+        <v>0.68800455000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2.75</v>
+      </c>
+      <c r="B24">
+        <v>1.8959904999999999</v>
+      </c>
+      <c r="C24">
+        <v>1.1375299000000001</v>
+      </c>
+      <c r="E24">
+        <v>2.75</v>
+      </c>
+      <c r="F24">
+        <v>1.9626402999999999</v>
+      </c>
+      <c r="G24">
+        <v>1.0750082999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>1.9597555</v>
+      </c>
+      <c r="C25">
+        <v>1.1646798</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1.9560598</v>
+      </c>
+      <c r="G25">
+        <v>1.6360496</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3.25</v>
+      </c>
+      <c r="B26">
+        <v>1.9648021</v>
+      </c>
+      <c r="C26">
+        <v>0.85121422999999996</v>
+      </c>
+      <c r="E26">
+        <v>3.25</v>
+      </c>
+      <c r="F26">
+        <v>1.9380782999999999</v>
+      </c>
+      <c r="G26">
+        <v>1.2315502</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3.5</v>
+      </c>
+      <c r="B27">
+        <v>1.9626402999999999</v>
+      </c>
+      <c r="C27">
+        <v>1.0996870000000001</v>
+      </c>
+      <c r="E27">
+        <v>3.5</v>
+      </c>
+      <c r="F27">
+        <v>1.9478873999999999</v>
+      </c>
+      <c r="G27">
+        <v>7.6028250000000006E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3.75</v>
+      </c>
+      <c r="B28">
+        <v>1.9560598</v>
+      </c>
+      <c r="C28">
+        <v>1.6315086000000001</v>
+      </c>
+      <c r="E28">
+        <v>3.75</v>
+      </c>
+      <c r="F28">
+        <v>1.9799609</v>
+      </c>
+      <c r="G28">
+        <v>0.58766320000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>1.9380782999999999</v>
+      </c>
+      <c r="C29">
+        <v>1.1773625999999999</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>1.9317724999999999</v>
+      </c>
+      <c r="G29">
+        <v>0.93594940000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>4.25</v>
+      </c>
+      <c r="B30">
+        <v>1.9478873999999999</v>
+      </c>
+      <c r="C30">
+        <v>1.0909137</v>
+      </c>
+      <c r="E30">
+        <v>4.25</v>
+      </c>
+      <c r="F30">
+        <v>1.9255310999999999</v>
+      </c>
+      <c r="G30">
+        <v>0.58148040000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4.5</v>
+      </c>
+      <c r="B31">
+        <v>1.9799609</v>
+      </c>
+      <c r="C31">
+        <v>0.81111752999999998</v>
+      </c>
+      <c r="E31">
+        <v>4.5</v>
+      </c>
+      <c r="F31">
+        <v>1.9457603999999999</v>
+      </c>
+      <c r="G31">
+        <v>0.13812168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4.75</v>
+      </c>
+      <c r="B32">
+        <v>1.9317724999999999</v>
+      </c>
+      <c r="C32">
+        <v>1.0376289999999999</v>
+      </c>
+      <c r="E32">
+        <v>4.75</v>
+      </c>
+      <c r="F32">
+        <v>1.9568653</v>
+      </c>
+      <c r="G32">
+        <v>0.57747256999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>1.9255310999999999</v>
+      </c>
+      <c r="C33">
+        <v>0.72743164999999999</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>1.9604653000000001</v>
+      </c>
+      <c r="G33">
+        <v>0.91838359999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>5.25</v>
+      </c>
+      <c r="B34">
+        <v>1.9457603999999999</v>
+      </c>
+      <c r="C34">
+        <v>1.2585522</v>
+      </c>
+      <c r="E34">
+        <v>5.25</v>
+      </c>
+      <c r="F34">
+        <v>1.9552666000000001</v>
+      </c>
+      <c r="G34">
+        <v>1.3040259000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>5.5</v>
+      </c>
+      <c r="B35">
+        <v>1.9568653</v>
+      </c>
+      <c r="C35">
+        <v>1.6249425</v>
+      </c>
+      <c r="E35">
+        <v>5.5</v>
+      </c>
+      <c r="F35">
+        <v>1.8652314000000001</v>
+      </c>
+      <c r="G35">
+        <v>0.92739930000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>5.75</v>
+      </c>
+      <c r="B36">
+        <v>1.9604653000000001</v>
+      </c>
+      <c r="C36">
+        <v>1.910839</v>
+      </c>
+      <c r="E36">
+        <v>5.75</v>
+      </c>
+      <c r="F36">
+        <v>1.9321562000000001</v>
+      </c>
+      <c r="G36">
+        <v>7.5931299999999993E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>1.9552666000000001</v>
+      </c>
+      <c r="C37">
+        <v>1.9190174</v>
+      </c>
+      <c r="E37">
+        <v>6</v>
+      </c>
+      <c r="F37">
+        <v>1.9773959000000001</v>
+      </c>
+      <c r="G37">
+        <v>0.604688</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>6.25</v>
+      </c>
+      <c r="B38">
+        <v>1.8652314000000001</v>
+      </c>
+      <c r="C38">
+        <v>1.9524615999999999</v>
+      </c>
+      <c r="E38">
+        <v>6.25</v>
+      </c>
+      <c r="F38">
+        <v>1.9696094</v>
+      </c>
+      <c r="G38">
+        <v>0.96987840000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>6.5</v>
+      </c>
+      <c r="B39">
+        <v>1.9321562000000001</v>
+      </c>
+      <c r="C39">
+        <v>1.9450635000000001</v>
+      </c>
+      <c r="E39">
+        <v>6.5</v>
+      </c>
+      <c r="F39">
+        <v>1.7583034</v>
+      </c>
+      <c r="G39">
+        <v>1.4862272999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>6.75</v>
+      </c>
+      <c r="B40">
+        <v>1.9773959000000001</v>
+      </c>
+      <c r="C40">
+        <v>1.9665736</v>
+      </c>
+      <c r="E40">
+        <v>6.75</v>
+      </c>
+      <c r="F40">
+        <v>0.15583156000000001</v>
+      </c>
+      <c r="G40">
+        <v>0.62237699999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>1.9696094</v>
+      </c>
+      <c r="C41">
+        <v>1.9570471</v>
+      </c>
+      <c r="E41">
+        <v>7</v>
+      </c>
+      <c r="F41">
+        <v>0.21362929</v>
+      </c>
+      <c r="G41">
+        <v>0.21310903</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>7.25</v>
+      </c>
+      <c r="B42">
+        <v>1.7583034</v>
+      </c>
+      <c r="C42">
+        <v>1.6950942</v>
+      </c>
+      <c r="E42">
+        <v>7.25</v>
+      </c>
+      <c r="F42">
+        <v>0.73157704000000001</v>
+      </c>
+      <c r="G42">
+        <v>0.63940960000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>7.5</v>
+      </c>
+      <c r="B43">
+        <v>0.79624899999999998</v>
+      </c>
+      <c r="C43">
+        <v>0.68132037000000001</v>
+      </c>
+      <c r="E43">
+        <v>7.5</v>
+      </c>
+      <c r="F43">
+        <v>1.1253985</v>
+      </c>
+      <c r="G43">
+        <v>1.0829565999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>7.75</v>
+      </c>
+      <c r="B44">
+        <v>1.3584377000000001</v>
+      </c>
+      <c r="C44">
+        <v>0.75090559999999995</v>
+      </c>
+      <c r="E44">
+        <v>7.75</v>
+      </c>
+      <c r="F44">
+        <v>1.5985924</v>
+      </c>
+      <c r="G44">
+        <v>1.3043115999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <v>1.7966605</v>
+      </c>
+      <c r="C45">
+        <v>1.1274599000000001</v>
+      </c>
+      <c r="E45">
+        <v>8</v>
+      </c>
+      <c r="F45">
+        <v>1.9290111999999999</v>
+      </c>
+      <c r="G45">
+        <v>0.93027203999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>8.25</v>
+      </c>
+      <c r="B46">
+        <v>1.973624</v>
+      </c>
+      <c r="C46">
+        <v>1.4339782000000001</v>
+      </c>
+      <c r="E46">
+        <v>8.25</v>
+      </c>
+      <c r="F46">
+        <v>1.9670014</v>
+      </c>
+      <c r="G46">
+        <v>0.92098146999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>8.5</v>
+      </c>
+      <c r="B47">
+        <v>1.9196076</v>
+      </c>
+      <c r="C47">
+        <v>0.87702124999999997</v>
+      </c>
+      <c r="E47">
+        <v>8.5</v>
+      </c>
+      <c r="F47">
+        <v>1.8652599999999999</v>
+      </c>
+      <c r="G47">
+        <v>0.95180900000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>8.75</v>
+      </c>
+      <c r="B48">
+        <v>1.9437951</v>
+      </c>
+      <c r="C48">
+        <v>1.2623333999999999</v>
+      </c>
+      <c r="E48">
+        <v>8.75</v>
+      </c>
+      <c r="F48">
+        <v>1.8260812</v>
+      </c>
+      <c r="G48">
+        <v>0.9494937</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>9</v>
+      </c>
+      <c r="B49">
+        <v>1.9199132999999999</v>
+      </c>
+      <c r="C49">
+        <v>0.83831670000000003</v>
+      </c>
+      <c r="E49">
+        <v>9</v>
+      </c>
+      <c r="F49">
+        <v>1.9433838000000001</v>
+      </c>
+      <c r="G49">
+        <v>0.97163193999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>9.25</v>
+      </c>
+      <c r="B50">
+        <v>1.8697569999999999</v>
+      </c>
+      <c r="C50">
+        <v>1.2153125</v>
+      </c>
+      <c r="E50">
+        <v>9.25</v>
+      </c>
+      <c r="F50">
+        <v>0.86561924000000001</v>
+      </c>
+      <c r="G50">
+        <v>0.80045825000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>9.5</v>
+      </c>
+      <c r="B51">
+        <v>1.393645</v>
+      </c>
+      <c r="C51">
+        <v>1.0550021000000001</v>
+      </c>
+      <c r="E51">
+        <v>9.5</v>
+      </c>
+      <c r="F51">
+        <v>1.3593689</v>
+      </c>
+      <c r="G51">
+        <v>0.66504399999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>9.75</v>
+      </c>
+      <c r="B52">
+        <v>1.0465989</v>
+      </c>
+      <c r="C52">
+        <v>1.069291</v>
+      </c>
+      <c r="E52">
+        <v>9.75</v>
+      </c>
+      <c r="F52">
+        <v>1.7986660999999999</v>
+      </c>
+      <c r="G52">
+        <v>0.74505560000000004</v>
       </c>
     </row>
   </sheetData>

--- a/Project_3/data.xlsx
+++ b/Project_3/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="25">
   <si>
     <t>Tahoe</t>
   </si>
@@ -234,7 +234,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -251,6 +251,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -27707,8 +27711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="N73" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:AJ78"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31553,16 +31557,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="S66" sqref="S66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="11" max="12" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -31969,7 +31974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>1</v>
       </c>
@@ -31995,7 +32000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1.25</v>
       </c>
@@ -32033,7 +32038,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1.5</v>
       </c>
@@ -32071,7 +32076,7 @@
         <v>1.8419999999999999E-11</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1.75</v>
       </c>
@@ -32109,7 +32114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -32129,7 +32134,7 @@
         <v>0.64572143999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2.25</v>
       </c>
@@ -32149,7 +32154,7 @@
         <v>0.19783816000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2.5</v>
       </c>
@@ -32168,8 +32173,35 @@
       <c r="G23">
         <v>0.68800455000000005</v>
       </c>
+      <c r="I23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" t="s">
+        <v>9</v>
+      </c>
+      <c r="O23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>24</v>
+      </c>
+      <c r="R23" t="s">
+        <v>9</v>
+      </c>
+      <c r="S23" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2.75</v>
       </c>
@@ -32188,8 +32220,35 @@
       <c r="G24">
         <v>1.0750082999999999</v>
       </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>2.5532883846338899</v>
+      </c>
+      <c r="K24">
+        <v>2.5529877249322501</v>
+      </c>
+      <c r="M24" t="s">
+        <v>9</v>
+      </c>
+      <c r="N24" s="10">
+        <v>0</v>
+      </c>
+      <c r="O24" s="10">
+        <v>34.344999999999999</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>9</v>
+      </c>
+      <c r="R24" s="12">
+        <v>1</v>
+      </c>
+      <c r="S24" s="11">
+        <v>2.2E-16</v>
+      </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -32208,8 +32267,36 @@
       <c r="G25">
         <v>1.6360496</v>
       </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>2.5505554074535102</v>
+      </c>
+      <c r="K25">
+        <v>2.5477398997380298</v>
+      </c>
+      <c r="M25" t="s">
+        <v>10</v>
+      </c>
+      <c r="N25" s="10">
+        <v>34.344999999999999</v>
+      </c>
+      <c r="O25" s="10">
+        <v>0</v>
+      </c>
+      <c r="P25" s="10"/>
+      <c r="Q25" t="s">
+        <v>10</v>
+      </c>
+      <c r="R25" s="4">
+        <v>2.2E-16</v>
+      </c>
+      <c r="S25" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3.25</v>
       </c>
@@ -32228,8 +32315,17 @@
       <c r="G26">
         <v>1.2315502</v>
       </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>2.54535181894718</v>
+      </c>
+      <c r="K26">
+        <v>2.5435855958671199</v>
+      </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3.5</v>
       </c>
@@ -32248,8 +32344,18 @@
       <c r="G27">
         <v>7.6028250000000006E-2</v>
       </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27">
+        <v>2.53772691465291</v>
+      </c>
+      <c r="K27">
+        <v>2.5365997228625901</v>
+      </c>
+      <c r="S27" s="11"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3.75</v>
       </c>
@@ -32268,8 +32374,17 @@
       <c r="G28">
         <v>0.58766320000000005</v>
       </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <v>2.4147228736378299</v>
+      </c>
+      <c r="K28">
+        <v>2.41243006221181</v>
+      </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -32288,8 +32403,17 @@
       <c r="G29">
         <v>0.93594940000000004</v>
       </c>
+      <c r="I29">
+        <v>6</v>
+      </c>
+      <c r="J29">
+        <v>1.96151016800439</v>
+      </c>
+      <c r="K29">
+        <v>1.95793523173706</v>
+      </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4.25</v>
       </c>
@@ -32308,8 +32432,17 @@
       <c r="G30">
         <v>0.58148040000000001</v>
       </c>
+      <c r="I30">
+        <v>7</v>
+      </c>
+      <c r="J30">
+        <v>1.7732462906823001</v>
+      </c>
+      <c r="K30">
+        <v>1.29528035083191</v>
+      </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4.5</v>
       </c>
@@ -32328,8 +32461,17 @@
       <c r="G31">
         <v>0.13812168</v>
       </c>
+      <c r="I31">
+        <v>8</v>
+      </c>
+      <c r="J31">
+        <v>0.79472344642503601</v>
+      </c>
+      <c r="K31">
+        <v>1.0433824938435201</v>
+      </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4.75</v>
       </c>
@@ -32348,8 +32490,17 @@
       <c r="G32">
         <v>0.57747256999999996</v>
       </c>
+      <c r="I32">
+        <v>9</v>
+      </c>
+      <c r="J32">
+        <v>0.58968796710425198</v>
+      </c>
+      <c r="K32">
+        <v>0.47560677346927099</v>
+      </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5</v>
       </c>
@@ -32368,8 +32519,17 @@
       <c r="G33">
         <v>0.91838359999999997</v>
       </c>
+      <c r="I33">
+        <v>10</v>
+      </c>
+      <c r="J33">
+        <v>0.28199545057006897</v>
+      </c>
+      <c r="K33">
+        <v>0.18171930852090701</v>
+      </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5.25</v>
       </c>
@@ -32389,7 +32549,7 @@
         <v>1.3040259000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5.5</v>
       </c>
@@ -32408,8 +32568,35 @@
       <c r="G35">
         <v>0.92739930000000004</v>
       </c>
+      <c r="I35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M35" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>24</v>
+      </c>
+      <c r="R35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="S35" s="6" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5.75</v>
       </c>
@@ -32428,8 +32615,35 @@
       <c r="G36">
         <v>7.5931299999999993E-2</v>
       </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>2.5532883846338899</v>
+      </c>
+      <c r="K36">
+        <v>2.5529877249322501</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N36" s="10">
+        <v>0</v>
+      </c>
+      <c r="O36" s="10">
+        <v>16.747</v>
+      </c>
+      <c r="Q36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R36" s="12">
+        <v>1</v>
+      </c>
+      <c r="S36" s="11">
+        <v>3.629E-5</v>
+      </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>6</v>
       </c>
@@ -32448,8 +32662,36 @@
       <c r="G37">
         <v>0.604688</v>
       </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>2.5505554074535102</v>
+      </c>
+      <c r="K37">
+        <v>2.5477398997380298</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N37" s="10">
+        <v>16.747</v>
+      </c>
+      <c r="O37" s="10">
+        <v>0</v>
+      </c>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R37" s="11">
+        <v>3.629E-5</v>
+      </c>
+      <c r="S37" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>6.25</v>
       </c>
@@ -32468,8 +32710,17 @@
       <c r="G38">
         <v>0.96987840000000003</v>
       </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>2.54535181894718</v>
+      </c>
+      <c r="K38">
+        <v>2.5435855958671199</v>
+      </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>6.5</v>
       </c>
@@ -32488,8 +32739,17 @@
       <c r="G39">
         <v>1.4862272999999999</v>
       </c>
+      <c r="I39">
+        <v>4</v>
+      </c>
+      <c r="J39">
+        <v>2.53772691465291</v>
+      </c>
+      <c r="K39">
+        <v>2.5365997228625901</v>
+      </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>6.75</v>
       </c>
@@ -32508,8 +32768,17 @@
       <c r="G40">
         <v>0.62237699999999996</v>
       </c>
+      <c r="I40">
+        <v>5</v>
+      </c>
+      <c r="J40">
+        <v>2.4147228736378299</v>
+      </c>
+      <c r="K40">
+        <v>2.41243006221181</v>
+      </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>7</v>
       </c>
@@ -32528,8 +32797,17 @@
       <c r="G41">
         <v>0.21310903</v>
       </c>
+      <c r="I41">
+        <v>6</v>
+      </c>
+      <c r="J41">
+        <v>1.96151016800439</v>
+      </c>
+      <c r="K41">
+        <v>1.95793523173706</v>
+      </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>7.25</v>
       </c>
@@ -32548,8 +32826,17 @@
       <c r="G42">
         <v>0.63940960000000002</v>
       </c>
+      <c r="I42">
+        <v>7</v>
+      </c>
+      <c r="J42">
+        <v>1.7291236438909099</v>
+      </c>
+      <c r="K42">
+        <v>1.3386346607770601</v>
+      </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>7.5</v>
       </c>
@@ -32568,8 +32855,17 @@
       <c r="G43">
         <v>1.0829565999999999</v>
       </c>
+      <c r="I43">
+        <v>8</v>
+      </c>
+      <c r="J43">
+        <v>1.0736310372529201</v>
+      </c>
+      <c r="K43">
+        <v>1.0414586716202101</v>
+      </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>7.75</v>
       </c>
@@ -32588,8 +32884,17 @@
       <c r="G44">
         <v>1.3043115999999999</v>
       </c>
+      <c r="I44">
+        <v>9</v>
+      </c>
+      <c r="J44">
+        <v>0.59936217387988899</v>
+      </c>
+      <c r="K44">
+        <v>0.51741004930856604</v>
+      </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>8</v>
       </c>
@@ -32608,8 +32913,17 @@
       <c r="G45">
         <v>0.93027203999999997</v>
       </c>
+      <c r="I45">
+        <v>10</v>
+      </c>
+      <c r="J45">
+        <v>0.29911634894509698</v>
+      </c>
+      <c r="K45">
+        <v>0.233693339719897</v>
+      </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>8.25</v>
       </c>
@@ -32629,7 +32943,7 @@
         <v>0.92098146999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>8.5</v>
       </c>
@@ -32648,8 +32962,35 @@
       <c r="G47">
         <v>0.95180900000000002</v>
       </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M47" t="s">
+        <v>23</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O47" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>24</v>
+      </c>
+      <c r="R47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S47" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>8.75</v>
       </c>
@@ -32668,8 +33009,35 @@
       <c r="G48">
         <v>0.9494937</v>
       </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>2.40772858268712</v>
+      </c>
+      <c r="K48">
+        <v>2.4074556325173799</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N48" s="10">
+        <v>0</v>
+      </c>
+      <c r="O48" s="10">
+        <v>16.149999999999999</v>
+      </c>
+      <c r="Q48" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R48" s="12">
+        <v>1</v>
+      </c>
+      <c r="S48" s="10">
+        <v>8.7319999999999997E-5</v>
+      </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>9</v>
       </c>
@@ -32688,8 +33056,36 @@
       <c r="G49">
         <v>0.97163193999999997</v>
       </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <v>2.40382888512034</v>
+      </c>
+      <c r="K49">
+        <v>2.4014276030405299</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N49" s="10">
+        <v>16.149999999999999</v>
+      </c>
+      <c r="O49" s="10">
+        <v>0</v>
+      </c>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R49" s="10">
+        <v>8.7319999999999997E-5</v>
+      </c>
+      <c r="S49" s="13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>9.25</v>
       </c>
@@ -32708,8 +33104,17 @@
       <c r="G50">
         <v>0.80045825000000004</v>
       </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+      <c r="J50" s="4">
+        <v>2.4010104043791101</v>
+      </c>
+      <c r="K50">
+        <v>2.3948106423125899</v>
+      </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>9.5</v>
       </c>
@@ -32728,8 +33133,17 @@
       <c r="G51">
         <v>0.66504399999999997</v>
       </c>
+      <c r="I51">
+        <v>4</v>
+      </c>
+      <c r="J51">
+        <v>2.3961440432977499</v>
+      </c>
+      <c r="K51">
+        <v>2.3876217050610999</v>
+      </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>9.75</v>
       </c>
@@ -32747,6 +33161,246 @@
       </c>
       <c r="G52">
         <v>0.74505560000000004</v>
+      </c>
+      <c r="I52">
+        <v>5</v>
+      </c>
+      <c r="J52">
+        <v>2.3386448247934299</v>
+      </c>
+      <c r="K52">
+        <v>2.3380419708430802</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <v>6</v>
+      </c>
+      <c r="J53">
+        <v>1.9716103621054999</v>
+      </c>
+      <c r="K53">
+        <v>1.8617380009025699</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <v>7</v>
+      </c>
+      <c r="J54">
+        <v>1.5097331919243699</v>
+      </c>
+      <c r="K54">
+        <v>1.4040843303577799</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I55">
+        <v>8</v>
+      </c>
+      <c r="J55">
+        <v>1.0685105775080499</v>
+      </c>
+      <c r="K55">
+        <v>0.90412141379983901</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I56">
+        <v>9</v>
+      </c>
+      <c r="J56">
+        <v>0.625007323845163</v>
+      </c>
+      <c r="K56">
+        <v>0.55883012125238096</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I57">
+        <v>10</v>
+      </c>
+      <c r="J57">
+        <v>0.415025755405944</v>
+      </c>
+      <c r="K57">
+        <v>0.28542641071339803</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" t="s">
+        <v>23</v>
+      </c>
+      <c r="N59" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O59" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>24</v>
+      </c>
+      <c r="R59" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S59" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>2.5532883846338899</v>
+      </c>
+      <c r="K60">
+        <v>2.5529877249322501</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N60" s="10">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10">
+        <v>17.963999999999999</v>
+      </c>
+      <c r="Q60" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R60" s="12">
+        <v>1</v>
+      </c>
+      <c r="S60" s="10">
+        <v>1.48858E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I61">
+        <v>2</v>
+      </c>
+      <c r="J61">
+        <v>2.5505554074535102</v>
+      </c>
+      <c r="K61">
+        <v>2.5477398997380298</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N61" s="10">
+        <v>17.963999999999999</v>
+      </c>
+      <c r="O61" s="10">
+        <v>0</v>
+      </c>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R61" s="10">
+        <v>1.48858E-4</v>
+      </c>
+      <c r="S61" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I62">
+        <v>3</v>
+      </c>
+      <c r="J62">
+        <v>2.54535181894718</v>
+      </c>
+      <c r="K62">
+        <v>2.5435855958671199</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I63">
+        <v>4</v>
+      </c>
+      <c r="J63">
+        <v>2.53772691465291</v>
+      </c>
+      <c r="K63">
+        <v>2.5365997228625901</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I64">
+        <v>5</v>
+      </c>
+      <c r="J64">
+        <v>2.4147228736378299</v>
+      </c>
+      <c r="K64">
+        <v>2.41243006221181</v>
+      </c>
+    </row>
+    <row r="65" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <v>6</v>
+      </c>
+      <c r="J65">
+        <v>1.96151016800439</v>
+      </c>
+      <c r="K65">
+        <v>1.95793523173706</v>
+      </c>
+    </row>
+    <row r="66" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I66">
+        <v>7</v>
+      </c>
+      <c r="J66">
+        <v>1.7291236438909099</v>
+      </c>
+      <c r="K66">
+        <v>1.3386346607770601</v>
+      </c>
+    </row>
+    <row r="67" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I67">
+        <v>8</v>
+      </c>
+      <c r="J67">
+        <v>1.0736310372529201</v>
+      </c>
+      <c r="K67">
+        <v>1.0414586716202101</v>
+      </c>
+    </row>
+    <row r="68" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I68">
+        <v>9</v>
+      </c>
+      <c r="J68">
+        <v>0.59936217387988899</v>
+      </c>
+      <c r="K68">
+        <v>0.51741004930856604</v>
+      </c>
+    </row>
+    <row r="69" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I69">
+        <v>10</v>
+      </c>
+      <c r="J69">
+        <v>0.29911634894509698</v>
+      </c>
+      <c r="K69">
+        <v>0.233693339719897</v>
       </c>
     </row>
   </sheetData>

--- a/Project_3/data.xlsx
+++ b/Project_3/data.xlsx
@@ -96,7 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,12 +147,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -187,7 +181,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -225,6 +219,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -234,7 +243,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -247,16 +256,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -27711,8 +27711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:K64"/>
+    <sheetView topLeftCell="B56" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73:K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31559,99 +31559,101 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="S66" sqref="S66"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="Q59" sqref="Q59:S61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="10" width="9.140625" style="10"/>
+    <col min="11" max="12" width="10.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="10"/>
+    <col min="14" max="17" width="10.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="10">
         <v>2.5365204029999999</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="10">
         <v>2.205841924</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="10">
         <v>2.7523920070000001</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="10">
         <v>2.4167213649999999</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="10">
         <v>2.622415937</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="10">
         <v>2.406436121</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="10">
         <v>2.6584313900000001</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="10">
         <v>2.4122123329999998</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="10">
         <v>0</v>
       </c>
       <c r="I3" s="10">
@@ -31663,17 +31665,16 @@
       <c r="K3" s="10">
         <v>5.9733999999999998</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="10">
         <v>1</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="10">
         <v>1.265E-7</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="10">
         <v>3.629E-5</v>
       </c>
       <c r="Q3" s="10">
@@ -31681,28 +31682,28 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="10">
         <v>2.4586656069999999</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="10">
         <v>2.3019097660000001</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="10">
         <v>2.6924265169999999</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="10">
         <v>2.4168705209999999</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="10" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="10">
         <v>8.4078999999999997</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="10">
         <v>0</v>
       </c>
       <c r="J4" s="10">
@@ -31711,16 +31712,16 @@
       <c r="K4" s="10">
         <v>5.9188000000000001</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="10">
         <v>1.265E-7</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="10">
         <v>1</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="10">
         <v>3.328E-11</v>
       </c>
       <c r="Q4" s="10">
@@ -31728,22 +31729,22 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="10">
         <v>2.6340233400000002</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="10">
         <v>2.2289593829999998</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="10">
         <v>2.7489202079999999</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="10">
         <v>2.4166907119999999</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="10" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="10">
@@ -31752,45 +31753,45 @@
       <c r="I5" s="10">
         <v>16.747</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="10">
         <v>0</v>
       </c>
       <c r="K5" s="10">
         <v>21.954999999999998</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="10">
         <v>3.629E-5</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="10">
         <v>3.328E-11</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="10">
         <v>1</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="10">
         <v>3.6560000000000002E-9</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="10">
         <v>2.4361303539999999</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="10">
         <v>2.2498002559999999</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="10">
         <v>2.6839354879999999</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="10">
         <v>2.4183203199999999</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="H6" s="10">
@@ -31802,140 +31803,140 @@
       <c r="J6" s="10">
         <v>21.954999999999998</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="10">
         <v>0</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="10">
         <v>9.2879999999999995E-8</v>
       </c>
       <c r="O6" s="10">
         <v>2.2169999999999999E-4</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="10">
         <v>3.6560000000000002E-9</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="10">
         <v>2.5916865260000002</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="10">
         <v>2.2961825820000001</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="10">
         <v>2.640776206</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="10">
         <v>2.4119548040000001</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="10">
         <v>2.6327983850000001</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="10">
         <v>2.3345638379999998</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="10">
         <v>2.7440153139999999</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="10">
         <v>2.413074881</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="10">
         <v>2.6173958050000001</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="10">
         <v>2.2424187369999999</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="10">
         <v>2.7300926689999998</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="10">
         <v>2.4137620279999998</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="10">
         <v>2.5055857700000002</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="10">
         <v>2.3774054069999999</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="10">
         <v>2.767659664</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="10">
         <v>2.4166710899999999</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="10">
         <v>2.5176663079999999</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="10">
         <v>2.2269797470000001</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="10">
         <v>2.7269301279999998</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="10">
         <v>2.4126289010000002</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I12" t="s">
+      <c r="I12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I13" t="s">
+      <c r="I13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I14" t="s">
+      <c r="I14" s="10" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="10">
@@ -31944,18 +31945,18 @@
       <c r="K14" s="10">
         <v>7.1547000000000001</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="10" t="s">
         <v>18</v>
       </c>
       <c r="N14" s="10">
         <v>1</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="10">
         <v>1.564E-9</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I15" t="s">
+      <c r="I15" s="10" t="s">
         <v>19</v>
       </c>
       <c r="J15" s="10">
@@ -31964,10 +31965,10 @@
       <c r="K15" s="10">
         <v>0</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="10">
         <v>1.564E-9</v>
       </c>
       <c r="O15" s="10">
@@ -31975,89 +31976,89 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="10">
         <v>1.25</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="10">
         <v>1.7990558999999999</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="10">
         <v>0.88161235999999998</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="10">
         <v>1.25</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="10">
         <v>1.9642427</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="10">
         <v>0.86211055999999997</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="10">
         <v>1.5</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="10">
         <v>1.9661234999999999</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="10">
         <v>0.91965350000000001</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="10">
         <v>1.5</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="10">
         <v>1.8559382</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="10">
         <v>1.2555703</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="J19" s="10">
@@ -32066,36 +32067,36 @@
       <c r="K19" s="10">
         <v>8.0890000000000004</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="N19" s="10">
         <v>1</v>
       </c>
-      <c r="O19" s="11">
+      <c r="O19" s="10">
         <v>1.8419999999999999E-11</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="10">
         <v>1.75</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="10">
         <v>1.9286816</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="10">
         <v>0.92048054999999995</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="10">
         <v>1.75</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="10">
         <v>1.8436201000000001</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="10">
         <v>1.7207104</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="10" t="s">
         <v>19</v>
       </c>
       <c r="J20" s="10">
@@ -32104,10 +32105,10 @@
       <c r="K20" s="10">
         <v>0</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N20" s="11">
+      <c r="N20" s="10">
         <v>1.8419999999999999E-11</v>
       </c>
       <c r="O20" s="10">
@@ -32115,121 +32116,121 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="10">
         <v>2</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="10">
         <v>1.9129444</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="10">
         <v>0.75735724000000004</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="10">
         <v>2</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="10">
         <v>1.8959904999999999</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="10">
         <v>0.64572143999999998</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="10">
         <v>2.25</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="10">
         <v>1.8592785999999999</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="10">
         <v>1.0361407</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="10">
         <v>2.25</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="10">
         <v>1.9610088999999999</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="10">
         <v>0.19783816000000001</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="10">
         <v>2.5</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="10">
         <v>1.8494748000000001</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="10">
         <v>1.4915395</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="10">
         <v>2.5</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="10">
         <v>1.963544</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="10">
         <v>0.68800455000000005</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O23" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="Q23" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="R23" t="s">
+      <c r="R23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="S23" t="s">
+      <c r="S23" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="10">
         <v>2.75</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="10">
         <v>1.8959904999999999</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="10">
         <v>1.1375299000000001</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="10">
         <v>2.75</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="10">
         <v>1.9626402999999999</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="10">
         <v>1.0750082999999999</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="10">
         <v>1</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="10">
         <v>2.5532883846338899</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="10">
         <v>2.5529877249322501</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="10" t="s">
         <v>9</v>
       </c>
       <c r="N24" s="10">
@@ -32238,45 +32239,45 @@
       <c r="O24" s="10">
         <v>34.344999999999999</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="Q24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="R24" s="12">
+      <c r="R24" s="10">
         <v>1</v>
       </c>
-      <c r="S24" s="11">
+      <c r="S24" s="10">
         <v>2.2E-16</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="10">
         <v>3</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="10">
         <v>1.9597555</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="10">
         <v>1.1646798</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="10">
         <v>3</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="10">
         <v>1.9560598</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="10">
         <v>1.6360496</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="10">
         <v>2</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="10">
         <v>2.5505554074535102</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="10">
         <v>2.5477398997380298</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="10" t="s">
         <v>10</v>
       </c>
       <c r="N25" s="10">
@@ -32285,346 +32286,344 @@
       <c r="O25" s="10">
         <v>0</v>
       </c>
-      <c r="P25" s="10"/>
-      <c r="Q25" t="s">
+      <c r="Q25" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="R25" s="4">
+      <c r="R25" s="10">
         <v>2.2E-16</v>
       </c>
-      <c r="S25" s="13">
+      <c r="S25" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="10">
         <v>3.25</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="10">
         <v>1.9648021</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="10">
         <v>0.85121422999999996</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="10">
         <v>3.25</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="10">
         <v>1.9380782999999999</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="10">
         <v>1.2315502</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="10">
         <v>3</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="10">
         <v>2.54535181894718</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="10">
         <v>2.5435855958671199</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="10">
         <v>3.5</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="10">
         <v>1.9626402999999999</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="10">
         <v>1.0996870000000001</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="10">
         <v>3.5</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="10">
         <v>1.9478873999999999</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="10">
         <v>7.6028250000000006E-2</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="10">
         <v>4</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="10">
         <v>2.53772691465291</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="10">
         <v>2.5365997228625901</v>
       </c>
-      <c r="S27" s="11"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="10">
         <v>3.75</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="10">
         <v>1.9560598</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="10">
         <v>1.6315086000000001</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="10">
         <v>3.75</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="10">
         <v>1.9799609</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="10">
         <v>0.58766320000000005</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="10">
         <v>5</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="10">
         <v>2.4147228736378299</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="10">
         <v>2.41243006221181</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="10">
         <v>4</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="10">
         <v>1.9380782999999999</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="10">
         <v>1.1773625999999999</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="10">
         <v>4</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="10">
         <v>1.9317724999999999</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="10">
         <v>0.93594940000000004</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="10">
         <v>6</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="10">
         <v>1.96151016800439</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="10">
         <v>1.95793523173706</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="10">
         <v>4.25</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="10">
         <v>1.9478873999999999</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="10">
         <v>1.0909137</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="10">
         <v>4.25</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="10">
         <v>1.9255310999999999</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="10">
         <v>0.58148040000000001</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="10">
         <v>7</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="10">
         <v>1.7732462906823001</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="10">
         <v>1.29528035083191</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="10">
         <v>4.5</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="10">
         <v>1.9799609</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="10">
         <v>0.81111752999999998</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="10">
         <v>4.5</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="10">
         <v>1.9457603999999999</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="10">
         <v>0.13812168</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="10">
         <v>8</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="10">
         <v>0.79472344642503601</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="10">
         <v>1.0433824938435201</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="10">
         <v>4.75</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="10">
         <v>1.9317724999999999</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="10">
         <v>1.0376289999999999</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="10">
         <v>4.75</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="10">
         <v>1.9568653</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="10">
         <v>0.57747256999999996</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="10">
         <v>9</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="10">
         <v>0.58968796710425198</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="10">
         <v>0.47560677346927099</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="10">
         <v>5</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="10">
         <v>1.9255310999999999</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="10">
         <v>0.72743164999999999</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="10">
         <v>5</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="10">
         <v>1.9604653000000001</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="10">
         <v>0.91838359999999997</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="10">
         <v>10</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="10">
         <v>0.28199545057006897</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="10">
         <v>0.18171930852090701</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="10">
         <v>5.25</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="10">
         <v>1.9457603999999999</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="10">
         <v>1.2585522</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="10">
         <v>5.25</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="10">
         <v>1.9552666000000001</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="10">
         <v>1.3040259000000001</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="10">
         <v>5.5</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="10">
         <v>1.9568653</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="10">
         <v>1.6249425</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="10">
         <v>5.5</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="10">
         <v>1.8652314000000001</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="10">
         <v>0.92739930000000004</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I35" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="6" t="s">
+      <c r="J35" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K35" s="6" t="s">
+      <c r="K35" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N35" s="6" t="s">
+      <c r="N35" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="O35" s="6" t="s">
+      <c r="O35" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="Q35" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="R35" s="6" t="s">
+      <c r="R35" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="S35" s="6" t="s">
+      <c r="S35" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="10">
         <v>5.75</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="10">
         <v>1.9604653000000001</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="10">
         <v>1.910839</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="10">
         <v>5.75</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="10">
         <v>1.9321562000000001</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="10">
         <v>7.5931299999999993E-2</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="10">
         <v>1</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="10">
         <v>2.5532883846338899</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="10">
         <v>2.5529877249322501</v>
       </c>
-      <c r="M36" s="6" t="s">
+      <c r="M36" s="10" t="s">
         <v>11</v>
       </c>
       <c r="N36" s="10">
@@ -32633,45 +32632,45 @@
       <c r="O36" s="10">
         <v>16.747</v>
       </c>
-      <c r="Q36" s="6" t="s">
+      <c r="Q36" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="R36" s="12">
+      <c r="R36" s="10">
         <v>1</v>
       </c>
-      <c r="S36" s="11">
+      <c r="S36" s="10">
         <v>3.629E-5</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="10">
         <v>6</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="10">
         <v>1.9552666000000001</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="10">
         <v>1.9190174</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="10">
         <v>6</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="10">
         <v>1.9773959000000001</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="10">
         <v>0.604688</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="10">
         <v>2</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="10">
         <v>2.5505554074535102</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="10">
         <v>2.5477398997380298</v>
       </c>
-      <c r="M37" s="6" t="s">
+      <c r="M37" s="10" t="s">
         <v>1</v>
       </c>
       <c r="N37" s="10">
@@ -32680,345 +32679,344 @@
       <c r="O37" s="10">
         <v>0</v>
       </c>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="6" t="s">
+      <c r="Q37" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="R37" s="11">
+      <c r="R37" s="10">
         <v>3.629E-5</v>
       </c>
-      <c r="S37" s="13">
+      <c r="S37" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="10">
         <v>6.25</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="10">
         <v>1.8652314000000001</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="10">
         <v>1.9524615999999999</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="10">
         <v>6.25</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="10">
         <v>1.9696094</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="10">
         <v>0.96987840000000003</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="10">
         <v>3</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="10">
         <v>2.54535181894718</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="10">
         <v>2.5435855958671199</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="10">
         <v>6.5</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="10">
         <v>1.9321562000000001</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="10">
         <v>1.9450635000000001</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="10">
         <v>6.5</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="10">
         <v>1.7583034</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="10">
         <v>1.4862272999999999</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="10">
         <v>4</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="10">
         <v>2.53772691465291</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="10">
         <v>2.5365997228625901</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="10">
         <v>6.75</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="10">
         <v>1.9773959000000001</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="10">
         <v>1.9665736</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="10">
         <v>6.75</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="10">
         <v>0.15583156000000001</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="10">
         <v>0.62237699999999996</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="10">
         <v>5</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="10">
         <v>2.4147228736378299</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="10">
         <v>2.41243006221181</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="10">
         <v>7</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="10">
         <v>1.9696094</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="10">
         <v>1.9570471</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="10">
         <v>7</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="10">
         <v>0.21362929</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="10">
         <v>0.21310903</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="10">
         <v>6</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="10">
         <v>1.96151016800439</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="10">
         <v>1.95793523173706</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="10">
         <v>7.25</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="10">
         <v>1.7583034</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="10">
         <v>1.6950942</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="10">
         <v>7.25</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="10">
         <v>0.73157704000000001</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="10">
         <v>0.63940960000000002</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="10">
         <v>7</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="10">
         <v>1.7291236438909099</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="10">
         <v>1.3386346607770601</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="10">
         <v>7.5</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="10">
         <v>0.79624899999999998</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="10">
         <v>0.68132037000000001</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="10">
         <v>7.5</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="10">
         <v>1.1253985</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="10">
         <v>1.0829565999999999</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="10">
         <v>8</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="10">
         <v>1.0736310372529201</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="10">
         <v>1.0414586716202101</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="10">
         <v>7.75</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="10">
         <v>1.3584377000000001</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="10">
         <v>0.75090559999999995</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="10">
         <v>7.75</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="10">
         <v>1.5985924</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="10">
         <v>1.3043115999999999</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="10">
         <v>9</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="10">
         <v>0.59936217387988899</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="10">
         <v>0.51741004930856604</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="10">
         <v>8</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="10">
         <v>1.7966605</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="10">
         <v>1.1274599000000001</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="10">
         <v>8</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="10">
         <v>1.9290111999999999</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="10">
         <v>0.93027203999999997</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="10">
         <v>10</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="10">
         <v>0.29911634894509698</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="10">
         <v>0.233693339719897</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="10">
         <v>8.25</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="10">
         <v>1.973624</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="10">
         <v>1.4339782000000001</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="10">
         <v>8.25</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="10">
         <v>1.9670014</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="10">
         <v>0.92098146999999997</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="10">
         <v>8.5</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="10">
         <v>1.9196076</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="10">
         <v>0.87702124999999997</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="10">
         <v>8.5</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="10">
         <v>1.8652599999999999</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="10">
         <v>0.95180900000000002</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="I47" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J47" s="6" t="s">
+      <c r="J47" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K47" s="6" t="s">
+      <c r="K47" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M47" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N47" s="6" t="s">
+      <c r="N47" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O47" s="6" t="s">
+      <c r="O47" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="Q47" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="R47" s="6" t="s">
+      <c r="R47" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S47" s="6" t="s">
+      <c r="S47" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="10">
         <v>8.75</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="10">
         <v>1.9437951</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="10">
         <v>1.2623333999999999</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="10">
         <v>8.75</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="10">
         <v>1.8260812</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="10">
         <v>0.9494937</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="10">
         <v>1</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="10">
         <v>2.40772858268712</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="10">
         <v>2.4074556325173799</v>
       </c>
-      <c r="M48" s="6" t="s">
+      <c r="M48" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N48" s="10">
@@ -33027,10 +33025,10 @@
       <c r="O48" s="10">
         <v>16.149999999999999</v>
       </c>
-      <c r="Q48" s="6" t="s">
+      <c r="Q48" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R48" s="12">
+      <c r="R48" s="10">
         <v>1</v>
       </c>
       <c r="S48" s="10">
@@ -33038,34 +33036,34 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="10">
         <v>9</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="10">
         <v>1.9199132999999999</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="10">
         <v>0.83831670000000003</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="10">
         <v>9</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="10">
         <v>1.9433838000000001</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="10">
         <v>0.97163193999999997</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="10">
         <v>2</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="10">
         <v>2.40382888512034</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="10">
         <v>2.4014276030405299</v>
       </c>
-      <c r="M49" s="6" t="s">
+      <c r="M49" s="10" t="s">
         <v>17</v>
       </c>
       <c r="N49" s="10">
@@ -33074,200 +33072,199 @@
       <c r="O49" s="10">
         <v>0</v>
       </c>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="6" t="s">
+      <c r="Q49" s="10" t="s">
         <v>17</v>
       </c>
       <c r="R49" s="10">
         <v>8.7319999999999997E-5</v>
       </c>
-      <c r="S49" s="13">
+      <c r="S49" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="10">
         <v>9.25</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="10">
         <v>1.8697569999999999</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="10">
         <v>1.2153125</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="10">
         <v>9.25</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="10">
         <v>0.86561924000000001</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="10">
         <v>0.80045825000000004</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="10">
         <v>3</v>
       </c>
-      <c r="J50" s="4">
+      <c r="J50" s="10">
         <v>2.4010104043791101</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="10">
         <v>2.3948106423125899</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="10">
         <v>9.5</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="10">
         <v>1.393645</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="10">
         <v>1.0550021000000001</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="10">
         <v>9.5</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="10">
         <v>1.3593689</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="10">
         <v>0.66504399999999997</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="10">
         <v>4</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="10">
         <v>2.3961440432977499</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="10">
         <v>2.3876217050610999</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="10">
         <v>9.75</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="10">
         <v>1.0465989</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="10">
         <v>1.069291</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="10">
         <v>9.75</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="10">
         <v>1.7986660999999999</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="10">
         <v>0.74505560000000004</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="10">
         <v>5</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="10">
         <v>2.3386448247934299</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="10">
         <v>2.3380419708430802</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I53">
+      <c r="I53" s="10">
         <v>6</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="10">
         <v>1.9716103621054999</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="10">
         <v>1.8617380009025699</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I54">
+      <c r="I54" s="10">
         <v>7</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="10">
         <v>1.5097331919243699</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="10">
         <v>1.4040843303577799</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I55">
+      <c r="I55" s="10">
         <v>8</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="10">
         <v>1.0685105775080499</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="10">
         <v>0.90412141379983901</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I56">
+      <c r="I56" s="10">
         <v>9</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="10">
         <v>0.625007323845163</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="10">
         <v>0.55883012125238096</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I57">
+      <c r="I57" s="10">
         <v>10</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="10">
         <v>0.415025755405944</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="10">
         <v>0.28542641071339803</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I59" s="3" t="s">
+      <c r="I59" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J59" s="6" t="s">
+      <c r="J59" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K59" s="6" t="s">
+      <c r="K59" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="M59" t="s">
+      <c r="M59" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N59" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O59" s="6" t="s">
+      <c r="N59" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O59" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="Q59" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="R59" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S59" s="6" t="s">
-        <v>17</v>
+      <c r="R59" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="S59" s="10" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I60">
+      <c r="I60" s="10">
         <v>1</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="10">
         <v>2.5532883846338899</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="10">
         <v>2.5529877249322501</v>
       </c>
-      <c r="M60" s="6" t="s">
-        <v>16</v>
+      <c r="M60" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="N60" s="10">
         <v>0</v>
@@ -33275,10 +33272,10 @@
       <c r="O60" s="10">
         <v>17.963999999999999</v>
       </c>
-      <c r="Q60" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R60" s="12">
+      <c r="Q60" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="R60" s="10">
         <v>1</v>
       </c>
       <c r="S60" s="10">
@@ -33286,17 +33283,17 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I61">
+      <c r="I61" s="10">
         <v>2</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="10">
         <v>2.5505554074535102</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="10">
         <v>2.5477398997380298</v>
       </c>
-      <c r="M61" s="6" t="s">
-        <v>17</v>
+      <c r="M61" s="10" t="s">
+        <v>3</v>
       </c>
       <c r="N61" s="10">
         <v>17.963999999999999</v>
@@ -33304,102 +33301,101 @@
       <c r="O61" s="10">
         <v>0</v>
       </c>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="6" t="s">
+      <c r="Q61" s="10" t="s">
         <v>17</v>
       </c>
       <c r="R61" s="10">
         <v>1.48858E-4</v>
       </c>
-      <c r="S61" s="13">
+      <c r="S61" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I62">
+      <c r="I62" s="10">
         <v>3</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="10">
         <v>2.54535181894718</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="10">
         <v>2.5435855958671199</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I63">
+      <c r="I63" s="10">
         <v>4</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="10">
         <v>2.53772691465291</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="10">
         <v>2.5365997228625901</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I64">
+      <c r="I64" s="10">
         <v>5</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="10">
         <v>2.4147228736378299</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="10">
         <v>2.41243006221181</v>
       </c>
     </row>
     <row r="65" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I65">
+      <c r="I65" s="10">
         <v>6</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="10">
         <v>1.96151016800439</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="10">
         <v>1.95793523173706</v>
       </c>
     </row>
     <row r="66" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I66">
+      <c r="I66" s="10">
         <v>7</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="10">
         <v>1.7291236438909099</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="10">
         <v>1.3386346607770601</v>
       </c>
     </row>
     <row r="67" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I67">
+      <c r="I67" s="10">
         <v>8</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="10">
         <v>1.0736310372529201</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="10">
         <v>1.0414586716202101</v>
       </c>
     </row>
     <row r="68" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I68">
+      <c r="I68" s="10">
         <v>9</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="10">
         <v>0.59936217387988899</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="10">
         <v>0.51741004930856604</v>
       </c>
     </row>
     <row r="69" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I69">
+      <c r="I69" s="10">
         <v>10</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="10">
         <v>0.29911634894509698</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="10">
         <v>0.233693339719897</v>
       </c>
     </row>

--- a/Project_3/data.xlsx
+++ b/Project_3/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="26">
   <si>
     <t>Tahoe</t>
   </si>
@@ -91,12 +91,15 @@
   <si>
     <t>P-Value</t>
   </si>
+  <si>
+    <t>standarard deviation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +149,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="7">
@@ -243,7 +252,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -257,6 +266,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -31559,13 +31571,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="Q59" sqref="Q59:S61"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="9.140625" style="10"/>
+    <col min="1" max="6" width="9.140625" style="10"/>
+    <col min="7" max="7" width="19.42578125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="9" style="10" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="10"/>
+    <col min="10" max="10" width="12.5703125" style="10" customWidth="1"/>
     <col min="11" max="12" width="10.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="10"/>
     <col min="14" max="17" width="10.140625" style="10" bestFit="1" customWidth="1"/>
@@ -31855,6 +31869,21 @@
       <c r="E8" s="10">
         <v>2.413074881</v>
       </c>
+      <c r="G8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
@@ -31871,6 +31900,18 @@
       </c>
       <c r="E9" s="10">
         <v>2.4137620279999998</v>
+      </c>
+      <c r="H9" s="11">
+        <v>7.4287629999999993E-2</v>
+      </c>
+      <c r="I9" s="11">
+        <v>6.8261039999999995E-2</v>
+      </c>
+      <c r="J9" s="11">
+        <v>4.3096250000000003E-2</v>
+      </c>
+      <c r="K9" s="11">
+        <v>2.3786810000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">

--- a/Project_3/data.xlsx
+++ b/Project_3/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4846,6 +4846,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Throughput vs Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4878,9 +4903,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -4897,15 +4921,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$76:$AJ$76</c:f>
@@ -5027,113 +5053,114 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>1.9642427</c:v>
+                  <c:v>1.9859587000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8559382</c:v>
+                  <c:v>1.9450985000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8436201000000001</c:v>
+                  <c:v>1.6022974999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8959904999999999</c:v>
+                  <c:v>1.1190146000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9610088999999999</c:v>
+                  <c:v>0.85030070000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.963544</c:v>
+                  <c:v>0.98148069999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9626402999999999</c:v>
+                  <c:v>1.3044560000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9560598</c:v>
+                  <c:v>1.6138091999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9380782999999999</c:v>
+                  <c:v>1.7281959</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.9478873999999999</c:v>
+                  <c:v>1.7773289999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.9799609</c:v>
+                  <c:v>1.7228146</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.9317724999999999</c:v>
+                  <c:v>1.7258673</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.9255310999999999</c:v>
+                  <c:v>1.8120034</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.9457603999999999</c:v>
+                  <c:v>1.9098938000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.9568653</c:v>
+                  <c:v>1.9526135</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.9604653000000001</c:v>
+                  <c:v>1.9471826999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.9552666000000001</c:v>
+                  <c:v>1.947657</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.8652314000000001</c:v>
+                  <c:v>1.9555514000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.9321562000000001</c:v>
+                  <c:v>1.9476122</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9773959000000001</c:v>
+                  <c:v>1.9584060999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9696094</c:v>
+                  <c:v>1.9430463</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.7583034</c:v>
+                  <c:v>1.9383858</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.15583156000000001</c:v>
+                  <c:v>1.9499455999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.21362929</c:v>
+                  <c:v>1.9516290000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.73157704000000001</c:v>
+                  <c:v>1.9433866</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.1253985</c:v>
+                  <c:v>1.9285927</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.5985924</c:v>
+                  <c:v>1.9311582</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.9290111999999999</c:v>
+                  <c:v>1.9268092999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.9670014</c:v>
+                  <c:v>1.9264300999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.8652599999999999</c:v>
+                  <c:v>1.7418563</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.8260812</c:v>
+                  <c:v>1.1817371999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.9433838000000001</c:v>
+                  <c:v>0.70524173999999995</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.86561924000000001</c:v>
+                  <c:v>0.58517620000000004</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.3593689</c:v>
+                  <c:v>0.79952270000000003</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.7986660999999999</c:v>
+                  <c:v>1.2650113000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FBF9-412E-8ED1-8826F5B759AC}"/>
@@ -5155,15 +5182,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$76:$AJ$76</c:f>
@@ -5285,113 +5314,114 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>0.86211055999999997</c:v>
+                  <c:v>1.9291834999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2555703</c:v>
+                  <c:v>1.5625283000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7207104</c:v>
+                  <c:v>1.1355118</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64572143999999998</c:v>
+                  <c:v>0.88804274999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19783816000000001</c:v>
+                  <c:v>0.79951589999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.68800455000000005</c:v>
+                  <c:v>0.71841675000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0750082999999999</c:v>
+                  <c:v>0.80814949999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6360496</c:v>
+                  <c:v>0.7821051</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2315502</c:v>
+                  <c:v>0.92419976000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.6028250000000006E-2</c:v>
+                  <c:v>0.97133789999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.58766320000000005</c:v>
+                  <c:v>0.84363659999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.93594940000000004</c:v>
+                  <c:v>0.80413319999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.58148040000000001</c:v>
+                  <c:v>0.79521509999999995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.13812168</c:v>
+                  <c:v>0.93723255000000005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.57747256999999996</c:v>
+                  <c:v>0.843804</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.91838359999999997</c:v>
+                  <c:v>1.0072426000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.3040259000000001</c:v>
+                  <c:v>0.95623170000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.92739930000000004</c:v>
+                  <c:v>0.85126524999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.5931299999999993E-2</c:v>
+                  <c:v>0.9159524</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.604688</c:v>
+                  <c:v>0.95458310000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.96987840000000003</c:v>
+                  <c:v>0.95142599999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.4862272999999999</c:v>
+                  <c:v>0.94062480000000004</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.62237699999999996</c:v>
+                  <c:v>1.0065564</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.21310903</c:v>
+                  <c:v>1.0133885</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.63940960000000002</c:v>
+                  <c:v>1.0058147</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.0829565999999999</c:v>
+                  <c:v>0.99131316000000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.3043115999999999</c:v>
+                  <c:v>0.85014100000000004</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.93027203999999997</c:v>
+                  <c:v>0.81948715000000005</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.92098146999999997</c:v>
+                  <c:v>0.90228079999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.95180900000000002</c:v>
+                  <c:v>0.84893529999999995</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.9494937</c:v>
+                  <c:v>0.76179229999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.97163193999999997</c:v>
+                  <c:v>0.77910349999999995</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.80045825000000004</c:v>
+                  <c:v>0.77863230000000005</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.66504399999999997</c:v>
+                  <c:v>0.96440400000000004</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.74505560000000004</c:v>
+                  <c:v>0.95612377000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FBF9-412E-8ED1-8826F5B759AC}"/>
@@ -5406,11 +5436,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:smooth val="0"/>
         <c:axId val="1990426127"/>
         <c:axId val="1990428207"/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="1990426127"/>
         <c:scaling>
@@ -5418,6 +5447,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TIME (S)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5483,6 +5567,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>THROUGHPUT (MBPS)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7135,6 +7274,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Throughput vs. Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7167,9 +7331,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -7186,15 +7349,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$90:$AJ$90</c:f>
@@ -7316,113 +7481,114 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>1.7990558999999999</c:v>
+                  <c:v>1.9680396</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9661234999999999</c:v>
+                  <c:v>1.888719</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9286816</c:v>
+                  <c:v>1.6177319999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9129444</c:v>
+                  <c:v>1.5083165000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8592785999999999</c:v>
+                  <c:v>1.3658001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8494748000000001</c:v>
+                  <c:v>1.5901637</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8959904999999999</c:v>
+                  <c:v>1.7811779000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9597555</c:v>
+                  <c:v>1.8440772999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9648021</c:v>
+                  <c:v>1.8507427000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.9626402999999999</c:v>
+                  <c:v>1.8502845999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.9560598</c:v>
+                  <c:v>1.8643327000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.9380782999999999</c:v>
+                  <c:v>1.8817082999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.9478873999999999</c:v>
+                  <c:v>1.8836097999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.9799609</c:v>
+                  <c:v>1.8953338</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.9317724999999999</c:v>
+                  <c:v>1.9246379</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.9255310999999999</c:v>
+                  <c:v>1.9559101999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.9457603999999999</c:v>
+                  <c:v>1.9448909999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.9568653</c:v>
+                  <c:v>1.9566338000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.9604653000000001</c:v>
+                  <c:v>1.9464125999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9552666000000001</c:v>
+                  <c:v>1.9553275999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.8652314000000001</c:v>
+                  <c:v>1.9505802000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.9321562000000001</c:v>
+                  <c:v>1.9479864</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.9773959000000001</c:v>
+                  <c:v>1.9392697999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.9696094</c:v>
+                  <c:v>1.9448082</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.7583034</c:v>
+                  <c:v>1.9484642999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.79624899999999998</c:v>
+                  <c:v>1.9328863999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.3584377000000001</c:v>
+                  <c:v>1.9313552</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.7966605</c:v>
+                  <c:v>1.9228315</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.973624</c:v>
+                  <c:v>1.9238747</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.9196076</c:v>
+                  <c:v>1.7769253</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.9437951</c:v>
+                  <c:v>1.5699825000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.9199132999999999</c:v>
+                  <c:v>1.4634134999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.8697569999999999</c:v>
+                  <c:v>1.3377881</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.393645</c:v>
+                  <c:v>1.6423365000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0465989</c:v>
+                  <c:v>1.8742574000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7881-48B2-A16A-51FB2700B485}"/>
@@ -7444,15 +7610,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$90:$AJ$90</c:f>
@@ -7574,113 +7742,114 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>0.88161235999999998</c:v>
+                  <c:v>1.8448431000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91965350000000001</c:v>
+                  <c:v>1.5911894</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92048054999999995</c:v>
+                  <c:v>1.4301193000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75735724000000004</c:v>
+                  <c:v>1.1616883</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0361407</c:v>
+                  <c:v>0.97375535999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4915395</c:v>
+                  <c:v>1.1456687000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1375299000000001</c:v>
+                  <c:v>1.2045789</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1646798</c:v>
+                  <c:v>1.1399812</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.85121422999999996</c:v>
+                  <c:v>1.2075342</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0996870000000001</c:v>
+                  <c:v>1.1240911</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.6315086000000001</c:v>
+                  <c:v>1.1164489</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1773625999999999</c:v>
+                  <c:v>1.1782763999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0909137</c:v>
+                  <c:v>1.1694559</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.81111752999999998</c:v>
+                  <c:v>1.3053355</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0376289999999999</c:v>
+                  <c:v>1.3382354000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.72743164999999999</c:v>
+                  <c:v>1.3785723000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.2585522</c:v>
+                  <c:v>1.4757769999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6249425</c:v>
+                  <c:v>1.4676297</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.910839</c:v>
+                  <c:v>1.3068801999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9190174</c:v>
+                  <c:v>1.2241046</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9524615999999999</c:v>
+                  <c:v>1.2353305999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.9450635000000001</c:v>
+                  <c:v>1.3375508</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.9665736</c:v>
+                  <c:v>1.3944479000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.9570471</c:v>
+                  <c:v>1.4236416000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.6950942</c:v>
+                  <c:v>1.2122666</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.68132037000000001</c:v>
+                  <c:v>1.097564</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.75090559999999995</c:v>
+                  <c:v>0.91369909999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.1274599000000001</c:v>
+                  <c:v>1.1363165</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.4339782000000001</c:v>
+                  <c:v>1.1215485000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.87702124999999997</c:v>
+                  <c:v>1.1794</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.2623333999999999</c:v>
+                  <c:v>1.1558075999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.83831670000000003</c:v>
+                  <c:v>1.0704583000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.2153125</c:v>
+                  <c:v>0.91281639999999997</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.0550021000000001</c:v>
+                  <c:v>0.96699740000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.069291</c:v>
+                  <c:v>1.1348853000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7881-48B2-A16A-51FB2700B485}"/>
@@ -7695,11 +7864,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:smooth val="0"/>
         <c:axId val="213167327"/>
         <c:axId val="213176063"/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="213167327"/>
         <c:scaling>
@@ -7707,6 +7875,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TIME (S)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7772,6 +7995,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>THROUGHPUT (MBPS)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -27723,8 +28001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="B56" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73:K73"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="H117" sqref="H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29688,109 +29966,109 @@
         <v>18</v>
       </c>
       <c r="B77">
-        <v>1.9642427</v>
+        <v>1.9859587000000001</v>
       </c>
       <c r="C77">
-        <v>1.8559382</v>
+        <v>1.9450985000000001</v>
       </c>
       <c r="D77">
-        <v>1.8436201000000001</v>
+        <v>1.6022974999999999</v>
       </c>
       <c r="E77">
-        <v>1.8959904999999999</v>
+        <v>1.1190146000000001</v>
       </c>
       <c r="F77">
-        <v>1.9610088999999999</v>
+        <v>0.85030070000000002</v>
       </c>
       <c r="G77">
-        <v>1.963544</v>
+        <v>0.98148069999999998</v>
       </c>
       <c r="H77">
-        <v>1.9626402999999999</v>
+        <v>1.3044560000000001</v>
       </c>
       <c r="I77">
-        <v>1.9560598</v>
+        <v>1.6138091999999999</v>
       </c>
       <c r="J77">
-        <v>1.9380782999999999</v>
+        <v>1.7281959</v>
       </c>
       <c r="K77">
-        <v>1.9478873999999999</v>
+        <v>1.7773289999999999</v>
       </c>
       <c r="L77">
-        <v>1.9799609</v>
+        <v>1.7228146</v>
       </c>
       <c r="M77">
-        <v>1.9317724999999999</v>
+        <v>1.7258673</v>
       </c>
       <c r="N77">
-        <v>1.9255310999999999</v>
+        <v>1.8120034</v>
       </c>
       <c r="O77">
-        <v>1.9457603999999999</v>
+        <v>1.9098938000000001</v>
       </c>
       <c r="P77">
-        <v>1.9568653</v>
+        <v>1.9526135</v>
       </c>
       <c r="Q77">
-        <v>1.9604653000000001</v>
+        <v>1.9471826999999999</v>
       </c>
       <c r="R77">
-        <v>1.9552666000000001</v>
+        <v>1.947657</v>
       </c>
       <c r="S77">
-        <v>1.8652314000000001</v>
+        <v>1.9555514000000001</v>
       </c>
       <c r="T77">
-        <v>1.9321562000000001</v>
+        <v>1.9476122</v>
       </c>
       <c r="U77">
-        <v>1.9773959000000001</v>
+        <v>1.9584060999999999</v>
       </c>
       <c r="V77">
-        <v>1.9696094</v>
+        <v>1.9430463</v>
       </c>
       <c r="W77">
-        <v>1.7583034</v>
+        <v>1.9383858</v>
       </c>
       <c r="X77">
-        <v>0.15583156000000001</v>
+        <v>1.9499455999999999</v>
       </c>
       <c r="Y77">
-        <v>0.21362929</v>
+        <v>1.9516290000000001</v>
       </c>
       <c r="Z77">
-        <v>0.73157704000000001</v>
+        <v>1.9433866</v>
       </c>
       <c r="AA77">
-        <v>1.1253985</v>
+        <v>1.9285927</v>
       </c>
       <c r="AB77">
-        <v>1.5985924</v>
+        <v>1.9311582</v>
       </c>
       <c r="AC77">
-        <v>1.9290111999999999</v>
+        <v>1.9268092999999999</v>
       </c>
       <c r="AD77">
-        <v>1.9670014</v>
+        <v>1.9264300999999999</v>
       </c>
       <c r="AE77">
-        <v>1.8652599999999999</v>
+        <v>1.7418563</v>
       </c>
       <c r="AF77">
-        <v>1.8260812</v>
+        <v>1.1817371999999999</v>
       </c>
       <c r="AG77">
-        <v>1.9433838000000001</v>
+        <v>0.70524173999999995</v>
       </c>
       <c r="AH77">
-        <v>0.86561924000000001</v>
+        <v>0.58517620000000004</v>
       </c>
       <c r="AI77">
-        <v>1.3593689</v>
+        <v>0.79952270000000003</v>
       </c>
       <c r="AJ77">
-        <v>1.7986660999999999</v>
+        <v>1.2650113000000001</v>
       </c>
     </row>
     <row r="78" spans="1:36" x14ac:dyDescent="0.25">
@@ -29798,109 +30076,109 @@
         <v>19</v>
       </c>
       <c r="B78">
-        <v>0.86211055999999997</v>
+        <v>1.9291834999999999</v>
       </c>
       <c r="C78">
-        <v>1.2555703</v>
+        <v>1.5625283000000001</v>
       </c>
       <c r="D78">
-        <v>1.7207104</v>
+        <v>1.1355118</v>
       </c>
       <c r="E78">
-        <v>0.64572143999999998</v>
+        <v>0.88804274999999999</v>
       </c>
       <c r="F78">
-        <v>0.19783816000000001</v>
+        <v>0.79951589999999995</v>
       </c>
       <c r="G78">
-        <v>0.68800455000000005</v>
+        <v>0.71841675000000005</v>
       </c>
       <c r="H78">
-        <v>1.0750082999999999</v>
+        <v>0.80814949999999997</v>
       </c>
       <c r="I78">
-        <v>1.6360496</v>
+        <v>0.7821051</v>
       </c>
       <c r="J78">
-        <v>1.2315502</v>
+        <v>0.92419976000000004</v>
       </c>
       <c r="K78">
-        <v>7.6028250000000006E-2</v>
+        <v>0.97133789999999998</v>
       </c>
       <c r="L78">
-        <v>0.58766320000000005</v>
+        <v>0.84363659999999996</v>
       </c>
       <c r="M78">
-        <v>0.93594940000000004</v>
+        <v>0.80413319999999999</v>
       </c>
       <c r="N78">
-        <v>0.58148040000000001</v>
+        <v>0.79521509999999995</v>
       </c>
       <c r="O78">
-        <v>0.13812168</v>
+        <v>0.93723255000000005</v>
       </c>
       <c r="P78">
-        <v>0.57747256999999996</v>
+        <v>0.843804</v>
       </c>
       <c r="Q78">
-        <v>0.91838359999999997</v>
+        <v>1.0072426000000001</v>
       </c>
       <c r="R78">
-        <v>1.3040259000000001</v>
+        <v>0.95623170000000002</v>
       </c>
       <c r="S78">
-        <v>0.92739930000000004</v>
+        <v>0.85126524999999997</v>
       </c>
       <c r="T78">
-        <v>7.5931299999999993E-2</v>
+        <v>0.9159524</v>
       </c>
       <c r="U78">
-        <v>0.604688</v>
+        <v>0.95458310000000002</v>
       </c>
       <c r="V78">
-        <v>0.96987840000000003</v>
+        <v>0.95142599999999999</v>
       </c>
       <c r="W78">
-        <v>1.4862272999999999</v>
+        <v>0.94062480000000004</v>
       </c>
       <c r="X78">
-        <v>0.62237699999999996</v>
+        <v>1.0065564</v>
       </c>
       <c r="Y78">
-        <v>0.21310903</v>
+        <v>1.0133885</v>
       </c>
       <c r="Z78">
-        <v>0.63940960000000002</v>
+        <v>1.0058147</v>
       </c>
       <c r="AA78">
-        <v>1.0829565999999999</v>
+        <v>0.99131316000000003</v>
       </c>
       <c r="AB78">
-        <v>1.3043115999999999</v>
+        <v>0.85014100000000004</v>
       </c>
       <c r="AC78">
-        <v>0.93027203999999997</v>
+        <v>0.81948715000000005</v>
       </c>
       <c r="AD78">
-        <v>0.92098146999999997</v>
+        <v>0.90228079999999999</v>
       </c>
       <c r="AE78">
-        <v>0.95180900000000002</v>
+        <v>0.84893529999999995</v>
       </c>
       <c r="AF78">
-        <v>0.9494937</v>
+        <v>0.76179229999999998</v>
       </c>
       <c r="AG78">
-        <v>0.97163193999999997</v>
+        <v>0.77910349999999995</v>
       </c>
       <c r="AH78">
-        <v>0.80045825000000004</v>
+        <v>0.77863230000000005</v>
       </c>
       <c r="AI78">
-        <v>0.66504399999999997</v>
+        <v>0.96440400000000004</v>
       </c>
       <c r="AJ78">
-        <v>0.74505560000000004</v>
+        <v>0.95612377000000004</v>
       </c>
     </row>
     <row r="80" spans="1:36" x14ac:dyDescent="0.25">
@@ -30685,109 +30963,109 @@
         <v>18</v>
       </c>
       <c r="B91" s="9">
-        <v>1.7990558999999999</v>
+        <v>1.9680396</v>
       </c>
       <c r="C91">
-        <v>1.9661234999999999</v>
+        <v>1.888719</v>
       </c>
       <c r="D91">
-        <v>1.9286816</v>
+        <v>1.6177319999999999</v>
       </c>
       <c r="E91">
-        <v>1.9129444</v>
+        <v>1.5083165000000001</v>
       </c>
       <c r="F91">
-        <v>1.8592785999999999</v>
+        <v>1.3658001</v>
       </c>
       <c r="G91">
-        <v>1.8494748000000001</v>
+        <v>1.5901637</v>
       </c>
       <c r="H91">
-        <v>1.8959904999999999</v>
+        <v>1.7811779000000001</v>
       </c>
       <c r="I91">
-        <v>1.9597555</v>
+        <v>1.8440772999999999</v>
       </c>
       <c r="J91">
-        <v>1.9648021</v>
+        <v>1.8507427000000001</v>
       </c>
       <c r="K91">
-        <v>1.9626402999999999</v>
+        <v>1.8502845999999999</v>
       </c>
       <c r="L91">
-        <v>1.9560598</v>
+        <v>1.8643327000000001</v>
       </c>
       <c r="M91">
-        <v>1.9380782999999999</v>
+        <v>1.8817082999999999</v>
       </c>
       <c r="N91">
-        <v>1.9478873999999999</v>
+        <v>1.8836097999999999</v>
       </c>
       <c r="O91">
-        <v>1.9799609</v>
+        <v>1.8953338</v>
       </c>
       <c r="P91">
-        <v>1.9317724999999999</v>
+        <v>1.9246379</v>
       </c>
       <c r="Q91">
-        <v>1.9255310999999999</v>
+        <v>1.9559101999999999</v>
       </c>
       <c r="R91">
-        <v>1.9457603999999999</v>
+        <v>1.9448909999999999</v>
       </c>
       <c r="S91">
-        <v>1.9568653</v>
+        <v>1.9566338000000001</v>
       </c>
       <c r="T91">
-        <v>1.9604653000000001</v>
+        <v>1.9464125999999999</v>
       </c>
       <c r="U91">
-        <v>1.9552666000000001</v>
+        <v>1.9553275999999999</v>
       </c>
       <c r="V91">
-        <v>1.8652314000000001</v>
+        <v>1.9505802000000001</v>
       </c>
       <c r="W91">
-        <v>1.9321562000000001</v>
+        <v>1.9479864</v>
       </c>
       <c r="X91">
-        <v>1.9773959000000001</v>
+        <v>1.9392697999999999</v>
       </c>
       <c r="Y91">
-        <v>1.9696094</v>
+        <v>1.9448082</v>
       </c>
       <c r="Z91">
-        <v>1.7583034</v>
+        <v>1.9484642999999999</v>
       </c>
       <c r="AA91">
-        <v>0.79624899999999998</v>
+        <v>1.9328863999999999</v>
       </c>
       <c r="AB91">
-        <v>1.3584377000000001</v>
+        <v>1.9313552</v>
       </c>
       <c r="AC91">
-        <v>1.7966605</v>
+        <v>1.9228315</v>
       </c>
       <c r="AD91">
-        <v>1.973624</v>
+        <v>1.9238747</v>
       </c>
       <c r="AE91">
-        <v>1.9196076</v>
+        <v>1.7769253</v>
       </c>
       <c r="AF91">
-        <v>1.9437951</v>
+        <v>1.5699825000000001</v>
       </c>
       <c r="AG91">
-        <v>1.9199132999999999</v>
+        <v>1.4634134999999999</v>
       </c>
       <c r="AH91">
-        <v>1.8697569999999999</v>
+        <v>1.3377881</v>
       </c>
       <c r="AI91">
-        <v>1.393645</v>
+        <v>1.6423365000000001</v>
       </c>
       <c r="AJ91">
-        <v>1.0465989</v>
+        <v>1.8742574000000001</v>
       </c>
     </row>
     <row r="92" spans="1:36" x14ac:dyDescent="0.25">
@@ -30795,109 +31073,109 @@
         <v>19</v>
       </c>
       <c r="B92">
-        <v>0.88161235999999998</v>
+        <v>1.8448431000000001</v>
       </c>
       <c r="C92">
-        <v>0.91965350000000001</v>
+        <v>1.5911894</v>
       </c>
       <c r="D92">
-        <v>0.92048054999999995</v>
+        <v>1.4301193000000001</v>
       </c>
       <c r="E92">
-        <v>0.75735724000000004</v>
+        <v>1.1616883</v>
       </c>
       <c r="F92">
-        <v>1.0361407</v>
+        <v>0.97375535999999996</v>
       </c>
       <c r="G92">
-        <v>1.4915395</v>
+        <v>1.1456687000000001</v>
       </c>
       <c r="H92">
-        <v>1.1375299000000001</v>
+        <v>1.2045789</v>
       </c>
       <c r="I92">
-        <v>1.1646798</v>
+        <v>1.1399812</v>
       </c>
       <c r="J92">
-        <v>0.85121422999999996</v>
+        <v>1.2075342</v>
       </c>
       <c r="K92">
-        <v>1.0996870000000001</v>
+        <v>1.1240911</v>
       </c>
       <c r="L92">
-        <v>1.6315086000000001</v>
+        <v>1.1164489</v>
       </c>
       <c r="M92">
-        <v>1.1773625999999999</v>
+        <v>1.1782763999999999</v>
       </c>
       <c r="N92">
-        <v>1.0909137</v>
+        <v>1.1694559</v>
       </c>
       <c r="O92">
-        <v>0.81111752999999998</v>
+        <v>1.3053355</v>
       </c>
       <c r="P92">
-        <v>1.0376289999999999</v>
+        <v>1.3382354000000001</v>
       </c>
       <c r="Q92">
-        <v>0.72743164999999999</v>
+        <v>1.3785723000000001</v>
       </c>
       <c r="R92">
-        <v>1.2585522</v>
+        <v>1.4757769999999999</v>
       </c>
       <c r="S92">
-        <v>1.6249425</v>
+        <v>1.4676297</v>
       </c>
       <c r="T92">
-        <v>1.910839</v>
+        <v>1.3068801999999999</v>
       </c>
       <c r="U92">
-        <v>1.9190174</v>
+        <v>1.2241046</v>
       </c>
       <c r="V92">
-        <v>1.9524615999999999</v>
+        <v>1.2353305999999999</v>
       </c>
       <c r="W92">
-        <v>1.9450635000000001</v>
+        <v>1.3375508</v>
       </c>
       <c r="X92">
-        <v>1.9665736</v>
+        <v>1.3944479000000001</v>
       </c>
       <c r="Y92">
-        <v>1.9570471</v>
+        <v>1.4236416000000001</v>
       </c>
       <c r="Z92">
-        <v>1.6950942</v>
+        <v>1.2122666</v>
       </c>
       <c r="AA92">
-        <v>0.68132037000000001</v>
+        <v>1.097564</v>
       </c>
       <c r="AB92">
-        <v>0.75090559999999995</v>
+        <v>0.91369909999999999</v>
       </c>
       <c r="AC92">
-        <v>1.1274599000000001</v>
+        <v>1.1363165</v>
       </c>
       <c r="AD92">
-        <v>1.4339782000000001</v>
+        <v>1.1215485000000001</v>
       </c>
       <c r="AE92">
-        <v>0.87702124999999997</v>
+        <v>1.1794</v>
       </c>
       <c r="AF92">
-        <v>1.2623333999999999</v>
+        <v>1.1558075999999999</v>
       </c>
       <c r="AG92">
-        <v>0.83831670000000003</v>
+        <v>1.0704583000000001</v>
       </c>
       <c r="AH92">
-        <v>1.2153125</v>
+        <v>0.91281639999999997</v>
       </c>
       <c r="AI92">
-        <v>1.0550021000000001</v>
+        <v>0.96699740000000001</v>
       </c>
       <c r="AJ92">
-        <v>1.069291</v>
+        <v>1.1348853000000001</v>
       </c>
     </row>
     <row r="94" spans="1:36" x14ac:dyDescent="0.25">
@@ -31571,7 +31849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Project_3/data.xlsx
+++ b/Project_3/data.xlsx
@@ -15,15 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="25">
   <si>
     <t>Tahoe</t>
   </si>
   <si>
     <t>Reno</t>
-  </si>
-  <si>
-    <t>Newreno</t>
   </si>
   <si>
     <t>Vegas</t>
@@ -597,7 +594,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Newreno</c:v>
+                  <c:v>NewReno</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5782,7 +5779,7 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="percentStacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -6309,7 +6306,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:overlap val="100"/>
         <c:axId val="37930687"/>
         <c:axId val="37926527"/>
       </c:barChart>
@@ -6385,7 +6382,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8477,7 +8474,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Newreno</c:v>
+                  <c:v>NewReno</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9057,7 +9054,7 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="percentStacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -9584,7 +9581,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:overlap val="100"/>
         <c:axId val="133793871"/>
         <c:axId val="133803855"/>
       </c:barChart>
@@ -9660,7 +9657,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -10853,7 +10850,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Newreno</c:v>
+                  <c:v>NewReno</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -28001,8 +27998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="H117" sqref="H117"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28012,12 +28009,12 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -28122,7 +28119,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>2.5859900047540498</v>
@@ -28157,7 +28154,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>2.45268692746727</v>
@@ -28192,7 +28189,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -28297,7 +28294,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>6.5900929999999996E-2</v>
@@ -28332,7 +28329,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12">
         <v>6.5861050000000004E-2</v>
@@ -28367,7 +28364,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -28472,7 +28469,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -28507,7 +28504,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -28542,17 +28539,17 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -28587,7 +28584,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23">
         <v>2.5532883846338899</v>
@@ -28622,7 +28619,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24">
         <v>2.5529877249322501</v>
@@ -28657,7 +28654,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -28692,7 +28689,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27">
         <v>6.6098354999999998E-2</v>
@@ -28727,7 +28724,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28">
         <v>6.6112526000000005E-2</v>
@@ -28762,7 +28759,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -28797,7 +28794,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -28832,7 +28829,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32" s="4">
         <v>0</v>
@@ -28868,12 +28865,12 @@
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:11" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -28908,7 +28905,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36">
         <v>2.5532883846338899</v>
@@ -28978,7 +28975,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -29013,7 +29010,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40">
         <v>6.6098354999999998E-2</v>
@@ -29083,7 +29080,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -29118,7 +29115,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -29193,12 +29190,12 @@
     </row>
     <row r="47" spans="1:11" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -29233,7 +29230,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B49">
         <v>2.40772858268712</v>
@@ -29268,7 +29265,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B50">
         <v>2.4074556325173799</v>
@@ -29303,7 +29300,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -29338,7 +29335,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B53">
         <v>6.6047855000000003E-2</v>
@@ -29373,7 +29370,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B54">
         <v>6.6073655999999995E-2</v>
@@ -29408,7 +29405,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -29443,7 +29440,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -29478,7 +29475,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B58" s="4">
         <v>0</v>
@@ -29523,12 +29520,12 @@
     </row>
     <row r="61" spans="1:11" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -29563,7 +29560,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B63">
         <v>2.5532883846338899</v>
@@ -29598,7 +29595,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B64">
         <v>2.5529877249322501</v>
@@ -29633,7 +29630,7 @@
     </row>
     <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -29668,7 +29665,7 @@
     </row>
     <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B67">
         <v>6.6098354999999998E-2</v>
@@ -29703,7 +29700,7 @@
     </row>
     <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B68">
         <v>6.6112526000000005E-2</v>
@@ -29738,7 +29735,7 @@
     </row>
     <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -29773,7 +29770,7 @@
     </row>
     <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -29808,7 +29805,7 @@
     </row>
     <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B72" s="4">
         <v>0</v>
@@ -29843,7 +29840,7 @@
     </row>
     <row r="74" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -29853,7 +29850,7 @@
     </row>
     <row r="76" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B76">
         <v>1.25</v>
@@ -29963,7 +29960,7 @@
     </row>
     <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B77">
         <v>1.9859587000000001</v>
@@ -30073,7 +30070,7 @@
     </row>
     <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B78">
         <v>1.9291834999999999</v>
@@ -30183,7 +30180,7 @@
     </row>
     <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B80">
         <v>1.25</v>
@@ -30293,7 +30290,7 @@
     </row>
     <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B81">
         <v>7.0009249999999995E-2</v>
@@ -30403,7 +30400,7 @@
     </row>
     <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B82">
         <v>7.3504075000000002E-2</v>
@@ -30514,7 +30511,7 @@
     <row r="83" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B84">
         <v>1.25</v>
@@ -30624,7 +30621,7 @@
     </row>
     <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -30693,7 +30690,7 @@
         <v>5.9999990000000003E-2</v>
       </c>
       <c r="X85" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y85">
         <v>0</v>
@@ -30734,7 +30731,7 @@
     </row>
     <row r="86" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B86">
         <v>8.333335E-2</v>
@@ -30845,12 +30842,12 @@
     <row r="88" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="89" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B90">
         <v>1.25</v>
@@ -30960,7 +30957,7 @@
     </row>
     <row r="91" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B91" s="9">
         <v>1.9680396</v>
@@ -31070,7 +31067,7 @@
     </row>
     <row r="92" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B92">
         <v>1.8448431000000001</v>
@@ -31180,7 +31177,7 @@
     </row>
     <row r="94" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B94">
         <v>1.25</v>
@@ -31290,7 +31287,7 @@
     </row>
     <row r="95" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B95">
         <v>6.9855399999999998E-2</v>
@@ -31400,7 +31397,7 @@
     </row>
     <row r="96" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B96">
         <v>9.1035019999999994E-2</v>
@@ -31510,7 +31507,7 @@
     </row>
     <row r="98" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B98">
         <v>1.25</v>
@@ -31620,7 +31617,7 @@
     </row>
     <row r="99" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -31730,7 +31727,7 @@
     </row>
     <row r="100" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -31849,7 +31846,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -31873,10 +31872,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -31896,7 +31895,7 @@
         <v>2.4167213649999999</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>0</v>
@@ -31905,13 +31904,13 @@
         <v>1</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>0</v>
@@ -31920,10 +31919,10 @@
         <v>1</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -32037,7 +32036,7 @@
         <v>2.4166907119999999</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="10">
         <v>5.8643999999999998</v>
@@ -32052,7 +32051,7 @@
         <v>21.954999999999998</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N5" s="10">
         <v>3.629E-5</v>
@@ -32084,7 +32083,7 @@
         <v>2.4183203199999999</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" s="10">
         <v>5.9733999999999998</v>
@@ -32099,7 +32098,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N6" s="10">
         <v>9.2879999999999995E-8</v>
@@ -32148,7 +32147,7 @@
         <v>2.413074881</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>0</v>
@@ -32157,10 +32156,10 @@
         <v>1</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -32228,35 +32227,35 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I12" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="N13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O13" s="10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I14" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J14" s="10">
         <v>0</v>
@@ -32265,7 +32264,7 @@
         <v>7.1547000000000001</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N14" s="10">
         <v>1</v>
@@ -32276,7 +32275,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I15" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J15" s="10">
         <v>7.1547000000000001</v>
@@ -32285,7 +32284,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N15" s="10">
         <v>1.564E-9</v>
@@ -32299,19 +32298,19 @@
         <v>1</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>19</v>
-      </c>
       <c r="E17" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>1</v>
@@ -32340,22 +32339,22 @@
         <v>0.86211055999999997</v>
       </c>
       <c r="I18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="N18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -32378,7 +32377,7 @@
         <v>1.2555703</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J19" s="10">
         <v>0</v>
@@ -32387,7 +32386,7 @@
         <v>8.0890000000000004</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N19" s="10">
         <v>1</v>
@@ -32416,7 +32415,7 @@
         <v>1.7207104</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J20" s="10">
         <v>8.0890000000000004</v>
@@ -32425,7 +32424,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N20" s="10">
         <v>1.8419999999999999E-11</v>
@@ -32494,31 +32493,31 @@
         <v>0.68800455000000005</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="10" t="s">
-        <v>10</v>
-      </c>
       <c r="M23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q23" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N23" s="10" t="s">
+      <c r="R23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="S23" s="10" t="s">
         <v>9</v>
-      </c>
-      <c r="O23" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q23" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="R23" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="S23" s="10" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -32550,7 +32549,7 @@
         <v>2.5529877249322501</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N24" s="10">
         <v>0</v>
@@ -32559,7 +32558,7 @@
         <v>34.344999999999999</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R24" s="10">
         <v>1</v>
@@ -32597,7 +32596,7 @@
         <v>2.5477398997380298</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N25" s="10">
         <v>34.344999999999999</v>
@@ -32606,7 +32605,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R25" s="10">
         <v>2.2E-16</v>
@@ -32887,28 +32886,28 @@
         <v>0.92739930000000004</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K35" s="10" t="s">
         <v>1</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O35" s="10" t="s">
         <v>1</v>
       </c>
       <c r="Q35" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R35" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S35" s="10" t="s">
         <v>1</v>
@@ -32943,7 +32942,7 @@
         <v>2.5529877249322501</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N36" s="10">
         <v>0</v>
@@ -32952,7 +32951,7 @@
         <v>16.747</v>
       </c>
       <c r="Q36" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R36" s="10">
         <v>1</v>
@@ -33280,31 +33279,31 @@
         <v>0.95180900000000002</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J47" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K47" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K47" s="10" t="s">
-        <v>17</v>
-      </c>
       <c r="M47" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N47" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O47" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q47" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N47" s="10" t="s">
+      <c r="R47" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S47" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="O47" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q47" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="R47" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="S47" s="10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -33336,7 +33335,7 @@
         <v>2.4074556325173799</v>
       </c>
       <c r="M48" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N48" s="10">
         <v>0</v>
@@ -33345,7 +33344,7 @@
         <v>16.149999999999999</v>
       </c>
       <c r="Q48" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R48" s="10">
         <v>1</v>
@@ -33383,7 +33382,7 @@
         <v>2.4014276030405299</v>
       </c>
       <c r="M49" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N49" s="10">
         <v>16.149999999999999</v>
@@ -33392,7 +33391,7 @@
         <v>0</v>
       </c>
       <c r="Q49" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R49" s="10">
         <v>8.7319999999999997E-5</v>
@@ -33545,31 +33544,31 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I59" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M59" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N59" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="O59" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q59" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N59" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="O59" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q59" s="10" t="s">
-        <v>24</v>
-      </c>
       <c r="R59" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S59" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
@@ -33583,7 +33582,7 @@
         <v>2.5529877249322501</v>
       </c>
       <c r="M60" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N60" s="10">
         <v>0</v>
@@ -33592,7 +33591,7 @@
         <v>17.963999999999999</v>
       </c>
       <c r="Q60" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R60" s="10">
         <v>1</v>
@@ -33612,7 +33611,7 @@
         <v>2.5477398997380298</v>
       </c>
       <c r="M61" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N61" s="10">
         <v>17.963999999999999</v>
@@ -33621,7 +33620,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R61" s="10">
         <v>1.48858E-4</v>
